--- a/PIT4/validation-rules/Enhanced Reporting Validation Rules.xlsx
+++ b/PIT4/validation-rules/Enhanced Reporting Validation Rules.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20358"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75A280C2-5DC8-4175-9E20-5AA7ED0B63A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{274E0F25-B998-4921-A36A-8425C7972377}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="3270" windowWidth="20790" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="25350" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="182">
   <si>
     <t xml:space="preserve">Latest Version History </t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>New Validation Rules Added</t>
+  </si>
+  <si>
+    <t>145 &amp; 43</t>
   </si>
   <si>
     <t>Validation rule removed</t>
@@ -370,12 +373,6 @@
   </si>
   <si>
     <t>PayDate</t>
-  </si>
-  <si>
-    <t>Pay Date must be a valid date in the format YYYY-MM-DD (e.g. 2019-01-31).</t>
-  </si>
-  <si>
-    <t>Invalid date specified.  Must be in the format YYYY-MM-DD (e.g. 2019-04-10).</t>
   </si>
   <si>
     <t>Warning:  No PPSN or employment ID provided.</t>
@@ -894,7 +891,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1066,9 +1063,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -21848,7 +21842,7 @@
   <dimension ref="B8:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -21857,24 +21851,24 @@
     <col min="2" max="2" width="13.28515625" style="11" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" style="11" customWidth="1"/>
     <col min="4" max="4" width="51.140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="55.42578125" style="73" customWidth="1"/>
+    <col min="5" max="5" width="55.42578125" style="72" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" style="7" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="8" spans="2:5">
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="10" t="s">
@@ -21898,7 +21892,7 @@
       <c r="D12" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="68"/>
+      <c r="E12" s="67"/>
     </row>
     <row r="13" spans="2:5" ht="45">
       <c r="B13" s="22">
@@ -21910,363 +21904,363 @@
       <c r="D13" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="75">
+      <c r="E13" s="74">
         <v>45126</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="30">
-      <c r="B14" s="77">
+      <c r="B14" s="76">
         <v>0.12</v>
       </c>
-      <c r="C14" s="74">
+      <c r="C14" s="73">
         <v>169</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E14" s="79">
         <v>45218</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="78"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="81"/>
+      <c r="E15" s="80"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="78"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="81"/>
+      <c r="E16" s="80"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="78"/>
-      <c r="C17" s="74">
-        <v>145</v>
+      <c r="B17" s="77"/>
+      <c r="C17" s="73" t="s">
+        <v>13</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="81"/>
+        <v>14</v>
+      </c>
+      <c r="E17" s="80"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="79"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="82"/>
+        <v>16</v>
+      </c>
+      <c r="E18" s="81"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="64"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="9"/>
       <c r="D19" s="35"/>
-      <c r="E19" s="68"/>
+      <c r="E19" s="67"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="64"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="9"/>
       <c r="D20" s="35"/>
-      <c r="E20" s="69"/>
+      <c r="E20" s="68"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="22"/>
       <c r="C21" s="9"/>
       <c r="D21" s="35"/>
-      <c r="E21" s="68"/>
+      <c r="E21" s="67"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="22"/>
       <c r="C22" s="9"/>
       <c r="D22" s="35"/>
-      <c r="E22" s="68"/>
+      <c r="E22" s="67"/>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="22"/>
       <c r="C23" s="9"/>
       <c r="D23" s="35"/>
-      <c r="E23" s="68"/>
+      <c r="E23" s="67"/>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="22"/>
       <c r="C24" s="9"/>
       <c r="D24" s="35"/>
-      <c r="E24" s="68"/>
+      <c r="E24" s="67"/>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="22"/>
       <c r="C25" s="9"/>
       <c r="D25" s="35"/>
-      <c r="E25" s="68"/>
+      <c r="E25" s="67"/>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="22"/>
       <c r="C26" s="9"/>
       <c r="D26" s="35"/>
-      <c r="E26" s="69"/>
+      <c r="E26" s="68"/>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="22"/>
       <c r="C27" s="9"/>
       <c r="D27" s="35"/>
-      <c r="E27" s="68"/>
+      <c r="E27" s="67"/>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="22"/>
       <c r="C28" s="9"/>
       <c r="D28" s="35"/>
-      <c r="E28" s="68"/>
+      <c r="E28" s="67"/>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="22"/>
       <c r="C29" s="9"/>
       <c r="D29" s="35"/>
-      <c r="E29" s="68"/>
+      <c r="E29" s="67"/>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="22"/>
       <c r="C30" s="9"/>
       <c r="D30" s="35"/>
-      <c r="E30" s="68"/>
+      <c r="E30" s="67"/>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="22"/>
       <c r="C31" s="9"/>
       <c r="D31" s="35"/>
-      <c r="E31" s="68"/>
+      <c r="E31" s="67"/>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="22"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
-      <c r="E32" s="68"/>
+      <c r="E32" s="67"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="65"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
-      <c r="E33" s="70"/>
+      <c r="E33" s="69"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="66"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="39"/>
       <c r="D34" s="41"/>
-      <c r="E34" s="71"/>
+      <c r="E34" s="70"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="66"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="38"/>
       <c r="D35" s="41"/>
-      <c r="E35" s="71"/>
+      <c r="E35" s="70"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="66"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="38"/>
       <c r="D36" s="41"/>
-      <c r="E36" s="71"/>
+      <c r="E36" s="70"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="66"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="38"/>
       <c r="D37" s="41"/>
-      <c r="E37" s="71"/>
+      <c r="E37" s="70"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="66"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="40"/>
       <c r="D38" s="41"/>
-      <c r="E38" s="71"/>
+      <c r="E38" s="70"/>
     </row>
     <row r="39" spans="2:5" ht="15.75">
-      <c r="B39" s="66"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="17"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="66"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="38"/>
       <c r="D40" s="41"/>
-      <c r="E40" s="72"/>
+      <c r="E40" s="71"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="66"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="38"/>
       <c r="D41" s="41"/>
-      <c r="E41" s="71"/>
+      <c r="E41" s="70"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="66"/>
+      <c r="B42" s="65"/>
       <c r="C42" s="38"/>
       <c r="D42" s="41"/>
-      <c r="E42" s="71"/>
+      <c r="E42" s="70"/>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="66"/>
+      <c r="B43" s="65"/>
       <c r="C43" s="46"/>
       <c r="D43" s="41"/>
-      <c r="E43" s="71"/>
+      <c r="E43" s="70"/>
     </row>
     <row r="44" spans="2:5">
-      <c r="B44" s="66"/>
+      <c r="B44" s="65"/>
       <c r="C44" s="38"/>
       <c r="D44" s="41"/>
-      <c r="E44" s="71"/>
+      <c r="E44" s="70"/>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="66"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="38"/>
       <c r="D45" s="41"/>
-      <c r="E45" s="72"/>
+      <c r="E45" s="71"/>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="66"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="49"/>
       <c r="D46" s="41"/>
-      <c r="E46" s="71"/>
+      <c r="E46" s="70"/>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="66"/>
+      <c r="B47" s="65"/>
       <c r="C47" s="38"/>
       <c r="D47" s="41"/>
-      <c r="E47" s="71"/>
+      <c r="E47" s="70"/>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="66"/>
+      <c r="B48" s="65"/>
       <c r="C48" s="38"/>
       <c r="D48" s="41"/>
-      <c r="E48" s="71"/>
+      <c r="E48" s="70"/>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="67"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="50"/>
       <c r="D49" s="37"/>
-      <c r="E49" s="70"/>
+      <c r="E49" s="69"/>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="66"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="38"/>
       <c r="D50" s="41"/>
-      <c r="E50" s="71"/>
+      <c r="E50" s="70"/>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="66"/>
+      <c r="B51" s="65"/>
       <c r="C51" s="38"/>
       <c r="D51" s="41"/>
-      <c r="E51" s="71"/>
+      <c r="E51" s="70"/>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="66"/>
+      <c r="B52" s="65"/>
       <c r="C52" s="38"/>
       <c r="D52" s="41"/>
-      <c r="E52" s="71"/>
+      <c r="E52" s="70"/>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="66"/>
+      <c r="B53" s="65"/>
       <c r="C53" s="38"/>
       <c r="D53" s="41"/>
-      <c r="E53" s="72"/>
+      <c r="E53" s="71"/>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="66"/>
+      <c r="B54" s="65"/>
       <c r="C54" s="38"/>
       <c r="D54" s="41"/>
-      <c r="E54" s="71"/>
+      <c r="E54" s="70"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="66"/>
+      <c r="B55" s="65"/>
       <c r="C55" s="38"/>
       <c r="D55" s="41"/>
-      <c r="E55" s="71"/>
+      <c r="E55" s="70"/>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="66"/>
+      <c r="B56" s="65"/>
       <c r="C56" s="38"/>
       <c r="D56" s="41"/>
-      <c r="E56" s="71"/>
+      <c r="E56" s="70"/>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="66"/>
+      <c r="B57" s="65"/>
       <c r="C57" s="38"/>
       <c r="D57" s="41"/>
-      <c r="E57" s="71"/>
+      <c r="E57" s="70"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="66"/>
+      <c r="B58" s="65"/>
       <c r="C58" s="38"/>
       <c r="D58" s="41"/>
-      <c r="E58" s="71"/>
+      <c r="E58" s="70"/>
     </row>
     <row r="59" spans="2:5">
-      <c r="B59" s="66"/>
+      <c r="B59" s="65"/>
       <c r="C59" s="38"/>
       <c r="D59" s="41"/>
-      <c r="E59" s="71"/>
+      <c r="E59" s="70"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="66"/>
+      <c r="B60" s="65"/>
       <c r="C60" s="38"/>
       <c r="D60" s="41"/>
-      <c r="E60" s="71"/>
+      <c r="E60" s="70"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="66"/>
+      <c r="B61" s="65"/>
       <c r="C61" s="38"/>
       <c r="D61" s="41"/>
-      <c r="E61" s="71"/>
+      <c r="E61" s="70"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="B62" s="66"/>
+      <c r="B62" s="65"/>
       <c r="C62" s="38"/>
       <c r="D62" s="41"/>
-      <c r="E62" s="71"/>
+      <c r="E62" s="70"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="B63" s="66"/>
+      <c r="B63" s="65"/>
       <c r="C63" s="38"/>
       <c r="D63" s="41"/>
-      <c r="E63" s="71"/>
+      <c r="E63" s="70"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="B64" s="66"/>
+      <c r="B64" s="65"/>
       <c r="C64" s="38"/>
       <c r="D64" s="41"/>
-      <c r="E64" s="71"/>
+      <c r="E64" s="70"/>
     </row>
     <row r="65" spans="2:5">
-      <c r="B65" s="66"/>
+      <c r="B65" s="65"/>
       <c r="C65" s="38"/>
       <c r="D65" s="41"/>
-      <c r="E65" s="72"/>
+      <c r="E65" s="71"/>
     </row>
     <row r="66" spans="2:5">
-      <c r="B66" s="66"/>
+      <c r="B66" s="65"/>
       <c r="C66" s="38"/>
       <c r="D66" s="41"/>
-      <c r="E66" s="71"/>
+      <c r="E66" s="70"/>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="66"/>
+      <c r="B67" s="65"/>
       <c r="C67" s="38"/>
       <c r="D67" s="41"/>
-      <c r="E67" s="71"/>
+      <c r="E67" s="70"/>
     </row>
     <row r="68" spans="2:5">
-      <c r="B68" s="66"/>
+      <c r="B68" s="65"/>
       <c r="C68" s="38"/>
       <c r="D68" s="41"/>
-      <c r="E68" s="72"/>
+      <c r="E68" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -22285,10 +22279,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BM341"/>
+  <dimension ref="A1:BM340"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0" xr3:uid="{4B0FFF15-58BE-5FF3-BF7D-C0BFE47F2011}">
-      <selection activeCell="L70" sqref="L70"/>
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0" xr3:uid="{4B0FFF15-58BE-5FF3-BF7D-C0BFE47F2011}">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -22310,90 +22304,90 @@
   <sheetData>
     <row r="1" spans="1:65" ht="47.25">
       <c r="A1" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:65" ht="18.75" customHeight="1">
-      <c r="A2" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="85"/>
+      <c r="A2" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="84"/>
       <c r="P2" s="14"/>
     </row>
     <row r="3" spans="1:65" ht="15.75" customHeight="1">
-      <c r="A3" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="88"/>
+      <c r="A3" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="87"/>
       <c r="P3" s="14"/>
     </row>
     <row r="4" spans="1:65" outlineLevel="1">
@@ -22401,46 +22395,46 @@
         <v>146</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="47">
         <v>403</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4" s="47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L4" s="47">
         <v>1016</v>
       </c>
       <c r="M4" s="48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N4" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O4" s="48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P4" s="14"/>
     </row>
@@ -22449,46 +22443,46 @@
         <v>1</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="17">
         <v>401</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L5" s="4">
         <v>1012</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O5" s="31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P5" s="14"/>
     </row>
@@ -22497,46 +22491,46 @@
         <v>2</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="17">
         <v>401</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L6" s="4">
         <v>1013</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" s="14"/>
     </row>
@@ -22545,46 +22539,46 @@
         <v>4</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="17">
         <v>1</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="27">
         <v>400</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L7" s="26">
         <v>1003</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:65" ht="47.25" outlineLevel="1">
@@ -22592,46 +22586,46 @@
         <v>5</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="17">
         <v>1</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="27">
         <v>400</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L8" s="18">
         <v>1004</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:65" ht="31.5" outlineLevel="1">
@@ -22639,46 +22633,46 @@
         <v>77</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" s="17">
         <v>400</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L9" s="5">
         <v>1005</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
@@ -22735,46 +22729,46 @@
         <v>116</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" s="58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="4">
         <v>400</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J10" s="58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L10" s="58">
         <v>1015</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O10" s="59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:65" outlineLevel="1">
@@ -22782,46 +22776,46 @@
         <v>6</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="17">
         <v>2</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="27">
         <v>403</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L11" s="18">
         <v>1006</v>
       </c>
       <c r="M11" s="24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N11" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:65" outlineLevel="1">
@@ -22829,46 +22823,46 @@
         <v>7</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="17">
         <v>2</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12" s="27">
         <v>403</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L12" s="18">
         <v>1007</v>
       </c>
       <c r="M12" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:65" ht="31.5" outlineLevel="1">
@@ -22876,46 +22870,46 @@
         <v>8</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="17">
         <v>2</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" s="27">
         <v>403</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L13" s="18">
         <v>1008</v>
       </c>
       <c r="M13" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:65" ht="31.5" outlineLevel="1">
@@ -22923,46 +22917,46 @@
         <v>9</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14" s="27">
         <v>403</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L14" s="17">
         <v>1011</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N14" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:65" ht="63" outlineLevel="1">
@@ -22970,46 +22964,46 @@
         <v>10</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="27">
         <v>400</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L15" s="17">
         <v>2001</v>
       </c>
       <c r="M15" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N15" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O15" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:65" ht="47.25" outlineLevel="1">
@@ -23017,46 +23011,46 @@
         <v>100</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G16" s="27">
         <v>400</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L16" s="17">
         <v>2046</v>
       </c>
       <c r="M16" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N16" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O16" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="31.5" outlineLevel="1">
@@ -23064,46 +23058,46 @@
         <v>17</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="17">
         <v>6</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17" s="27">
         <v>400</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L17" s="18">
         <v>1009</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N17" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O17" s="24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="47.25" outlineLevel="1">
@@ -23111,67 +23105,67 @@
         <v>144</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G18" s="17">
         <v>400</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L18" s="34">
         <v>2051</v>
       </c>
       <c r="M18" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N18" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O18" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P18" s="25"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A19" s="86" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="88"/>
+      <c r="A19" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="87"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" ht="31.5" outlineLevel="1">
@@ -23179,46 +23173,46 @@
         <v>152</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20" s="4">
         <v>200</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L20" s="60">
         <v>1017</v>
       </c>
       <c r="M20" s="33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N20" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O20" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P20" s="14"/>
     </row>
@@ -23227,46 +23221,46 @@
         <v>153</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G21" s="4">
         <v>200</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L21" s="60">
         <v>1018</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N21" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O21" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P21" s="14"/>
     </row>
@@ -23275,46 +23269,46 @@
         <v>126</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D22" s="58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G22" s="4">
         <v>200</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L22" s="60">
         <v>2049</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N22" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O22" s="33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="31.5" outlineLevel="1">
@@ -23322,46 +23316,46 @@
         <v>19</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" s="17">
         <v>200</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L23" s="4">
         <v>2007</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N23" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="31.5" outlineLevel="1">
@@ -23369,46 +23363,46 @@
         <v>97</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G24" s="17">
         <v>200</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L24" s="5">
         <v>4002</v>
       </c>
       <c r="M24" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N24" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="31.5" outlineLevel="1">
@@ -23416,46 +23410,46 @@
         <v>143</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G25" s="17">
         <v>200</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L25" s="17">
         <v>2050</v>
       </c>
       <c r="M25" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N25" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P25" s="25"/>
     </row>
@@ -23464,46 +23458,46 @@
         <v>20</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D26" s="4">
         <v>9</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G26" s="17">
         <v>200</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L26" s="4">
         <v>1010</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N26" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O26" s="23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="63" outlineLevel="1">
@@ -23511,46 +23505,46 @@
         <v>22</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D27" s="4">
         <v>14</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" s="17">
         <v>200</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L27" s="5">
         <v>2009</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N27" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O27" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="31.5" outlineLevel="1">
@@ -23558,46 +23552,46 @@
         <v>23</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D28" s="4">
         <v>12</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G28" s="17">
         <v>200</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L28" s="4">
         <v>2010</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N28" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O28" s="23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="31.5" outlineLevel="1">
@@ -23605,46 +23599,46 @@
         <v>31</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" s="53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D29" s="4">
         <v>13</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G29" s="17">
         <v>200</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L29" s="4">
         <v>2017</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N29" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="31.5" outlineLevel="1">
@@ -23652,46 +23646,46 @@
         <v>134</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D30" s="4">
         <v>13</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G30" s="17">
         <v>200</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L30" s="19">
         <v>2048</v>
       </c>
       <c r="M30" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="N30" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="O30" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="N30" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="O30" s="23" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="31.5" outlineLevel="1">
@@ -23699,46 +23693,46 @@
         <v>32</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D31" s="4">
         <v>13</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G31" s="17">
         <v>200</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L31" s="4">
         <v>2018</v>
       </c>
       <c r="M31" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N31" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O31" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="47.25" outlineLevel="1">
@@ -23746,2132 +23740,2154 @@
         <v>42</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D32" s="17">
         <v>16</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G32" s="17">
         <v>200</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L32" s="4">
         <v>2019</v>
       </c>
       <c r="M32" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N32" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O32" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="31.5" outlineLevel="1">
-      <c r="A33" s="36">
-        <v>43</v>
+      <c r="A33" s="4">
+        <v>51</v>
       </c>
       <c r="B33" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" s="36">
-        <v>16</v>
-      </c>
-      <c r="E33" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="36" t="s">
-        <v>36</v>
+      <c r="E33" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="G33" s="17">
         <v>200</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J33" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="K33" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" s="36">
-        <v>1002</v>
-      </c>
-      <c r="M33" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" s="5">
+        <v>2045</v>
+      </c>
+      <c r="M33" s="45" t="s">
         <v>116</v>
       </c>
       <c r="N33" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="O33" s="63" t="s">
-        <v>114</v>
+        <v>77</v>
+      </c>
+      <c r="O33" s="23" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="31.5" outlineLevel="1">
       <c r="A34" s="4">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="4">
+        <v>17</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G34" s="17">
         <v>200</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L34" s="5">
-        <v>2045</v>
+        <v>2600</v>
       </c>
       <c r="M34" s="45" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N34" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O34" s="23" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="31.5" outlineLevel="1">
       <c r="A35" s="4">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B35" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D35" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G35" s="17">
         <v>200</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L35" s="5">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="M35" s="45" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N35" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O35" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="31.5" outlineLevel="1">
       <c r="A36" s="4">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B36" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D36" s="4">
         <v>20</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G36" s="17">
         <v>200</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L36" s="5">
-        <v>2601</v>
-      </c>
-      <c r="M36" s="45" t="s">
+        <v>2602</v>
+      </c>
+      <c r="M36" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="N36" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="O36" s="23" t="s">
         <v>123</v>
-      </c>
-      <c r="N36" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="O36" s="23" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="31.5" outlineLevel="1">
       <c r="A37" s="4">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D37" s="4">
         <v>20</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G37" s="17">
         <v>200</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L37" s="5">
-        <v>2602</v>
+        <v>2608</v>
       </c>
       <c r="M37" s="54" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N37" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O37" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="31.5" outlineLevel="1">
       <c r="A38" s="4">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D38" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G38" s="17">
         <v>200</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L38" s="5">
-        <v>2608</v>
-      </c>
-      <c r="M38" s="54" t="s">
-        <v>128</v>
+        <v>2603</v>
+      </c>
+      <c r="M38" s="45" t="s">
+        <v>129</v>
       </c>
       <c r="N38" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O38" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="31.5" outlineLevel="1">
       <c r="A39" s="4">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B39" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" s="4">
-        <v>17</v>
+        <v>130</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G39" s="17">
         <v>200</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L39" s="5">
-        <v>2603</v>
-      </c>
-      <c r="M39" s="45" t="s">
-        <v>130</v>
+        <v>2604</v>
+      </c>
+      <c r="M39" s="54" t="s">
+        <v>131</v>
       </c>
       <c r="N39" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O39" s="23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="31.5" outlineLevel="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="47.25" outlineLevel="1">
       <c r="A40" s="4">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B40" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>131</v>
+        <v>34</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>133</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G40" s="17">
         <v>200</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L40" s="5">
-        <v>2604</v>
-      </c>
-      <c r="M40" s="54" t="s">
-        <v>132</v>
+        <v>2605</v>
+      </c>
+      <c r="M40" s="45" t="s">
+        <v>119</v>
       </c>
       <c r="N40" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O40" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="47.25" outlineLevel="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="31.5" outlineLevel="1">
       <c r="A41" s="4">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B41" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="20" t="s">
         <v>134</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G41" s="17">
         <v>200</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L41" s="5">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="M41" s="45" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="N41" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O41" s="23" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="31.5" outlineLevel="1">
       <c r="A42" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B42" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G42" s="17">
         <v>200</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L42" s="5">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="M42" s="45" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="N42" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O42" s="23" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="31.5" outlineLevel="1">
       <c r="A43" s="4">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B43" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>35</v>
+      <c r="D43" s="4">
+        <v>19</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G43" s="17">
         <v>200</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L43" s="5">
-        <v>2607</v>
-      </c>
-      <c r="M43" s="45" t="s">
+        <v>2609</v>
+      </c>
+      <c r="M43" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="N43" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="O43" s="23" t="s">
         <v>120</v>
-      </c>
-      <c r="N43" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="O43" s="23" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="31.5" outlineLevel="1">
       <c r="A44" s="4">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B44" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="4">
-        <v>19</v>
+        <v>139</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G44" s="17">
         <v>200</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L44" s="5">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="M44" s="54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N44" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O44" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="31.5" outlineLevel="1">
       <c r="A45" s="4">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B45" s="61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G45" s="17">
         <v>200</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L45" s="5">
+        <v>2611</v>
+      </c>
+      <c r="M45" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="N45" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="O45" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="18.75" customHeight="1">
+      <c r="A46" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="83"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
+      <c r="L46" s="83"/>
+      <c r="M46" s="83"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="84"/>
+      <c r="P46" s="14"/>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A47" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="86"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="86"/>
+      <c r="L47" s="86"/>
+      <c r="M47" s="86"/>
+      <c r="N47" s="86"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="14"/>
+    </row>
+    <row r="48" spans="1:16" ht="47.25" outlineLevel="1">
+      <c r="A48" s="47">
+        <v>148</v>
+      </c>
+      <c r="B48" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" s="47">
+        <v>403</v>
+      </c>
+      <c r="H48" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K45" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L45" s="5">
-        <v>2610</v>
-      </c>
-      <c r="M45" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="N45" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="O45" s="23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="31.5" outlineLevel="1">
-      <c r="A46" s="4">
-        <v>172</v>
-      </c>
-      <c r="B46" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="D46" s="4" t="s">
+      <c r="J48" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="K48" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="L48" s="47">
+        <v>1111</v>
+      </c>
+      <c r="M48" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="N48" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O48" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="P48" s="14"/>
+    </row>
+    <row r="49" spans="1:65" ht="31.5" outlineLevel="1">
+      <c r="A49" s="47">
+        <v>146</v>
+      </c>
+      <c r="B49" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="D49" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="F46" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G46" s="17">
-        <v>200</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I46" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L46" s="5">
-        <v>2611</v>
-      </c>
-      <c r="M46" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="N46" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="O46" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A47" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="84"/>
-      <c r="K47" s="84"/>
-      <c r="L47" s="84"/>
-      <c r="M47" s="84"/>
-      <c r="N47" s="84"/>
-      <c r="O47" s="85"/>
-      <c r="P47" s="14"/>
-    </row>
-    <row r="48" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A48" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="87"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="87"/>
-      <c r="M48" s="87"/>
-      <c r="N48" s="87"/>
-      <c r="O48" s="88"/>
-      <c r="P48" s="14"/>
-    </row>
-    <row r="49" spans="1:65" ht="47.25" outlineLevel="1">
-      <c r="A49" s="47">
-        <v>148</v>
-      </c>
-      <c r="B49" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" s="47" t="s">
-        <v>35</v>
-      </c>
       <c r="E49" s="47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F49" s="47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G49" s="47">
         <v>403</v>
       </c>
       <c r="H49" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J49" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="K49" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="L49" s="47">
+        <v>1016</v>
+      </c>
+      <c r="M49" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="N49" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="O49" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="P49" s="14"/>
+    </row>
+    <row r="50" spans="1:65" ht="63" outlineLevel="1">
+      <c r="A50" s="4">
+        <v>52</v>
+      </c>
+      <c r="B50" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I49" s="17" t="s">
+      <c r="F50" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G50" s="17">
+        <v>401</v>
+      </c>
+      <c r="H50" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J49" s="47" t="s">
+      <c r="I50" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K49" s="47" t="s">
+      <c r="J50" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L49" s="47">
-        <v>1111</v>
-      </c>
-      <c r="M49" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="N49" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="O49" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="P49" s="14"/>
-    </row>
-    <row r="50" spans="1:65" ht="31.5" outlineLevel="1">
-      <c r="A50" s="47">
-        <v>146</v>
-      </c>
-      <c r="B50" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="E50" s="47" t="s">
+      <c r="K50" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L50" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M50" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N50" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F50" s="47" t="s">
+      <c r="O50" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G50" s="47">
-        <v>403</v>
-      </c>
-      <c r="H50" s="47" t="s">
+      <c r="P50" s="14"/>
+    </row>
+    <row r="51" spans="1:65" ht="31.5" outlineLevel="1">
+      <c r="A51" s="4">
+        <v>53</v>
+      </c>
+      <c r="B51" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I50" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J50" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="K50" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="L50" s="47">
-        <v>1016</v>
-      </c>
-      <c r="M50" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="N50" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="O50" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="P50" s="14"/>
-    </row>
-    <row r="51" spans="1:65" ht="63" outlineLevel="1">
-      <c r="A51" s="4">
-        <v>52</v>
-      </c>
-      <c r="B51" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="F51" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G51" s="17">
         <v>401</v>
       </c>
       <c r="H51" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L51" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M51" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N51" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="O51" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="P51" s="14"/>
+    </row>
+    <row r="52" spans="1:65" ht="47.25" outlineLevel="1">
+      <c r="A52" s="4">
+        <v>55</v>
+      </c>
+      <c r="B52" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I51" s="17" t="s">
+      <c r="F52" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G52" s="17">
+        <v>400</v>
+      </c>
+      <c r="H52" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="I52" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="J52" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="L51" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M51" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N51" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="O51" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="P51" s="14"/>
-    </row>
-    <row r="52" spans="1:65" ht="31.5" outlineLevel="1">
-      <c r="A52" s="4">
-        <v>53</v>
-      </c>
-      <c r="B52" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E52" s="4" t="s">
+      <c r="K52" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L52" s="17">
+        <v>1003</v>
+      </c>
+      <c r="M52" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="N52" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O52" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:65" ht="63" outlineLevel="1">
+      <c r="A53" s="4">
+        <v>56</v>
+      </c>
+      <c r="B53" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G52" s="17">
-        <v>401</v>
-      </c>
-      <c r="H52" s="36" t="s">
+      <c r="E53" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I52" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L52" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M52" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="N52" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="O52" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="P52" s="14"/>
-    </row>
-    <row r="53" spans="1:65" ht="47.25" outlineLevel="1">
-      <c r="A53" s="4">
-        <v>55</v>
-      </c>
-      <c r="B53" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="F53" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G53" s="17">
         <v>400</v>
       </c>
       <c r="H53" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J53" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K53" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L53" s="18">
+        <v>1004</v>
+      </c>
+      <c r="M53" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="N53" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O53" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:65" ht="31.5" outlineLevel="1">
+      <c r="A54" s="4">
+        <v>77</v>
+      </c>
+      <c r="B54" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I53" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J53" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="K53" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="L53" s="17">
-        <v>1003</v>
-      </c>
-      <c r="M53" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="N53" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="O53" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:65" ht="63" outlineLevel="1">
-      <c r="A54" s="4">
-        <v>56</v>
-      </c>
-      <c r="B54" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="F54" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G54" s="17">
         <v>400</v>
       </c>
       <c r="H54" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I54" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L54" s="5">
+        <v>1005</v>
+      </c>
+      <c r="M54" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="N54" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O54" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="15"/>
+      <c r="U54" s="15"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="15"/>
+      <c r="Y54" s="15"/>
+      <c r="Z54" s="15"/>
+      <c r="AA54" s="15"/>
+      <c r="AB54" s="15"/>
+      <c r="AC54" s="15"/>
+      <c r="AD54" s="15"/>
+      <c r="AE54" s="15"/>
+      <c r="AF54" s="15"/>
+      <c r="AG54" s="15"/>
+      <c r="AH54" s="15"/>
+      <c r="AI54" s="15"/>
+      <c r="AJ54" s="15"/>
+      <c r="AK54" s="15"/>
+      <c r="AL54" s="15"/>
+      <c r="AM54" s="15"/>
+      <c r="AN54" s="15"/>
+      <c r="AO54" s="15"/>
+      <c r="AP54" s="15"/>
+      <c r="AQ54" s="15"/>
+      <c r="AR54" s="15"/>
+      <c r="AS54" s="15"/>
+      <c r="AT54" s="15"/>
+      <c r="AU54" s="15"/>
+      <c r="AV54" s="15"/>
+      <c r="AW54" s="15"/>
+      <c r="AX54" s="15"/>
+      <c r="AY54" s="15"/>
+      <c r="AZ54" s="15"/>
+      <c r="BA54" s="15"/>
+      <c r="BB54" s="15"/>
+      <c r="BC54" s="15"/>
+      <c r="BD54" s="15"/>
+      <c r="BE54" s="15"/>
+      <c r="BF54" s="15"/>
+      <c r="BG54" s="15"/>
+      <c r="BH54" s="15"/>
+      <c r="BI54" s="15"/>
+      <c r="BJ54" s="15"/>
+      <c r="BK54" s="15"/>
+      <c r="BL54" s="15"/>
+      <c r="BM54" s="15"/>
+    </row>
+    <row r="55" spans="1:65" ht="47.25" outlineLevel="1">
+      <c r="A55" s="4">
+        <v>117</v>
+      </c>
+      <c r="B55" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="I54" s="17" t="s">
+      <c r="F55" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="G55" s="4">
+        <v>400</v>
+      </c>
+      <c r="H55" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J54" s="17" t="s">
+      <c r="I55" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K54" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L54" s="18">
-        <v>1004</v>
-      </c>
-      <c r="M54" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="N54" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="O54" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:65" ht="31.5" outlineLevel="1">
-      <c r="A55" s="4">
-        <v>77</v>
-      </c>
-      <c r="B55" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" s="4" t="s">
+      <c r="J55" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L55" s="58">
+        <v>1015</v>
+      </c>
+      <c r="M55" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="N55" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O55" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="F55" s="4" t="s">
+    </row>
+    <row r="56" spans="1:65" ht="31.5" outlineLevel="1">
+      <c r="A56" s="4">
+        <v>57</v>
+      </c>
+      <c r="B56" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G55" s="17">
-        <v>400</v>
-      </c>
-      <c r="H55" s="36" t="s">
+      <c r="E56" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I55" s="17" t="s">
+      <c r="F56" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" s="17">
+        <v>403</v>
+      </c>
+      <c r="H56" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="I56" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K55" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L55" s="5">
-        <v>1005</v>
-      </c>
-      <c r="M55" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="N55" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="O55" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="15"/>
-      <c r="T55" s="15"/>
-      <c r="U55" s="15"/>
-      <c r="V55" s="15"/>
-      <c r="W55" s="15"/>
-      <c r="X55" s="15"/>
-      <c r="Y55" s="15"/>
-      <c r="Z55" s="15"/>
-      <c r="AA55" s="15"/>
-      <c r="AB55" s="15"/>
-      <c r="AC55" s="15"/>
-      <c r="AD55" s="15"/>
-      <c r="AE55" s="15"/>
-      <c r="AF55" s="15"/>
-      <c r="AG55" s="15"/>
-      <c r="AH55" s="15"/>
-      <c r="AI55" s="15"/>
-      <c r="AJ55" s="15"/>
-      <c r="AK55" s="15"/>
-      <c r="AL55" s="15"/>
-      <c r="AM55" s="15"/>
-      <c r="AN55" s="15"/>
-      <c r="AO55" s="15"/>
-      <c r="AP55" s="15"/>
-      <c r="AQ55" s="15"/>
-      <c r="AR55" s="15"/>
-      <c r="AS55" s="15"/>
-      <c r="AT55" s="15"/>
-      <c r="AU55" s="15"/>
-      <c r="AV55" s="15"/>
-      <c r="AW55" s="15"/>
-      <c r="AX55" s="15"/>
-      <c r="AY55" s="15"/>
-      <c r="AZ55" s="15"/>
-      <c r="BA55" s="15"/>
-      <c r="BB55" s="15"/>
-      <c r="BC55" s="15"/>
-      <c r="BD55" s="15"/>
-      <c r="BE55" s="15"/>
-      <c r="BF55" s="15"/>
-      <c r="BG55" s="15"/>
-      <c r="BH55" s="15"/>
-      <c r="BI55" s="15"/>
-      <c r="BJ55" s="15"/>
-      <c r="BK55" s="15"/>
-      <c r="BL55" s="15"/>
-      <c r="BM55" s="15"/>
-    </row>
-    <row r="56" spans="1:65" ht="47.25" outlineLevel="1">
-      <c r="A56" s="4">
-        <v>117</v>
-      </c>
-      <c r="B56" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="F56" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" s="4">
-        <v>400</v>
-      </c>
-      <c r="H56" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="I56" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J56" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L56" s="58">
-        <v>1015</v>
-      </c>
-      <c r="M56" s="23" t="s">
-        <v>54</v>
+      <c r="J56" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K56" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L56" s="18">
+        <v>1006</v>
+      </c>
+      <c r="M56" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="N56" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O56" s="59" t="s">
-        <v>35</v>
+        <v>147</v>
+      </c>
+      <c r="O56" s="23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:65" ht="31.5" outlineLevel="1">
       <c r="A57" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G57" s="17">
         <v>403</v>
       </c>
       <c r="H57" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I57" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J57" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K57" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L57" s="18">
+        <v>1007</v>
+      </c>
+      <c r="M57" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="N57" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O57" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:65" ht="47.25" outlineLevel="1">
+      <c r="A58" s="4">
+        <v>59</v>
+      </c>
+      <c r="B58" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I57" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J57" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="K57" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L57" s="18">
-        <v>1006</v>
-      </c>
-      <c r="M57" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="N57" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="O57" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:65" ht="31.5" outlineLevel="1">
-      <c r="A58" s="4">
-        <v>58</v>
-      </c>
-      <c r="B58" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="F58" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G58" s="17">
         <v>403</v>
       </c>
       <c r="H58" s="36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J58" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K58" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L58" s="18">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M58" s="24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N58" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O58" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:65" ht="31.5" outlineLevel="1">
       <c r="A59" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59" s="61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>35</v>
+        <v>63</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G59" s="17">
         <v>403</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J59" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K59" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="L59" s="18">
-        <v>1008</v>
+        <v>41</v>
+      </c>
+      <c r="L59" s="17">
+        <v>1011</v>
       </c>
       <c r="M59" s="24" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N59" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O59" s="23" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:65" ht="31.5" outlineLevel="1">
       <c r="A60" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" s="17">
+        <v>404</v>
+      </c>
+      <c r="H60" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I60" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L60" s="4">
+        <v>2501</v>
+      </c>
+      <c r="M60" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="N60" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="O60" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:65" ht="18.75" customHeight="1">
+      <c r="A61" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" s="83"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="83"/>
+      <c r="K61" s="83"/>
+      <c r="L61" s="83"/>
+      <c r="M61" s="83"/>
+      <c r="N61" s="83"/>
+      <c r="O61" s="84"/>
+      <c r="P61" s="14"/>
+    </row>
+    <row r="62" spans="1:65" ht="15.75" customHeight="1">
+      <c r="A62" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="86"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="86"/>
+      <c r="I62" s="86"/>
+      <c r="J62" s="86"/>
+      <c r="K62" s="86"/>
+      <c r="L62" s="86"/>
+      <c r="M62" s="86"/>
+      <c r="N62" s="86"/>
+      <c r="O62" s="87"/>
+      <c r="P62" s="14"/>
+    </row>
+    <row r="63" spans="1:65" ht="47.25" outlineLevel="1">
+      <c r="A63" s="47">
+        <v>148</v>
+      </c>
+      <c r="B63" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="C60" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" s="17" t="s">
+      <c r="D63" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" s="47">
+        <v>403</v>
+      </c>
+      <c r="H63" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I63" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J63" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="K63" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="L63" s="47">
+        <v>1111</v>
+      </c>
+      <c r="M63" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="N63" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O63" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="P63" s="14"/>
+    </row>
+    <row r="64" spans="1:65" outlineLevel="1">
+      <c r="A64" s="47">
+        <v>146</v>
+      </c>
+      <c r="B64" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="D64" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G60" s="17">
-        <v>403</v>
-      </c>
-      <c r="H60" s="36" t="s">
+      <c r="E64" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="I60" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J60" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="K60" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="L60" s="17">
-        <v>1011</v>
-      </c>
-      <c r="M60" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="N60" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="O60" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="61" spans="1:65" ht="31.5" outlineLevel="1">
-      <c r="A61" s="4">
-        <v>61</v>
-      </c>
-      <c r="B61" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61" s="17">
-        <v>404</v>
-      </c>
-      <c r="H61" s="36" t="s">
+      <c r="F64" s="47" t="s">
         <v>37</v>
-      </c>
-      <c r="I61" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L61" s="4">
-        <v>2501</v>
-      </c>
-      <c r="M61" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="N61" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="O61" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:65" ht="18.75" customHeight="1">
-      <c r="A62" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="B62" s="84"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="84"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="84"/>
-      <c r="H62" s="84"/>
-      <c r="I62" s="84"/>
-      <c r="J62" s="84"/>
-      <c r="K62" s="84"/>
-      <c r="L62" s="84"/>
-      <c r="M62" s="84"/>
-      <c r="N62" s="84"/>
-      <c r="O62" s="85"/>
-      <c r="P62" s="14"/>
-    </row>
-    <row r="63" spans="1:65" ht="15.75" customHeight="1">
-      <c r="A63" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="B63" s="87"/>
-      <c r="C63" s="87"/>
-      <c r="D63" s="87"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="H63" s="87"/>
-      <c r="I63" s="87"/>
-      <c r="J63" s="87"/>
-      <c r="K63" s="87"/>
-      <c r="L63" s="87"/>
-      <c r="M63" s="87"/>
-      <c r="N63" s="87"/>
-      <c r="O63" s="88"/>
-      <c r="P63" s="14"/>
-    </row>
-    <row r="64" spans="1:65" ht="47.25" outlineLevel="1">
-      <c r="A64" s="47">
-        <v>148</v>
-      </c>
-      <c r="B64" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C64" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="D64" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="E64" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="F64" s="47" t="s">
-        <v>36</v>
       </c>
       <c r="G64" s="47">
         <v>403</v>
       </c>
       <c r="H64" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I64" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J64" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="K64" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="L64" s="47">
+        <v>1016</v>
+      </c>
+      <c r="M64" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="N64" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="O64" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="P64" s="14"/>
+    </row>
+    <row r="65" spans="1:65" ht="63" outlineLevel="1">
+      <c r="A65" s="4">
+        <v>62</v>
+      </c>
+      <c r="B65" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I64" s="17" t="s">
+      <c r="F65" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G65" s="17">
+        <v>401</v>
+      </c>
+      <c r="H65" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J64" s="47" t="s">
+      <c r="I65" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K64" s="47" t="s">
+      <c r="J65" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L64" s="47">
-        <v>1111</v>
-      </c>
-      <c r="M64" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="N64" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="O64" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="P64" s="14"/>
-    </row>
-    <row r="65" spans="1:65" outlineLevel="1">
-      <c r="A65" s="47">
-        <v>146</v>
-      </c>
-      <c r="B65" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C65" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="D65" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="E65" s="47" t="s">
+      <c r="K65" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L65" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M65" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N65" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F65" s="47" t="s">
+      <c r="O65" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G65" s="47">
-        <v>403</v>
-      </c>
-      <c r="H65" s="47" t="s">
+      <c r="P65" s="14"/>
+    </row>
+    <row r="66" spans="1:65" ht="31.5" outlineLevel="1">
+      <c r="A66" s="4">
+        <v>63</v>
+      </c>
+      <c r="B66" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I65" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J65" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="K65" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="L65" s="47">
-        <v>1016</v>
-      </c>
-      <c r="M65" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="N65" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="O65" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="P65" s="14"/>
-    </row>
-    <row r="66" spans="1:65" ht="63" outlineLevel="1">
-      <c r="A66" s="4">
-        <v>62</v>
-      </c>
-      <c r="B66" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="F66" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G66" s="17">
         <v>401</v>
       </c>
       <c r="H66" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I66" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L66" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M66" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N66" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="O66" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="P66" s="14"/>
+    </row>
+    <row r="67" spans="1:65" ht="47.25" outlineLevel="1">
+      <c r="A67" s="4">
+        <v>65</v>
+      </c>
+      <c r="B67" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I66" s="17" t="s">
+      <c r="F67" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G67" s="17">
+        <v>400</v>
+      </c>
+      <c r="H67" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J66" s="4" t="s">
+      <c r="I67" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K66" s="4" t="s">
+      <c r="J67" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L66" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M66" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N66" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="O66" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="P66" s="14"/>
-    </row>
-    <row r="67" spans="1:65" ht="31.5" outlineLevel="1">
-      <c r="A67" s="4">
-        <v>63</v>
-      </c>
-      <c r="B67" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E67" s="4" t="s">
+      <c r="K67" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L67" s="18">
+        <v>1003</v>
+      </c>
+      <c r="M67" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="N67" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:65" ht="63" outlineLevel="1">
+      <c r="A68" s="4">
+        <v>66</v>
+      </c>
+      <c r="B68" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G67" s="17">
-        <v>401</v>
-      </c>
-      <c r="H67" s="36" t="s">
+      <c r="E68" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I67" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L67" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M67" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="N67" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="O67" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="P67" s="14"/>
-    </row>
-    <row r="68" spans="1:65" ht="47.25" outlineLevel="1">
-      <c r="A68" s="4">
-        <v>65</v>
-      </c>
-      <c r="B68" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="F68" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G68" s="17">
         <v>400</v>
       </c>
       <c r="H68" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I68" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J68" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K68" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L68" s="18">
+        <v>1004</v>
+      </c>
+      <c r="M68" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="N68" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O68" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:65" ht="31.5" outlineLevel="1">
+      <c r="A69" s="4">
+        <v>77</v>
+      </c>
+      <c r="B69" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I68" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J68" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K68" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="L68" s="18">
-        <v>1003</v>
-      </c>
-      <c r="M68" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="N68" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="O68" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:65" ht="63" outlineLevel="1">
-      <c r="A69" s="4">
-        <v>66</v>
-      </c>
-      <c r="B69" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="F69" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G69" s="17">
         <v>400</v>
       </c>
       <c r="H69" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I69" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L69" s="5">
+        <v>1005</v>
+      </c>
+      <c r="M69" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="N69" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O69" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="15"/>
+      <c r="U69" s="15"/>
+      <c r="V69" s="15"/>
+      <c r="W69" s="15"/>
+      <c r="X69" s="15"/>
+      <c r="Y69" s="15"/>
+      <c r="Z69" s="15"/>
+      <c r="AA69" s="15"/>
+      <c r="AB69" s="15"/>
+      <c r="AC69" s="15"/>
+      <c r="AD69" s="15"/>
+      <c r="AE69" s="15"/>
+      <c r="AF69" s="15"/>
+      <c r="AG69" s="15"/>
+      <c r="AH69" s="15"/>
+      <c r="AI69" s="15"/>
+      <c r="AJ69" s="15"/>
+      <c r="AK69" s="15"/>
+      <c r="AL69" s="15"/>
+      <c r="AM69" s="15"/>
+      <c r="AN69" s="15"/>
+      <c r="AO69" s="15"/>
+      <c r="AP69" s="15"/>
+      <c r="AQ69" s="15"/>
+      <c r="AR69" s="15"/>
+      <c r="AS69" s="15"/>
+      <c r="AT69" s="15"/>
+      <c r="AU69" s="15"/>
+      <c r="AV69" s="15"/>
+      <c r="AW69" s="15"/>
+      <c r="AX69" s="15"/>
+      <c r="AY69" s="15"/>
+      <c r="AZ69" s="15"/>
+      <c r="BA69" s="15"/>
+      <c r="BB69" s="15"/>
+      <c r="BC69" s="15"/>
+      <c r="BD69" s="15"/>
+      <c r="BE69" s="15"/>
+      <c r="BF69" s="15"/>
+      <c r="BG69" s="15"/>
+      <c r="BH69" s="15"/>
+      <c r="BI69" s="15"/>
+      <c r="BJ69" s="15"/>
+      <c r="BK69" s="15"/>
+      <c r="BL69" s="15"/>
+      <c r="BM69" s="15"/>
+    </row>
+    <row r="70" spans="1:65" ht="47.25" outlineLevel="1">
+      <c r="A70" s="4">
+        <v>118</v>
+      </c>
+      <c r="B70" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="I69" s="17" t="s">
+      <c r="F70" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" s="4">
+        <v>400</v>
+      </c>
+      <c r="H70" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J69" s="17" t="s">
+      <c r="I70" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K69" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L69" s="18">
-        <v>1004</v>
-      </c>
-      <c r="M69" s="23" t="s">
+      <c r="J70" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N69" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="O69" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:65" ht="31.5" outlineLevel="1">
-      <c r="A70" s="4">
-        <v>77</v>
-      </c>
-      <c r="B70" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E70" s="4" t="s">
+      <c r="L70" s="58">
+        <v>1015</v>
+      </c>
+      <c r="M70" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="N70" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O70" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="F70" s="4" t="s">
+    </row>
+    <row r="71" spans="1:65" ht="31.5" outlineLevel="1">
+      <c r="A71" s="4">
+        <v>67</v>
+      </c>
+      <c r="B71" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G70" s="17">
-        <v>400</v>
-      </c>
-      <c r="H70" s="36" t="s">
+      <c r="E71" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I70" s="17" t="s">
+      <c r="F71" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G71" s="17">
+        <v>403</v>
+      </c>
+      <c r="H71" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="I71" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K70" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L70" s="5">
-        <v>1005</v>
-      </c>
-      <c r="M70" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="N70" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="O70" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q70" s="15"/>
-      <c r="R70" s="15"/>
-      <c r="S70" s="15"/>
-      <c r="T70" s="15"/>
-      <c r="U70" s="15"/>
-      <c r="V70" s="15"/>
-      <c r="W70" s="15"/>
-      <c r="X70" s="15"/>
-      <c r="Y70" s="15"/>
-      <c r="Z70" s="15"/>
-      <c r="AA70" s="15"/>
-      <c r="AB70" s="15"/>
-      <c r="AC70" s="15"/>
-      <c r="AD70" s="15"/>
-      <c r="AE70" s="15"/>
-      <c r="AF70" s="15"/>
-      <c r="AG70" s="15"/>
-      <c r="AH70" s="15"/>
-      <c r="AI70" s="15"/>
-      <c r="AJ70" s="15"/>
-      <c r="AK70" s="15"/>
-      <c r="AL70" s="15"/>
-      <c r="AM70" s="15"/>
-      <c r="AN70" s="15"/>
-      <c r="AO70" s="15"/>
-      <c r="AP70" s="15"/>
-      <c r="AQ70" s="15"/>
-      <c r="AR70" s="15"/>
-      <c r="AS70" s="15"/>
-      <c r="AT70" s="15"/>
-      <c r="AU70" s="15"/>
-      <c r="AV70" s="15"/>
-      <c r="AW70" s="15"/>
-      <c r="AX70" s="15"/>
-      <c r="AY70" s="15"/>
-      <c r="AZ70" s="15"/>
-      <c r="BA70" s="15"/>
-      <c r="BB70" s="15"/>
-      <c r="BC70" s="15"/>
-      <c r="BD70" s="15"/>
-      <c r="BE70" s="15"/>
-      <c r="BF70" s="15"/>
-      <c r="BG70" s="15"/>
-      <c r="BH70" s="15"/>
-      <c r="BI70" s="15"/>
-      <c r="BJ70" s="15"/>
-      <c r="BK70" s="15"/>
-      <c r="BL70" s="15"/>
-      <c r="BM70" s="15"/>
-    </row>
-    <row r="71" spans="1:65" ht="47.25" outlineLevel="1">
-      <c r="A71" s="4">
-        <v>118</v>
-      </c>
-      <c r="B71" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D71" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="E71" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="F71" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="G71" s="4">
-        <v>400</v>
-      </c>
-      <c r="H71" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="I71" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J71" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L71" s="58">
-        <v>1015</v>
+      <c r="J71" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K71" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L71" s="18">
+        <v>1006</v>
       </c>
       <c r="M71" s="23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N71" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O71" s="59" t="s">
-        <v>35</v>
+        <v>147</v>
+      </c>
+      <c r="O71" s="23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:65" ht="31.5" outlineLevel="1">
       <c r="A72" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B72" s="61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G72" s="17">
         <v>403</v>
       </c>
       <c r="H72" s="36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J72" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K72" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L72" s="18">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="M72" s="23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N72" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O72" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:65" ht="31.5" outlineLevel="1">
       <c r="A73" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B73" s="61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G73" s="17">
         <v>403</v>
       </c>
       <c r="H73" s="36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J73" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K73" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L73" s="18">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M73" s="23" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="N73" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O73" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:65" ht="31.5" outlineLevel="1">
       <c r="A74" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B74" s="61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>35</v>
+        <v>63</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G74" s="17">
         <v>403</v>
       </c>
       <c r="H74" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I74" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J74" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K74" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L74" s="17">
+        <v>1011</v>
+      </c>
+      <c r="M74" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="N74" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O74" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:65" ht="47.25" outlineLevel="1">
+      <c r="A75" s="4">
+        <v>71</v>
+      </c>
+      <c r="B75" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I74" s="17" t="s">
+      <c r="F75" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G75" s="17">
+        <v>404</v>
+      </c>
+      <c r="H75" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J74" s="17" t="s">
+      <c r="I75" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K74" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="L74" s="18">
-        <v>1008</v>
-      </c>
-      <c r="M74" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="N74" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="O74" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="1:65" ht="31.5" outlineLevel="1">
-      <c r="A75" s="4">
-        <v>70</v>
-      </c>
-      <c r="B75" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G75" s="17">
-        <v>403</v>
-      </c>
-      <c r="H75" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="I75" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J75" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="K75" s="17" t="s">
+      <c r="J75" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L75" s="17">
-        <v>1011</v>
-      </c>
-      <c r="M75" s="24" t="s">
-        <v>63</v>
+      <c r="K75" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L75" s="5">
+        <v>2506</v>
+      </c>
+      <c r="M75" s="23" t="s">
+        <v>158</v>
       </c>
       <c r="N75" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O75" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="76" spans="1:65" ht="47.25" outlineLevel="1">
-      <c r="A76" s="4">
-        <v>71</v>
-      </c>
-      <c r="B76" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G76" s="17">
-        <v>404</v>
-      </c>
-      <c r="H76" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="I76" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J76" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K76" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L76" s="5">
-        <v>2506</v>
-      </c>
-      <c r="M76" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="N76" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="O76" s="23" t="s">
+    </row>
+    <row r="76" spans="1:65" s="6" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A76" s="82" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="77" spans="1:65" s="6" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A77" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="B77" s="84"/>
-      <c r="C77" s="84"/>
-      <c r="D77" s="84"/>
-      <c r="E77" s="84"/>
-      <c r="F77" s="84"/>
-      <c r="G77" s="84"/>
-      <c r="H77" s="84"/>
-      <c r="I77" s="84"/>
-      <c r="J77" s="84"/>
-      <c r="K77" s="84"/>
-      <c r="L77" s="84"/>
-      <c r="M77" s="84"/>
-      <c r="N77" s="84"/>
-      <c r="O77" s="84"/>
+      <c r="B76" s="83"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="83"/>
+      <c r="I76" s="83"/>
+      <c r="J76" s="83"/>
+      <c r="K76" s="83"/>
+      <c r="L76" s="83"/>
+      <c r="M76" s="83"/>
+      <c r="N76" s="83"/>
+      <c r="O76" s="83"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
+      <c r="R76" s="14"/>
+      <c r="S76" s="14"/>
+      <c r="T76" s="14"/>
+      <c r="U76" s="14"/>
+      <c r="V76" s="14"/>
+      <c r="W76" s="14"/>
+      <c r="X76" s="14"/>
+      <c r="Y76" s="14"/>
+      <c r="Z76" s="14"/>
+      <c r="AA76" s="14"/>
+      <c r="AB76" s="14"/>
+      <c r="AC76" s="14"/>
+      <c r="AD76" s="14"/>
+      <c r="AE76" s="14"/>
+      <c r="AF76" s="14"/>
+      <c r="AG76" s="14"/>
+      <c r="AH76" s="14"/>
+      <c r="AI76" s="14"/>
+      <c r="AJ76" s="14"/>
+      <c r="AK76" s="14"/>
+      <c r="AL76" s="14"/>
+      <c r="AM76" s="14"/>
+      <c r="AN76" s="14"/>
+      <c r="AO76" s="14"/>
+      <c r="AP76" s="14"/>
+      <c r="AQ76" s="14"/>
+      <c r="AR76" s="14"/>
+      <c r="AS76" s="14"/>
+      <c r="AT76" s="14"/>
+      <c r="AU76" s="14"/>
+      <c r="AV76" s="14"/>
+      <c r="AW76" s="14"/>
+      <c r="AX76" s="14"/>
+      <c r="AY76" s="14"/>
+      <c r="AZ76" s="14"/>
+      <c r="BA76" s="14"/>
+      <c r="BB76" s="14"/>
+      <c r="BC76" s="14"/>
+      <c r="BD76" s="14"/>
+      <c r="BE76" s="14"/>
+      <c r="BF76" s="14"/>
+      <c r="BG76" s="14"/>
+      <c r="BH76" s="14"/>
+      <c r="BI76" s="14"/>
+      <c r="BJ76" s="14"/>
+      <c r="BK76" s="14"/>
+      <c r="BL76" s="14"/>
+      <c r="BM76" s="14"/>
+    </row>
+    <row r="77" spans="1:65" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A77" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="86"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="86"/>
+      <c r="E77" s="86"/>
+      <c r="F77" s="86"/>
+      <c r="G77" s="86"/>
+      <c r="H77" s="86"/>
+      <c r="I77" s="86"/>
+      <c r="J77" s="86"/>
+      <c r="K77" s="86"/>
+      <c r="L77" s="86"/>
+      <c r="M77" s="86"/>
+      <c r="N77" s="86"/>
+      <c r="O77" s="86"/>
       <c r="P77" s="14"/>
       <c r="Q77" s="14"/>
       <c r="R77" s="14"/>
@@ -25923,24 +25939,52 @@
       <c r="BL77" s="14"/>
       <c r="BM77" s="14"/>
     </row>
-    <row r="78" spans="1:65" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A78" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="B78" s="87"/>
-      <c r="C78" s="87"/>
-      <c r="D78" s="87"/>
-      <c r="E78" s="87"/>
-      <c r="F78" s="87"/>
-      <c r="G78" s="87"/>
-      <c r="H78" s="87"/>
-      <c r="I78" s="87"/>
-      <c r="J78" s="87"/>
-      <c r="K78" s="87"/>
-      <c r="L78" s="87"/>
-      <c r="M78" s="87"/>
-      <c r="N78" s="87"/>
-      <c r="O78" s="87"/>
+    <row r="78" spans="1:65" s="6" customFormat="1" ht="40.700000000000003" customHeight="1" outlineLevel="1">
+      <c r="A78" s="47">
+        <v>146</v>
+      </c>
+      <c r="B78" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F78" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G78" s="47">
+        <v>403</v>
+      </c>
+      <c r="H78" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I78" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J78" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="K78" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="L78" s="47">
+        <v>1016</v>
+      </c>
+      <c r="M78" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="N78" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="O78" s="48" t="s">
+        <v>36</v>
+      </c>
       <c r="P78" s="14"/>
       <c r="Q78" s="14"/>
       <c r="R78" s="14"/>
@@ -25992,51 +26036,51 @@
       <c r="BL78" s="14"/>
       <c r="BM78" s="14"/>
     </row>
-    <row r="79" spans="1:65" s="6" customFormat="1" ht="40.700000000000003" customHeight="1" outlineLevel="1">
-      <c r="A79" s="47">
-        <v>146</v>
+    <row r="79" spans="1:65" s="6" customFormat="1" ht="63" outlineLevel="1">
+      <c r="A79" s="4">
+        <v>72</v>
       </c>
       <c r="B79" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="C79" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="D79" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="E79" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F79" s="47" t="s">
+      <c r="E79" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G79" s="17">
+        <v>401</v>
+      </c>
+      <c r="H79" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L79" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M79" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N79" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G79" s="47">
-        <v>403</v>
-      </c>
-      <c r="H79" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="I79" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J79" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="K79" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="L79" s="47">
-        <v>1016</v>
-      </c>
-      <c r="M79" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="N79" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="O79" s="48" t="s">
-        <v>35</v>
+      <c r="O79" s="31" t="s">
+        <v>36</v>
       </c>
       <c r="P79" s="14"/>
       <c r="Q79" s="14"/>
@@ -26089,51 +26133,51 @@
       <c r="BL79" s="14"/>
       <c r="BM79" s="14"/>
     </row>
-    <row r="80" spans="1:65" s="6" customFormat="1" ht="63" outlineLevel="1">
+    <row r="80" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1">
       <c r="A80" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B80" s="61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G80" s="17">
         <v>401</v>
       </c>
       <c r="H80" s="36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I80" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L80" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M80" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N80" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="O80" s="31" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="O80" s="30" t="s">
+        <v>36</v>
       </c>
       <c r="P80" s="14"/>
       <c r="Q80" s="14"/>
@@ -26186,148 +26230,147 @@
       <c r="BL80" s="14"/>
       <c r="BM80" s="14"/>
     </row>
-    <row r="81" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1">
+    <row r="81" spans="1:65" ht="47.25" outlineLevel="1">
       <c r="A81" s="4">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B81" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G81" s="17">
+        <v>400</v>
+      </c>
+      <c r="H81" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I81" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L81" s="5">
+        <v>1003</v>
+      </c>
+      <c r="M81" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="N81" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="C81" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E81" s="4" t="s">
+      <c r="O81" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="15"/>
+      <c r="S81" s="15"/>
+      <c r="T81" s="15"/>
+      <c r="U81" s="15"/>
+      <c r="V81" s="15"/>
+      <c r="W81" s="15"/>
+      <c r="X81" s="15"/>
+      <c r="Y81" s="15"/>
+      <c r="Z81" s="15"/>
+      <c r="AA81" s="15"/>
+      <c r="AB81" s="15"/>
+      <c r="AC81" s="15"/>
+      <c r="AD81" s="15"/>
+      <c r="AE81" s="15"/>
+      <c r="AF81" s="15"/>
+      <c r="AG81" s="15"/>
+      <c r="AH81" s="15"/>
+      <c r="AI81" s="15"/>
+      <c r="AJ81" s="15"/>
+      <c r="AK81" s="15"/>
+      <c r="AL81" s="15"/>
+      <c r="AM81" s="15"/>
+      <c r="AN81" s="15"/>
+      <c r="AO81" s="15"/>
+      <c r="AP81" s="15"/>
+      <c r="AQ81" s="15"/>
+      <c r="AR81" s="15"/>
+      <c r="AS81" s="15"/>
+      <c r="AT81" s="15"/>
+      <c r="AU81" s="15"/>
+      <c r="AV81" s="15"/>
+      <c r="AW81" s="15"/>
+      <c r="AX81" s="15"/>
+      <c r="AY81" s="15"/>
+      <c r="AZ81" s="15"/>
+      <c r="BA81" s="15"/>
+      <c r="BB81" s="15"/>
+      <c r="BC81" s="15"/>
+      <c r="BD81" s="15"/>
+      <c r="BE81" s="15"/>
+      <c r="BF81" s="15"/>
+      <c r="BG81" s="15"/>
+      <c r="BH81" s="15"/>
+      <c r="BI81" s="15"/>
+      <c r="BJ81" s="15"/>
+      <c r="BK81" s="15"/>
+      <c r="BL81" s="15"/>
+      <c r="BM81" s="15"/>
+    </row>
+    <row r="82" spans="1:65" ht="63" outlineLevel="1">
+      <c r="A82" s="4">
+        <v>76</v>
+      </c>
+      <c r="B82" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G81" s="17">
-        <v>401</v>
-      </c>
-      <c r="H81" s="36" t="s">
+      <c r="E82" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I81" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L81" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M81" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="N81" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="O81" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="P81" s="14"/>
-      <c r="Q81" s="14"/>
-      <c r="R81" s="14"/>
-      <c r="S81" s="14"/>
-      <c r="T81" s="14"/>
-      <c r="U81" s="14"/>
-      <c r="V81" s="14"/>
-      <c r="W81" s="14"/>
-      <c r="X81" s="14"/>
-      <c r="Y81" s="14"/>
-      <c r="Z81" s="14"/>
-      <c r="AA81" s="14"/>
-      <c r="AB81" s="14"/>
-      <c r="AC81" s="14"/>
-      <c r="AD81" s="14"/>
-      <c r="AE81" s="14"/>
-      <c r="AF81" s="14"/>
-      <c r="AG81" s="14"/>
-      <c r="AH81" s="14"/>
-      <c r="AI81" s="14"/>
-      <c r="AJ81" s="14"/>
-      <c r="AK81" s="14"/>
-      <c r="AL81" s="14"/>
-      <c r="AM81" s="14"/>
-      <c r="AN81" s="14"/>
-      <c r="AO81" s="14"/>
-      <c r="AP81" s="14"/>
-      <c r="AQ81" s="14"/>
-      <c r="AR81" s="14"/>
-      <c r="AS81" s="14"/>
-      <c r="AT81" s="14"/>
-      <c r="AU81" s="14"/>
-      <c r="AV81" s="14"/>
-      <c r="AW81" s="14"/>
-      <c r="AX81" s="14"/>
-      <c r="AY81" s="14"/>
-      <c r="AZ81" s="14"/>
-      <c r="BA81" s="14"/>
-      <c r="BB81" s="14"/>
-      <c r="BC81" s="14"/>
-      <c r="BD81" s="14"/>
-      <c r="BE81" s="14"/>
-      <c r="BF81" s="14"/>
-      <c r="BG81" s="14"/>
-      <c r="BH81" s="14"/>
-      <c r="BI81" s="14"/>
-      <c r="BJ81" s="14"/>
-      <c r="BK81" s="14"/>
-      <c r="BL81" s="14"/>
-      <c r="BM81" s="14"/>
-    </row>
-    <row r="82" spans="1:65" ht="47.25" outlineLevel="1">
-      <c r="A82" s="4">
-        <v>75</v>
-      </c>
-      <c r="B82" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="F82" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G82" s="17">
         <v>400</v>
       </c>
       <c r="H82" s="36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I82" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L82" s="5">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="M82" s="23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N82" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O82" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q82" s="15"/>
       <c r="R82" s="15"/>
@@ -26379,51 +26422,51 @@
       <c r="BL82" s="15"/>
       <c r="BM82" s="15"/>
     </row>
-    <row r="83" spans="1:65" ht="47.25" outlineLevel="1">
+    <row r="83" spans="1:65" ht="31.5" outlineLevel="1">
       <c r="A83" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B83" s="61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G83" s="17">
         <v>400</v>
       </c>
       <c r="H83" s="36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I83" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L83" s="5">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="M83" s="23" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="N83" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O83" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q83" s="15"/>
       <c r="R83" s="15"/>
@@ -26475,51 +26518,51 @@
       <c r="BL83" s="15"/>
       <c r="BM83" s="15"/>
     </row>
-    <row r="84" spans="1:65" ht="31.5" outlineLevel="1">
+    <row r="84" spans="1:65" ht="47.25" outlineLevel="1">
       <c r="A84" s="4">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B84" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E84" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="E84" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F84" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="G84" s="4">
+        <v>400</v>
+      </c>
+      <c r="H84" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I84" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J84" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L84" s="58">
+        <v>1015</v>
+      </c>
+      <c r="M84" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="N84" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O84" s="59" t="s">
         <v>36</v>
-      </c>
-      <c r="G84" s="17">
-        <v>400</v>
-      </c>
-      <c r="H84" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="I84" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K84" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L84" s="5">
-        <v>1005</v>
-      </c>
-      <c r="M84" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="N84" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="O84" s="23" t="s">
-        <v>48</v>
       </c>
       <c r="Q84" s="15"/>
       <c r="R84" s="15"/>
@@ -26571,51 +26614,51 @@
       <c r="BL84" s="15"/>
       <c r="BM84" s="15"/>
     </row>
-    <row r="85" spans="1:65" ht="47.25" outlineLevel="1">
+    <row r="85" spans="1:65" outlineLevel="1">
       <c r="A85" s="4">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B85" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G85" s="17">
+        <v>403</v>
+      </c>
+      <c r="H85" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I85" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L85" s="5">
+        <v>1006</v>
+      </c>
+      <c r="M85" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="N85" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="C85" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D85" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="E85" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="F85" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="G85" s="4">
-        <v>400</v>
-      </c>
-      <c r="H85" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="I85" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J85" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K85" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L85" s="58">
-        <v>1015</v>
-      </c>
-      <c r="M85" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="N85" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O85" s="59" t="s">
-        <v>35</v>
+      <c r="O85" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="Q85" s="15"/>
       <c r="R85" s="15"/>
@@ -26669,49 +26712,49 @@
     </row>
     <row r="86" spans="1:65" outlineLevel="1">
       <c r="A86" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B86" s="61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G86" s="17">
         <v>403</v>
       </c>
       <c r="H86" s="36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L86" s="5">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="M86" s="23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N86" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O86" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q86" s="15"/>
       <c r="R86" s="15"/>
@@ -26763,51 +26806,51 @@
       <c r="BL86" s="15"/>
       <c r="BM86" s="15"/>
     </row>
-    <row r="87" spans="1:65" outlineLevel="1">
+    <row r="87" spans="1:65" ht="31.5" outlineLevel="1">
       <c r="A87" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B87" s="61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G87" s="17">
         <v>403</v>
       </c>
       <c r="H87" s="36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I87" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L87" s="5">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M87" s="23" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="N87" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O87" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q87" s="15"/>
       <c r="R87" s="15"/>
@@ -26861,49 +26904,49 @@
     </row>
     <row r="88" spans="1:65" ht="31.5" outlineLevel="1">
       <c r="A88" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B88" s="61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G88" s="17">
         <v>403</v>
       </c>
       <c r="H88" s="36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L88" s="5">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="M88" s="23" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="N88" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O88" s="23" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="Q88" s="15"/>
       <c r="R88" s="15"/>
@@ -26955,147 +26998,148 @@
       <c r="BL88" s="15"/>
       <c r="BM88" s="15"/>
     </row>
-    <row r="89" spans="1:65" ht="31.5" outlineLevel="1">
-      <c r="A89" s="4">
-        <v>81</v>
+    <row r="89" spans="1:65" s="6" customFormat="1" outlineLevel="1">
+      <c r="A89" s="19">
+        <v>169</v>
       </c>
       <c r="B89" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C89" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G89" s="17">
+        <v>400</v>
+      </c>
+      <c r="H89" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I89" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L89" s="19">
+        <v>3101</v>
+      </c>
+      <c r="M89" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="N89" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E89" s="4" t="s">
+      <c r="O89" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="P89" s="14"/>
+      <c r="Q89" s="14"/>
+      <c r="R89" s="14"/>
+      <c r="S89" s="14"/>
+      <c r="T89" s="14"/>
+      <c r="U89" s="14"/>
+      <c r="V89" s="14"/>
+      <c r="W89" s="14"/>
+      <c r="X89" s="14"/>
+      <c r="Y89" s="14"/>
+      <c r="Z89" s="14"/>
+      <c r="AA89" s="14"/>
+      <c r="AB89" s="14"/>
+      <c r="AC89" s="14"/>
+      <c r="AD89" s="14"/>
+      <c r="AE89" s="14"/>
+      <c r="AF89" s="14"/>
+      <c r="AG89" s="14"/>
+      <c r="AH89" s="14"/>
+      <c r="AI89" s="14"/>
+      <c r="AJ89" s="14"/>
+      <c r="AK89" s="14"/>
+      <c r="AL89" s="14"/>
+      <c r="AM89" s="14"/>
+      <c r="AN89" s="14"/>
+      <c r="AO89" s="14"/>
+      <c r="AP89" s="14"/>
+      <c r="AQ89" s="14"/>
+      <c r="AR89" s="14"/>
+      <c r="AS89" s="14"/>
+      <c r="AT89" s="14"/>
+      <c r="AU89" s="14"/>
+      <c r="AV89" s="14"/>
+      <c r="AW89" s="14"/>
+      <c r="AX89" s="14"/>
+      <c r="AY89" s="14"/>
+      <c r="AZ89" s="14"/>
+      <c r="BA89" s="14"/>
+      <c r="BB89" s="14"/>
+      <c r="BC89" s="14"/>
+      <c r="BD89" s="14"/>
+      <c r="BE89" s="14"/>
+      <c r="BF89" s="14"/>
+      <c r="BG89" s="14"/>
+      <c r="BH89" s="14"/>
+      <c r="BI89" s="14"/>
+      <c r="BJ89" s="14"/>
+      <c r="BK89" s="14"/>
+      <c r="BL89" s="14"/>
+      <c r="BM89" s="14"/>
+    </row>
+    <row r="90" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1">
+      <c r="A90" s="36">
+        <v>156</v>
+      </c>
+      <c r="B90" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C90" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="D90" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G89" s="17">
-        <v>403</v>
-      </c>
-      <c r="H89" s="36" t="s">
+      <c r="E90" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="I89" s="17" t="s">
+      <c r="F90" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G90" s="36">
+        <v>400</v>
+      </c>
+      <c r="H90" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J89" s="4" t="s">
+      <c r="I90" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K89" s="4" t="s">
+      <c r="J90" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L89" s="5">
-        <v>1011</v>
-      </c>
-      <c r="M89" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="N89" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="O89" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="15"/>
-      <c r="S89" s="15"/>
-      <c r="T89" s="15"/>
-      <c r="U89" s="15"/>
-      <c r="V89" s="15"/>
-      <c r="W89" s="15"/>
-      <c r="X89" s="15"/>
-      <c r="Y89" s="15"/>
-      <c r="Z89" s="15"/>
-      <c r="AA89" s="15"/>
-      <c r="AB89" s="15"/>
-      <c r="AC89" s="15"/>
-      <c r="AD89" s="15"/>
-      <c r="AE89" s="15"/>
-      <c r="AF89" s="15"/>
-      <c r="AG89" s="15"/>
-      <c r="AH89" s="15"/>
-      <c r="AI89" s="15"/>
-      <c r="AJ89" s="15"/>
-      <c r="AK89" s="15"/>
-      <c r="AL89" s="15"/>
-      <c r="AM89" s="15"/>
-      <c r="AN89" s="15"/>
-      <c r="AO89" s="15"/>
-      <c r="AP89" s="15"/>
-      <c r="AQ89" s="15"/>
-      <c r="AR89" s="15"/>
-      <c r="AS89" s="15"/>
-      <c r="AT89" s="15"/>
-      <c r="AU89" s="15"/>
-      <c r="AV89" s="15"/>
-      <c r="AW89" s="15"/>
-      <c r="AX89" s="15"/>
-      <c r="AY89" s="15"/>
-      <c r="AZ89" s="15"/>
-      <c r="BA89" s="15"/>
-      <c r="BB89" s="15"/>
-      <c r="BC89" s="15"/>
-      <c r="BD89" s="15"/>
-      <c r="BE89" s="15"/>
-      <c r="BF89" s="15"/>
-      <c r="BG89" s="15"/>
-      <c r="BH89" s="15"/>
-      <c r="BI89" s="15"/>
-      <c r="BJ89" s="15"/>
-      <c r="BK89" s="15"/>
-      <c r="BL89" s="15"/>
-      <c r="BM89" s="15"/>
-    </row>
-    <row r="90" spans="1:65" s="6" customFormat="1" outlineLevel="1">
-      <c r="A90" s="19">
+      <c r="K90" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="L90" s="36">
+        <v>3014</v>
+      </c>
+      <c r="M90" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="B90" s="61" t="s">
+      <c r="N90" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G90" s="17">
-        <v>400</v>
-      </c>
-      <c r="H90" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="I90" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K90" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L90" s="19">
-        <v>3101</v>
-      </c>
-      <c r="M90" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="N90" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="O90" s="23" t="s">
-        <v>168</v>
+      <c r="O90" s="62" t="s">
+        <v>170</v>
       </c>
       <c r="P90" s="14"/>
       <c r="Q90" s="14"/>
@@ -27148,895 +27192,815 @@
       <c r="BL90" s="14"/>
       <c r="BM90" s="14"/>
     </row>
-    <row r="91" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1">
-      <c r="A91" s="36">
-        <v>156</v>
+    <row r="91" spans="1:65" ht="31.5" outlineLevel="1">
+      <c r="A91" s="4">
+        <v>168</v>
       </c>
       <c r="B91" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" s="4">
+        <v>9</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F91" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G91" s="17">
+        <v>200</v>
+      </c>
+      <c r="H91" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I91" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L91" s="4">
+        <v>1010</v>
+      </c>
+      <c r="M91" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="N91" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="C91" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="D91" s="36" t="s">
+      <c r="O91" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:65" s="6" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A92" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="B92" s="83"/>
+      <c r="C92" s="83"/>
+      <c r="D92" s="83"/>
+      <c r="E92" s="83"/>
+      <c r="F92" s="83"/>
+      <c r="G92" s="83"/>
+      <c r="H92" s="83"/>
+      <c r="I92" s="83"/>
+      <c r="J92" s="83"/>
+      <c r="K92" s="83"/>
+      <c r="L92" s="83"/>
+      <c r="M92" s="83"/>
+      <c r="N92" s="83"/>
+      <c r="O92" s="83"/>
+      <c r="P92" s="14"/>
+      <c r="Q92" s="14"/>
+      <c r="R92" s="14"/>
+      <c r="S92" s="14"/>
+      <c r="T92" s="14"/>
+      <c r="U92" s="14"/>
+      <c r="V92" s="14"/>
+      <c r="W92" s="14"/>
+      <c r="X92" s="14"/>
+      <c r="Y92" s="14"/>
+      <c r="Z92" s="14"/>
+      <c r="AA92" s="14"/>
+      <c r="AB92" s="14"/>
+      <c r="AC92" s="14"/>
+      <c r="AD92" s="14"/>
+      <c r="AE92" s="14"/>
+      <c r="AF92" s="14"/>
+      <c r="AG92" s="14"/>
+      <c r="AH92" s="14"/>
+      <c r="AI92" s="14"/>
+      <c r="AJ92" s="14"/>
+      <c r="AK92" s="14"/>
+      <c r="AL92" s="14"/>
+      <c r="AM92" s="14"/>
+      <c r="AN92" s="14"/>
+      <c r="AO92" s="14"/>
+      <c r="AP92" s="14"/>
+      <c r="AQ92" s="14"/>
+      <c r="AR92" s="14"/>
+      <c r="AS92" s="14"/>
+      <c r="AT92" s="14"/>
+      <c r="AU92" s="14"/>
+      <c r="AV92" s="14"/>
+      <c r="AW92" s="14"/>
+      <c r="AX92" s="14"/>
+      <c r="AY92" s="14"/>
+      <c r="AZ92" s="14"/>
+      <c r="BA92" s="14"/>
+      <c r="BB92" s="14"/>
+      <c r="BC92" s="14"/>
+      <c r="BD92" s="14"/>
+      <c r="BE92" s="14"/>
+      <c r="BF92" s="14"/>
+      <c r="BG92" s="14"/>
+      <c r="BH92" s="14"/>
+      <c r="BI92" s="14"/>
+      <c r="BJ92" s="14"/>
+      <c r="BK92" s="14"/>
+      <c r="BL92" s="14"/>
+      <c r="BM92" s="14"/>
+    </row>
+    <row r="93" spans="1:65" ht="15.75" customHeight="1">
+      <c r="A93" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="86"/>
+      <c r="C93" s="86"/>
+      <c r="D93" s="86"/>
+      <c r="E93" s="86"/>
+      <c r="F93" s="86"/>
+      <c r="G93" s="86"/>
+      <c r="H93" s="86"/>
+      <c r="I93" s="86"/>
+      <c r="J93" s="86"/>
+      <c r="K93" s="86"/>
+      <c r="L93" s="86"/>
+      <c r="M93" s="86"/>
+      <c r="N93" s="86"/>
+      <c r="O93" s="86"/>
+    </row>
+    <row r="94" spans="1:65">
+      <c r="A94" s="47">
+        <v>146</v>
+      </c>
+      <c r="B94" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="C94" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E91" s="36" t="s">
+      <c r="D94" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="F91" s="36" t="s">
+      <c r="E94" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F94" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G94" s="47">
+        <v>403</v>
+      </c>
+      <c r="H94" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I94" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J94" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="K94" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="L94" s="4">
+        <v>1016</v>
+      </c>
+      <c r="M94" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="N94" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="O94" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="G91" s="36">
-        <v>400</v>
-      </c>
-      <c r="H91" s="36" t="s">
+    </row>
+    <row r="95" spans="1:65" ht="63">
+      <c r="A95" s="4">
+        <v>102</v>
+      </c>
+      <c r="B95" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I91" s="17" t="s">
+      <c r="F95" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G95" s="17">
+        <v>401</v>
+      </c>
+      <c r="H95" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J91" s="36" t="s">
+      <c r="I95" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K91" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="L91" s="36">
-        <v>3014</v>
-      </c>
-      <c r="M91" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="N91" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="O91" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="P91" s="14"/>
-      <c r="Q91" s="14"/>
-      <c r="R91" s="14"/>
-      <c r="S91" s="14"/>
-      <c r="T91" s="14"/>
-      <c r="U91" s="14"/>
-      <c r="V91" s="14"/>
-      <c r="W91" s="14"/>
-      <c r="X91" s="14"/>
-      <c r="Y91" s="14"/>
-      <c r="Z91" s="14"/>
-      <c r="AA91" s="14"/>
-      <c r="AB91" s="14"/>
-      <c r="AC91" s="14"/>
-      <c r="AD91" s="14"/>
-      <c r="AE91" s="14"/>
-      <c r="AF91" s="14"/>
-      <c r="AG91" s="14"/>
-      <c r="AH91" s="14"/>
-      <c r="AI91" s="14"/>
-      <c r="AJ91" s="14"/>
-      <c r="AK91" s="14"/>
-      <c r="AL91" s="14"/>
-      <c r="AM91" s="14"/>
-      <c r="AN91" s="14"/>
-      <c r="AO91" s="14"/>
-      <c r="AP91" s="14"/>
-      <c r="AQ91" s="14"/>
-      <c r="AR91" s="14"/>
-      <c r="AS91" s="14"/>
-      <c r="AT91" s="14"/>
-      <c r="AU91" s="14"/>
-      <c r="AV91" s="14"/>
-      <c r="AW91" s="14"/>
-      <c r="AX91" s="14"/>
-      <c r="AY91" s="14"/>
-      <c r="AZ91" s="14"/>
-      <c r="BA91" s="14"/>
-      <c r="BB91" s="14"/>
-      <c r="BC91" s="14"/>
-      <c r="BD91" s="14"/>
-      <c r="BE91" s="14"/>
-      <c r="BF91" s="14"/>
-      <c r="BG91" s="14"/>
-      <c r="BH91" s="14"/>
-      <c r="BI91" s="14"/>
-      <c r="BJ91" s="14"/>
-      <c r="BK91" s="14"/>
-      <c r="BL91" s="14"/>
-      <c r="BM91" s="14"/>
-    </row>
-    <row r="92" spans="1:65" ht="31.5" outlineLevel="1">
-      <c r="A92" s="4">
-        <v>168</v>
-      </c>
-      <c r="B92" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D92" s="4">
-        <v>9</v>
-      </c>
-      <c r="E92" s="17" t="s">
+      <c r="J95" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L95" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M95" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N95" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F92" s="17" t="s">
+      <c r="O95" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G92" s="17">
-        <v>200</v>
-      </c>
-      <c r="H92" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I92" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L92" s="4">
-        <v>1010</v>
-      </c>
-      <c r="M92" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="N92" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="O92" s="23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="93" spans="1:65" s="6" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A93" s="83" t="s">
+    </row>
+    <row r="96" spans="1:65" ht="31.5">
+      <c r="A96" s="4">
+        <v>103</v>
+      </c>
+      <c r="B96" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="B93" s="84"/>
-      <c r="C93" s="84"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="84"/>
-      <c r="F93" s="84"/>
-      <c r="G93" s="84"/>
-      <c r="H93" s="84"/>
-      <c r="I93" s="84"/>
-      <c r="J93" s="84"/>
-      <c r="K93" s="84"/>
-      <c r="L93" s="84"/>
-      <c r="M93" s="84"/>
-      <c r="N93" s="84"/>
-      <c r="O93" s="84"/>
-      <c r="P93" s="14"/>
-      <c r="Q93" s="14"/>
-      <c r="R93" s="14"/>
-      <c r="S93" s="14"/>
-      <c r="T93" s="14"/>
-      <c r="U93" s="14"/>
-      <c r="V93" s="14"/>
-      <c r="W93" s="14"/>
-      <c r="X93" s="14"/>
-      <c r="Y93" s="14"/>
-      <c r="Z93" s="14"/>
-      <c r="AA93" s="14"/>
-      <c r="AB93" s="14"/>
-      <c r="AC93" s="14"/>
-      <c r="AD93" s="14"/>
-      <c r="AE93" s="14"/>
-      <c r="AF93" s="14"/>
-      <c r="AG93" s="14"/>
-      <c r="AH93" s="14"/>
-      <c r="AI93" s="14"/>
-      <c r="AJ93" s="14"/>
-      <c r="AK93" s="14"/>
-      <c r="AL93" s="14"/>
-      <c r="AM93" s="14"/>
-      <c r="AN93" s="14"/>
-      <c r="AO93" s="14"/>
-      <c r="AP93" s="14"/>
-      <c r="AQ93" s="14"/>
-      <c r="AR93" s="14"/>
-      <c r="AS93" s="14"/>
-      <c r="AT93" s="14"/>
-      <c r="AU93" s="14"/>
-      <c r="AV93" s="14"/>
-      <c r="AW93" s="14"/>
-      <c r="AX93" s="14"/>
-      <c r="AY93" s="14"/>
-      <c r="AZ93" s="14"/>
-      <c r="BA93" s="14"/>
-      <c r="BB93" s="14"/>
-      <c r="BC93" s="14"/>
-      <c r="BD93" s="14"/>
-      <c r="BE93" s="14"/>
-      <c r="BF93" s="14"/>
-      <c r="BG93" s="14"/>
-      <c r="BH93" s="14"/>
-      <c r="BI93" s="14"/>
-      <c r="BJ93" s="14"/>
-      <c r="BK93" s="14"/>
-      <c r="BL93" s="14"/>
-      <c r="BM93" s="14"/>
-    </row>
-    <row r="94" spans="1:65" ht="15.75" customHeight="1">
-      <c r="A94" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="B94" s="87"/>
-      <c r="C94" s="87"/>
-      <c r="D94" s="87"/>
-      <c r="E94" s="87"/>
-      <c r="F94" s="87"/>
-      <c r="G94" s="87"/>
-      <c r="H94" s="87"/>
-      <c r="I94" s="87"/>
-      <c r="J94" s="87"/>
-      <c r="K94" s="87"/>
-      <c r="L94" s="87"/>
-      <c r="M94" s="87"/>
-      <c r="N94" s="87"/>
-      <c r="O94" s="87"/>
-    </row>
-    <row r="95" spans="1:65">
-      <c r="A95" s="47">
-        <v>146</v>
-      </c>
-      <c r="B95" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="C95" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="D95" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="E95" s="47" t="s">
+      <c r="C96" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F95" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="G95" s="47">
-        <v>403</v>
-      </c>
-      <c r="H95" s="47" t="s">
+      <c r="E96" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I95" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J95" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="K95" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="L95" s="4">
-        <v>1016</v>
-      </c>
-      <c r="M95" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="N95" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="O95" s="48" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="96" spans="1:65" ht="63">
-      <c r="A96" s="4">
-        <v>102</v>
-      </c>
-      <c r="B96" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="F96" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G96" s="17">
         <v>401</v>
       </c>
       <c r="H96" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I96" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L96" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M96" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N96" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="O96" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="47.25">
+      <c r="A97" s="4">
+        <v>105</v>
+      </c>
+      <c r="B97" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D97" s="4">
+        <v>301</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I96" s="17" t="s">
+      <c r="F97" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G97" s="17">
+        <v>400</v>
+      </c>
+      <c r="H97" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J96" s="4" t="s">
+      <c r="I97" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K96" s="4" t="s">
+      <c r="J97" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L96" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M96" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N96" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="O96" s="31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="31.5">
-      <c r="A97" s="4">
-        <v>103</v>
-      </c>
-      <c r="B97" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G97" s="17">
-        <v>401</v>
-      </c>
-      <c r="H97" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="I97" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="K97" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L97" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M97" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="N97" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="O97" s="30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="47.25">
+        <v>47</v>
+      </c>
+      <c r="L97" s="5">
+        <v>1003</v>
+      </c>
+      <c r="M97" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="N97" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O97" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="63">
       <c r="A98" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B98" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>45</v>
+        <v>172</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D98" s="4">
         <v>301</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G98" s="17">
         <v>400</v>
       </c>
       <c r="H98" s="36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I98" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L98" s="5">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="M98" s="23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N98" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O98" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="47.25">
       <c r="A99" s="4">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B99" s="61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D99" s="4">
-        <v>301</v>
+        <v>55</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G99" s="17">
         <v>400</v>
       </c>
       <c r="H99" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I99" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L99" s="5">
+        <v>1015</v>
+      </c>
+      <c r="M99" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="N99" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O99" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="4">
+        <v>107</v>
+      </c>
+      <c r="B100" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D100" s="58">
+        <v>302</v>
+      </c>
+      <c r="E100" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="I99" s="17" t="s">
+      <c r="F100" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="G100" s="4">
+        <v>403</v>
+      </c>
+      <c r="H100" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J99" s="4" t="s">
+      <c r="I100" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K99" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L99" s="5">
-        <v>1004</v>
-      </c>
-      <c r="M99" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="N99" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O99" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" ht="47.25">
-      <c r="A100" s="4">
-        <v>121</v>
-      </c>
-      <c r="B100" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G100" s="17">
-        <v>400</v>
-      </c>
-      <c r="H100" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="I100" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>39</v>
+      <c r="J100" s="58" t="s">
+        <v>40</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L100" s="5">
-        <v>1015</v>
+        <v>51</v>
+      </c>
+      <c r="L100" s="58">
+        <v>1006</v>
       </c>
       <c r="M100" s="23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N100" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O100" s="23" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="O100" s="59" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B101" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="C101" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D101" s="58">
+        <v>172</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D101" s="4">
         <v>302</v>
       </c>
-      <c r="E101" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="F101" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="G101" s="4">
+      <c r="E101" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G101" s="17">
         <v>403</v>
       </c>
       <c r="H101" s="36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I101" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J101" s="58" t="s">
         <v>39</v>
       </c>
+      <c r="J101" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="K101" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L101" s="58">
-        <v>1006</v>
+        <v>47</v>
+      </c>
+      <c r="L101" s="5">
+        <v>1007</v>
       </c>
       <c r="M101" s="23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N101" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O101" s="59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
+        <v>42</v>
+      </c>
+      <c r="O101" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="31.5">
       <c r="A102" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B102" s="61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D102" s="4">
         <v>302</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G102" s="17">
         <v>403</v>
       </c>
       <c r="H102" s="36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I102" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L102" s="5">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M102" s="23" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="N102" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O102" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" ht="31.5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="47.25">
       <c r="A103" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B103" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D103" s="4">
         <v>302</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G103" s="17">
         <v>403</v>
       </c>
       <c r="H103" s="36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I103" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L103" s="5">
-        <v>1008</v>
+        <v>5001</v>
       </c>
       <c r="M103" s="23" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="N103" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O103" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" ht="47.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="31.5" collapsed="1">
       <c r="A104" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B104" s="61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D104" s="4">
         <v>302</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G104" s="17">
         <v>403</v>
       </c>
       <c r="H104" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I104" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L104" s="5">
+        <v>1011</v>
+      </c>
+      <c r="M104" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N104" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O104" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="31.5" hidden="1" outlineLevel="1">
+      <c r="A105" s="4">
+        <v>17</v>
+      </c>
+      <c r="B105" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D105" s="17">
+        <v>305</v>
+      </c>
+      <c r="E105" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I104" s="17" t="s">
+      <c r="F105" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G105" s="27">
+        <v>400</v>
+      </c>
+      <c r="H105" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J104" s="4" t="s">
+      <c r="I105" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K104" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L104" s="5">
-        <v>5001</v>
-      </c>
-      <c r="M104" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="N104" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O104" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" ht="31.5" collapsed="1">
-      <c r="A105" s="4">
-        <v>111</v>
-      </c>
-      <c r="B105" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="C105" s="3" t="s">
+      <c r="J105" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K105" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L105" s="18">
+        <v>1009</v>
+      </c>
+      <c r="M105" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="N105" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="D105" s="4">
-        <v>302</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G105" s="17">
-        <v>403</v>
-      </c>
-      <c r="H105" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="I105" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J105" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K105" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L105" s="5">
-        <v>1011</v>
-      </c>
-      <c r="M105" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="N105" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O105" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" ht="31.5" hidden="1" outlineLevel="1">
+      <c r="O105" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="63" hidden="1" outlineLevel="1">
       <c r="A106" s="4">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="B106" s="61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="D106" s="17">
         <v>305</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F106" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G106" s="27">
         <v>400</v>
       </c>
       <c r="H106" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I106" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J106" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K106" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L106" s="5">
+        <v>3002</v>
+      </c>
+      <c r="M106" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="N106" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="O106" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="47.25" hidden="1" outlineLevel="1">
+      <c r="A107" s="4">
+        <v>113</v>
+      </c>
+      <c r="B107" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E107" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I106" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J106" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="K106" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L106" s="18">
-        <v>1009</v>
-      </c>
-      <c r="M106" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="N106" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="O106" s="24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" ht="63" hidden="1" outlineLevel="1">
-      <c r="A107" s="4">
-        <v>112</v>
-      </c>
-      <c r="B107" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D107" s="17">
-        <v>305</v>
-      </c>
-      <c r="E107" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="F107" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G107" s="27">
         <v>400</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I107" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K107" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L107" s="5">
-        <v>3002</v>
+        <v>51</v>
+      </c>
+      <c r="L107" s="19">
+        <v>3003</v>
       </c>
       <c r="M107" s="24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N107" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O107" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" ht="47.25" hidden="1" outlineLevel="1">
-      <c r="A108" s="4">
-        <v>113</v>
-      </c>
-      <c r="B108" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E108" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F108" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G108" s="27">
-        <v>400</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I108" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J108" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="K108" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L108" s="19">
-        <v>3003</v>
-      </c>
-      <c r="M108" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="N108" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="O108" s="24" t="s">
-        <v>168</v>
-      </c>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="13"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="28"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="14"/>
+      <c r="N108" s="14"/>
+      <c r="O108" s="14"/>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="13"/>
@@ -31968,7 +31932,6 @@
     <row r="340" spans="1:15">
       <c r="A340" s="13"/>
       <c r="B340" s="14"/>
-      <c r="C340" s="56"/>
       <c r="D340" s="13"/>
       <c r="E340" s="13"/>
       <c r="F340" s="13"/>
@@ -31982,45 +31945,29 @@
       <c r="N340" s="14"/>
       <c r="O340" s="14"/>
     </row>
-    <row r="341" spans="1:15">
-      <c r="A341" s="13"/>
-      <c r="B341" s="14"/>
-      <c r="D341" s="13"/>
-      <c r="E341" s="13"/>
-      <c r="F341" s="13"/>
-      <c r="G341" s="28"/>
-      <c r="H341" s="28"/>
-      <c r="I341" s="28"/>
-      <c r="J341" s="13"/>
-      <c r="K341" s="13"/>
-      <c r="L341" s="13"/>
-      <c r="M341" s="14"/>
-      <c r="N341" s="14"/>
-      <c r="O341" s="14"/>
-    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A92:O92"/>
     <mergeCell ref="A93:O93"/>
-    <mergeCell ref="A94:O94"/>
+    <mergeCell ref="A76:O76"/>
+    <mergeCell ref="A62:O62"/>
     <mergeCell ref="A77:O77"/>
-    <mergeCell ref="A63:O63"/>
-    <mergeCell ref="A78:O78"/>
-    <mergeCell ref="A62:O62"/>
+    <mergeCell ref="A61:O61"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A19:O19"/>
+    <mergeCell ref="A46:O46"/>
     <mergeCell ref="A47:O47"/>
-    <mergeCell ref="A48:O48"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L57:L61 L11:L15 L72:L76 L23:L24 L31:L32 L17:L18 L7:L9 L68:L70 L53:L55 L26:L29 L86:L89 L92 L82:L84 L98:L100 L102:L107" xr:uid="{8072A8F1-1A15-4450-88CE-A1709A757457}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L56:L60 L11:L15 L71:L75 L23:L24 L31:L32 L17:L18 L7:L9 L67:L69 L52:L54 L26:L29 L85:L88 L91 L81:L83 L97:L99 L101:L106" xr:uid="{8072A8F1-1A15-4450-88CE-A1709A757457}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K57:K61 K72:K76 K68:K70 K7:K9 K53:K55 K11:K18 K86:K92 K82:K84 K102:K108 K98:K100 K23:K46" xr:uid="{C2076C15-2C9A-460C-AFB6-61CB69F6633F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K56:K60 K71:K75 K67:K69 K7:K9 K52:K54 K11:K18 K85:K91 K81:K83 K101:K107 K97:K99 K23:K45" xr:uid="{C2076C15-2C9A-460C-AFB6-61CB69F6633F}">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J57:J61 J72:J76 J68:J70 J7:J9 J53:J55 J11:J18 J86:J92 J82:J84 J102:J108 J98:J100 J23:J46" xr:uid="{4FC132A4-15BC-427B-842E-52711B772CED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J56:J60 J71:J75 J67:J69 J7:J9 J52:J54 J11:J18 J85:J91 J81:J83 J101:J107 J97:J99 J23:J45" xr:uid="{4FC132A4-15BC-427B-842E-52711B772CED}">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
   </dataValidations>

--- a/PIT4/validation-rules/Enhanced Reporting Validation Rules.xlsx
+++ b/PIT4/validation-rules/Enhanced Reporting Validation Rules.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20358"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{274E0F25-B998-4921-A36A-8425C7972377}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47950F58-7984-4BE5-BCFF-D08DEC4CAC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="25350" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="16770" windowHeight="7455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="182">
   <si>
     <t xml:space="preserve">Latest Version History </t>
   </si>
@@ -602,7 +602,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -891,7 +891,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1130,9 +1130,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1141,6 +1138,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1233,7 +1236,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10458450" y="47625"/>
+          <a:off x="10472057" y="47625"/>
           <a:ext cx="0" cy="923925"/>
           <a:chOff x="4063321" y="0"/>
           <a:chExt cx="3161899" cy="1553550"/>
@@ -21841,11 +21844,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B8:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="7"/>
     <col min="2" max="2" width="13.28515625" style="11" customWidth="1"/>
@@ -21856,7 +21859,7 @@
     <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="75" t="s">
         <v>0</v>
       </c>
@@ -21864,13 +21867,13 @@
       <c r="D8" s="75"/>
       <c r="E8" s="75"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="75"/>
       <c r="C9" s="75"/>
       <c r="D9" s="75"/>
       <c r="E9" s="75"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
@@ -21884,7 +21887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="22">
         <v>0.1</v>
       </c>
@@ -21894,7 +21897,7 @@
       </c>
       <c r="E12" s="67"/>
     </row>
-    <row r="13" spans="2:5" ht="45">
+    <row r="13" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="22">
         <v>0.11</v>
       </c>
@@ -21908,7 +21911,7 @@
         <v>45126</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="30">
+    <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="76">
         <v>0.12</v>
       </c>
@@ -21922,7 +21925,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="77"/>
       <c r="C15" s="9" t="s">
         <v>9</v>
@@ -21932,7 +21935,7 @@
       </c>
       <c r="E15" s="80"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="77"/>
       <c r="C16" s="9" t="s">
         <v>11</v>
@@ -21942,7 +21945,7 @@
       </c>
       <c r="E16" s="80"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="77"/>
       <c r="C17" s="73" t="s">
         <v>13</v>
@@ -21952,7 +21955,7 @@
       </c>
       <c r="E17" s="80"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="78"/>
       <c r="C18" s="9" t="s">
         <v>15</v>
@@ -21962,301 +21965,309 @@
       </c>
       <c r="E18" s="81"/>
     </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="63"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="67"/>
-    </row>
-    <row r="20" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="63">
+        <v>0.13</v>
+      </c>
+      <c r="C19" s="73">
+        <v>77</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="88">
+        <v>45638</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="63"/>
       <c r="C20" s="9"/>
       <c r="D20" s="35"/>
       <c r="E20" s="68"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="9"/>
       <c r="D21" s="35"/>
       <c r="E21" s="67"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="22"/>
       <c r="C22" s="9"/>
       <c r="D22" s="35"/>
       <c r="E22" s="67"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="9"/>
       <c r="D23" s="35"/>
       <c r="E23" s="67"/>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="9"/>
       <c r="D24" s="35"/>
       <c r="E24" s="67"/>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="9"/>
       <c r="D25" s="35"/>
       <c r="E25" s="67"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="9"/>
       <c r="D26" s="35"/>
       <c r="E26" s="68"/>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="9"/>
       <c r="D27" s="35"/>
       <c r="E27" s="67"/>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
       <c r="C28" s="9"/>
       <c r="D28" s="35"/>
       <c r="E28" s="67"/>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="9"/>
       <c r="D29" s="35"/>
       <c r="E29" s="67"/>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="9"/>
       <c r="D30" s="35"/>
       <c r="E30" s="67"/>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="9"/>
       <c r="D31" s="35"/>
       <c r="E31" s="67"/>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="22"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="67"/>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="64"/>
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
       <c r="E33" s="69"/>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="65"/>
       <c r="C34" s="39"/>
       <c r="D34" s="41"/>
       <c r="E34" s="70"/>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="65"/>
       <c r="C35" s="38"/>
       <c r="D35" s="41"/>
       <c r="E35" s="70"/>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="65"/>
       <c r="C36" s="38"/>
       <c r="D36" s="41"/>
       <c r="E36" s="70"/>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="65"/>
       <c r="C37" s="38"/>
       <c r="D37" s="41"/>
       <c r="E37" s="70"/>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="65"/>
       <c r="C38" s="40"/>
       <c r="D38" s="41"/>
       <c r="E38" s="70"/>
     </row>
-    <row r="39" spans="2:5" ht="15.75">
+    <row r="39" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="65"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="65"/>
       <c r="C40" s="38"/>
       <c r="D40" s="41"/>
       <c r="E40" s="71"/>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="65"/>
       <c r="C41" s="38"/>
       <c r="D41" s="41"/>
       <c r="E41" s="70"/>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="65"/>
       <c r="C42" s="38"/>
       <c r="D42" s="41"/>
       <c r="E42" s="70"/>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="65"/>
       <c r="C43" s="46"/>
       <c r="D43" s="41"/>
       <c r="E43" s="70"/>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="65"/>
       <c r="C44" s="38"/>
       <c r="D44" s="41"/>
       <c r="E44" s="70"/>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="65"/>
       <c r="C45" s="38"/>
       <c r="D45" s="41"/>
       <c r="E45" s="71"/>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="65"/>
       <c r="C46" s="49"/>
       <c r="D46" s="41"/>
       <c r="E46" s="70"/>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="65"/>
       <c r="C47" s="38"/>
       <c r="D47" s="41"/>
       <c r="E47" s="70"/>
     </row>
-    <row r="48" spans="2:5">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="65"/>
       <c r="C48" s="38"/>
       <c r="D48" s="41"/>
       <c r="E48" s="70"/>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="66"/>
       <c r="C49" s="50"/>
       <c r="D49" s="37"/>
       <c r="E49" s="69"/>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="65"/>
       <c r="C50" s="38"/>
       <c r="D50" s="41"/>
       <c r="E50" s="70"/>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="65"/>
       <c r="C51" s="38"/>
       <c r="D51" s="41"/>
       <c r="E51" s="70"/>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="65"/>
       <c r="C52" s="38"/>
       <c r="D52" s="41"/>
       <c r="E52" s="70"/>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="65"/>
       <c r="C53" s="38"/>
       <c r="D53" s="41"/>
       <c r="E53" s="71"/>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="65"/>
       <c r="C54" s="38"/>
       <c r="D54" s="41"/>
       <c r="E54" s="70"/>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="65"/>
       <c r="C55" s="38"/>
       <c r="D55" s="41"/>
       <c r="E55" s="70"/>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="65"/>
       <c r="C56" s="38"/>
       <c r="D56" s="41"/>
       <c r="E56" s="70"/>
     </row>
-    <row r="57" spans="2:5">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="65"/>
       <c r="C57" s="38"/>
       <c r="D57" s="41"/>
       <c r="E57" s="70"/>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="65"/>
       <c r="C58" s="38"/>
       <c r="D58" s="41"/>
       <c r="E58" s="70"/>
     </row>
-    <row r="59" spans="2:5">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="65"/>
       <c r="C59" s="38"/>
       <c r="D59" s="41"/>
       <c r="E59" s="70"/>
     </row>
-    <row r="60" spans="2:5">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="65"/>
       <c r="C60" s="38"/>
       <c r="D60" s="41"/>
       <c r="E60" s="70"/>
     </row>
-    <row r="61" spans="2:5">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="65"/>
       <c r="C61" s="38"/>
       <c r="D61" s="41"/>
       <c r="E61" s="70"/>
     </row>
-    <row r="62" spans="2:5">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="65"/>
       <c r="C62" s="38"/>
       <c r="D62" s="41"/>
       <c r="E62" s="70"/>
     </row>
-    <row r="63" spans="2:5">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="65"/>
       <c r="C63" s="38"/>
       <c r="D63" s="41"/>
       <c r="E63" s="70"/>
     </row>
-    <row r="64" spans="2:5">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="65"/>
       <c r="C64" s="38"/>
       <c r="D64" s="41"/>
       <c r="E64" s="70"/>
     </row>
-    <row r="65" spans="2:5">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="65"/>
       <c r="C65" s="38"/>
       <c r="D65" s="41"/>
       <c r="E65" s="71"/>
     </row>
-    <row r="66" spans="2:5">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="65"/>
       <c r="C66" s="38"/>
       <c r="D66" s="41"/>
       <c r="E66" s="70"/>
     </row>
-    <row r="67" spans="2:5">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="65"/>
       <c r="C67" s="38"/>
       <c r="D67" s="41"/>
       <c r="E67" s="70"/>
     </row>
-    <row r="68" spans="2:5">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="65"/>
       <c r="C68" s="38"/>
       <c r="D68" s="41"/>
@@ -22281,11 +22292,11 @@
   </sheetPr>
   <dimension ref="A1:BM340"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0" xr3:uid="{4B0FFF15-58BE-5FF3-BF7D-C0BFE47F2011}">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="6" customWidth="1"/>
@@ -22302,7 +22313,7 @@
     <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="47.25">
+    <row r="1" spans="1:65" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
@@ -22350,7 +22361,7 @@
       </c>
       <c r="P1" s="13"/>
     </row>
-    <row r="2" spans="1:65" ht="18.75" customHeight="1">
+    <row r="2" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
         <v>32</v>
       </c>
@@ -22367,30 +22378,30 @@
       <c r="L2" s="83"/>
       <c r="M2" s="83"/>
       <c r="N2" s="83"/>
-      <c r="O2" s="84"/>
+      <c r="O2" s="87"/>
       <c r="P2" s="14"/>
     </row>
-    <row r="3" spans="1:65" ht="15.75" customHeight="1">
-      <c r="A3" s="85" t="s">
+    <row r="3" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="87"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="86"/>
       <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="1:65" outlineLevel="1">
+    <row r="4" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47">
         <v>146</v>
       </c>
@@ -22438,7 +22449,7 @@
       </c>
       <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="1:65" ht="63" outlineLevel="1">
+    <row r="5" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -22486,7 +22497,7 @@
       </c>
       <c r="P5" s="14"/>
     </row>
-    <row r="6" spans="1:65" ht="31.5" outlineLevel="1">
+    <row r="6" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -22534,7 +22545,7 @@
       </c>
       <c r="P6" s="14"/>
     </row>
-    <row r="7" spans="1:65" ht="47.25" outlineLevel="1">
+    <row r="7" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -22581,7 +22592,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="47.25" outlineLevel="1">
+    <row r="8" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -22628,7 +22639,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="31.5" outlineLevel="1">
+    <row r="9" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>77</v>
       </c>
@@ -22648,7 +22659,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="17">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>38</v>
@@ -22724,7 +22735,7 @@
       <c r="BL9" s="15"/>
       <c r="BM9" s="15"/>
     </row>
-    <row r="10" spans="1:65" ht="47.25" outlineLevel="1">
+    <row r="10" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>116</v>
       </c>
@@ -22771,7 +22782,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:65" outlineLevel="1">
+    <row r="11" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
@@ -22818,7 +22829,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:65" outlineLevel="1">
+    <row r="12" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
@@ -22865,7 +22876,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="31.5" outlineLevel="1">
+    <row r="13" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -22912,7 +22923,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="31.5" outlineLevel="1">
+    <row r="14" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -22959,7 +22970,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="63" outlineLevel="1">
+    <row r="15" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -23006,7 +23017,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="47.25" outlineLevel="1">
+    <row r="16" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>100</v>
       </c>
@@ -23053,7 +23064,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="31.5" outlineLevel="1">
+    <row r="17" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>17</v>
       </c>
@@ -23100,7 +23111,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="47.25" outlineLevel="1">
+    <row r="18" spans="1:16" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>144</v>
       </c>
@@ -23148,27 +23159,27 @@
       </c>
       <c r="P18" s="25"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A19" s="85" t="s">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="87"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="86"/>
       <c r="P19" s="14"/>
     </row>
-    <row r="20" spans="1:16" ht="31.5" outlineLevel="1">
+    <row r="20" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>152</v>
       </c>
@@ -23216,7 +23227,7 @@
       </c>
       <c r="P20" s="14"/>
     </row>
-    <row r="21" spans="1:16" ht="31.5" outlineLevel="1">
+    <row r="21" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>153</v>
       </c>
@@ -23264,7 +23275,7 @@
       </c>
       <c r="P21" s="14"/>
     </row>
-    <row r="22" spans="1:16" ht="31.5" outlineLevel="1">
+    <row r="22" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>126</v>
       </c>
@@ -23311,7 +23322,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="31.5" outlineLevel="1">
+    <row r="23" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -23358,7 +23369,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="31.5" outlineLevel="1">
+    <row r="24" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>97</v>
       </c>
@@ -23405,7 +23416,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="31.5" outlineLevel="1">
+    <row r="25" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>143</v>
       </c>
@@ -23453,7 +23464,7 @@
       </c>
       <c r="P25" s="25"/>
     </row>
-    <row r="26" spans="1:16" ht="31.5" outlineLevel="1">
+    <row r="26" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>20</v>
       </c>
@@ -23500,7 +23511,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="63" outlineLevel="1">
+    <row r="27" spans="1:16" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -23547,7 +23558,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="31.5" outlineLevel="1">
+    <row r="28" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>23</v>
       </c>
@@ -23594,7 +23605,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="31.5" outlineLevel="1">
+    <row r="29" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>31</v>
       </c>
@@ -23641,7 +23652,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="31.5" outlineLevel="1">
+    <row r="30" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>134</v>
       </c>
@@ -23688,7 +23699,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="31.5" outlineLevel="1">
+    <row r="31" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>32</v>
       </c>
@@ -23735,7 +23746,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="47.25" outlineLevel="1">
+    <row r="32" spans="1:16" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>42</v>
       </c>
@@ -23782,7 +23793,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="31.5" outlineLevel="1">
+    <row r="33" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>51</v>
       </c>
@@ -23829,7 +23840,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="31.5" outlineLevel="1">
+    <row r="34" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>160</v>
       </c>
@@ -23876,7 +23887,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="31.5" outlineLevel="1">
+    <row r="35" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>161</v>
       </c>
@@ -23923,7 +23934,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="31.5" outlineLevel="1">
+    <row r="36" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>162</v>
       </c>
@@ -23970,7 +23981,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="31.5" outlineLevel="1">
+    <row r="37" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>168</v>
       </c>
@@ -24017,7 +24028,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="31.5" outlineLevel="1">
+    <row r="38" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>163</v>
       </c>
@@ -24064,7 +24075,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="31.5" outlineLevel="1">
+    <row r="39" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>164</v>
       </c>
@@ -24111,7 +24122,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="47.25" outlineLevel="1">
+    <row r="40" spans="1:16" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>165</v>
       </c>
@@ -24158,7 +24169,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="31.5" outlineLevel="1">
+    <row r="41" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>166</v>
       </c>
@@ -24205,7 +24216,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="31.5" outlineLevel="1">
+    <row r="42" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>167</v>
       </c>
@@ -24252,7 +24263,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="31.5" outlineLevel="1">
+    <row r="43" spans="1:16" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>170</v>
       </c>
@@ -24299,7 +24310,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="31.5" outlineLevel="1">
+    <row r="44" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>171</v>
       </c>
@@ -24346,7 +24357,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="31.5" outlineLevel="1">
+    <row r="45" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>172</v>
       </c>
@@ -24393,7 +24404,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="18.75" customHeight="1">
+    <row r="46" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="82" t="s">
         <v>143</v>
       </c>
@@ -24410,30 +24421,30 @@
       <c r="L46" s="83"/>
       <c r="M46" s="83"/>
       <c r="N46" s="83"/>
-      <c r="O46" s="84"/>
+      <c r="O46" s="87"/>
       <c r="P46" s="14"/>
     </row>
-    <row r="47" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A47" s="85" t="s">
+    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="86"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="86"/>
-      <c r="L47" s="86"/>
-      <c r="M47" s="86"/>
-      <c r="N47" s="86"/>
-      <c r="O47" s="87"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="85"/>
+      <c r="M47" s="85"/>
+      <c r="N47" s="85"/>
+      <c r="O47" s="86"/>
       <c r="P47" s="14"/>
     </row>
-    <row r="48" spans="1:16" ht="47.25" outlineLevel="1">
+    <row r="48" spans="1:16" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47">
         <v>148</v>
       </c>
@@ -24481,7 +24492,7 @@
       </c>
       <c r="P48" s="14"/>
     </row>
-    <row r="49" spans="1:65" ht="31.5" outlineLevel="1">
+    <row r="49" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47">
         <v>146</v>
       </c>
@@ -24529,7 +24540,7 @@
       </c>
       <c r="P49" s="14"/>
     </row>
-    <row r="50" spans="1:65" ht="63" outlineLevel="1">
+    <row r="50" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>52</v>
       </c>
@@ -24577,7 +24588,7 @@
       </c>
       <c r="P50" s="14"/>
     </row>
-    <row r="51" spans="1:65" ht="31.5" outlineLevel="1">
+    <row r="51" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>53</v>
       </c>
@@ -24625,7 +24636,7 @@
       </c>
       <c r="P51" s="14"/>
     </row>
-    <row r="52" spans="1:65" ht="47.25" outlineLevel="1">
+    <row r="52" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>55</v>
       </c>
@@ -24672,7 +24683,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:65" ht="63" outlineLevel="1">
+    <row r="53" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>56</v>
       </c>
@@ -24719,7 +24730,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:65" ht="31.5" outlineLevel="1">
+    <row r="54" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>77</v>
       </c>
@@ -24739,7 +24750,7 @@
         <v>37</v>
       </c>
       <c r="G54" s="17">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H54" s="36" t="s">
         <v>38</v>
@@ -24815,7 +24826,7 @@
       <c r="BL54" s="15"/>
       <c r="BM54" s="15"/>
     </row>
-    <row r="55" spans="1:65" ht="47.25" outlineLevel="1">
+    <row r="55" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>117</v>
       </c>
@@ -24862,7 +24873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:65" ht="31.5" outlineLevel="1">
+    <row r="56" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>57</v>
       </c>
@@ -24909,7 +24920,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:65" ht="31.5" outlineLevel="1">
+    <row r="57" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>58</v>
       </c>
@@ -24956,7 +24967,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:65" ht="47.25" outlineLevel="1">
+    <row r="58" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>59</v>
       </c>
@@ -25003,7 +25014,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:65" ht="31.5" outlineLevel="1">
+    <row r="59" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>60</v>
       </c>
@@ -25050,7 +25061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:65" ht="31.5" outlineLevel="1">
+    <row r="60" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>61</v>
       </c>
@@ -25097,7 +25108,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:65" ht="18.75" customHeight="1">
+    <row r="61" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="82" t="s">
         <v>154</v>
       </c>
@@ -25114,30 +25125,30 @@
       <c r="L61" s="83"/>
       <c r="M61" s="83"/>
       <c r="N61" s="83"/>
-      <c r="O61" s="84"/>
+      <c r="O61" s="87"/>
       <c r="P61" s="14"/>
     </row>
-    <row r="62" spans="1:65" ht="15.75" customHeight="1">
-      <c r="A62" s="85" t="s">
+    <row r="62" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="86"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="86"/>
-      <c r="I62" s="86"/>
-      <c r="J62" s="86"/>
-      <c r="K62" s="86"/>
-      <c r="L62" s="86"/>
-      <c r="M62" s="86"/>
-      <c r="N62" s="86"/>
-      <c r="O62" s="87"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="85"/>
+      <c r="G62" s="85"/>
+      <c r="H62" s="85"/>
+      <c r="I62" s="85"/>
+      <c r="J62" s="85"/>
+      <c r="K62" s="85"/>
+      <c r="L62" s="85"/>
+      <c r="M62" s="85"/>
+      <c r="N62" s="85"/>
+      <c r="O62" s="86"/>
       <c r="P62" s="14"/>
     </row>
-    <row r="63" spans="1:65" ht="47.25" outlineLevel="1">
+    <row r="63" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="47">
         <v>148</v>
       </c>
@@ -25185,7 +25196,7 @@
       </c>
       <c r="P63" s="14"/>
     </row>
-    <row r="64" spans="1:65" outlineLevel="1">
+    <row r="64" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47">
         <v>146</v>
       </c>
@@ -25233,7 +25244,7 @@
       </c>
       <c r="P64" s="14"/>
     </row>
-    <row r="65" spans="1:65" ht="63" outlineLevel="1">
+    <row r="65" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>62</v>
       </c>
@@ -25281,7 +25292,7 @@
       </c>
       <c r="P65" s="14"/>
     </row>
-    <row r="66" spans="1:65" ht="31.5" outlineLevel="1">
+    <row r="66" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>63</v>
       </c>
@@ -25329,7 +25340,7 @@
       </c>
       <c r="P66" s="14"/>
     </row>
-    <row r="67" spans="1:65" ht="47.25" outlineLevel="1">
+    <row r="67" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>65</v>
       </c>
@@ -25376,7 +25387,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:65" ht="63" outlineLevel="1">
+    <row r="68" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>66</v>
       </c>
@@ -25423,7 +25434,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:65" ht="31.5" outlineLevel="1">
+    <row r="69" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>77</v>
       </c>
@@ -25443,7 +25454,7 @@
         <v>37</v>
       </c>
       <c r="G69" s="17">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H69" s="36" t="s">
         <v>38</v>
@@ -25519,7 +25530,7 @@
       <c r="BL69" s="15"/>
       <c r="BM69" s="15"/>
     </row>
-    <row r="70" spans="1:65" ht="47.25" outlineLevel="1">
+    <row r="70" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>118</v>
       </c>
@@ -25566,7 +25577,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:65" ht="31.5" outlineLevel="1">
+    <row r="71" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>67</v>
       </c>
@@ -25613,7 +25624,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:65" ht="31.5" outlineLevel="1">
+    <row r="72" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>68</v>
       </c>
@@ -25660,7 +25671,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:65" ht="31.5" outlineLevel="1">
+    <row r="73" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>69</v>
       </c>
@@ -25707,7 +25718,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:65" ht="31.5" outlineLevel="1">
+    <row r="74" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>70</v>
       </c>
@@ -25754,7 +25765,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:65" ht="47.25" outlineLevel="1">
+    <row r="75" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>71</v>
       </c>
@@ -25801,7 +25812,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:65" s="6" customFormat="1" ht="18.75" customHeight="1">
+    <row r="76" spans="1:65" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="82" t="s">
         <v>160</v>
       </c>
@@ -25870,24 +25881,24 @@
       <c r="BL76" s="14"/>
       <c r="BM76" s="14"/>
     </row>
-    <row r="77" spans="1:65" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A77" s="85" t="s">
+    <row r="77" spans="1:65" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="B77" s="86"/>
-      <c r="C77" s="86"/>
-      <c r="D77" s="86"/>
-      <c r="E77" s="86"/>
-      <c r="F77" s="86"/>
-      <c r="G77" s="86"/>
-      <c r="H77" s="86"/>
-      <c r="I77" s="86"/>
-      <c r="J77" s="86"/>
-      <c r="K77" s="86"/>
-      <c r="L77" s="86"/>
-      <c r="M77" s="86"/>
-      <c r="N77" s="86"/>
-      <c r="O77" s="86"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="85"/>
+      <c r="E77" s="85"/>
+      <c r="F77" s="85"/>
+      <c r="G77" s="85"/>
+      <c r="H77" s="85"/>
+      <c r="I77" s="85"/>
+      <c r="J77" s="85"/>
+      <c r="K77" s="85"/>
+      <c r="L77" s="85"/>
+      <c r="M77" s="85"/>
+      <c r="N77" s="85"/>
+      <c r="O77" s="85"/>
       <c r="P77" s="14"/>
       <c r="Q77" s="14"/>
       <c r="R77" s="14"/>
@@ -25939,7 +25950,7 @@
       <c r="BL77" s="14"/>
       <c r="BM77" s="14"/>
     </row>
-    <row r="78" spans="1:65" s="6" customFormat="1" ht="40.700000000000003" customHeight="1" outlineLevel="1">
+    <row r="78" spans="1:65" s="6" customFormat="1" ht="40.700000000000003" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47">
         <v>146</v>
       </c>
@@ -26036,7 +26047,7 @@
       <c r="BL78" s="14"/>
       <c r="BM78" s="14"/>
     </row>
-    <row r="79" spans="1:65" s="6" customFormat="1" ht="63" outlineLevel="1">
+    <row r="79" spans="1:65" s="6" customFormat="1" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>72</v>
       </c>
@@ -26133,7 +26144,7 @@
       <c r="BL79" s="14"/>
       <c r="BM79" s="14"/>
     </row>
-    <row r="80" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1">
+    <row r="80" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>73</v>
       </c>
@@ -26230,7 +26241,7 @@
       <c r="BL80" s="14"/>
       <c r="BM80" s="14"/>
     </row>
-    <row r="81" spans="1:65" ht="47.25" outlineLevel="1">
+    <row r="81" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>75</v>
       </c>
@@ -26326,7 +26337,7 @@
       <c r="BL81" s="15"/>
       <c r="BM81" s="15"/>
     </row>
-    <row r="82" spans="1:65" ht="63" outlineLevel="1">
+    <row r="82" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>76</v>
       </c>
@@ -26422,7 +26433,7 @@
       <c r="BL82" s="15"/>
       <c r="BM82" s="15"/>
     </row>
-    <row r="83" spans="1:65" ht="31.5" outlineLevel="1">
+    <row r="83" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>77</v>
       </c>
@@ -26442,7 +26453,7 @@
         <v>37</v>
       </c>
       <c r="G83" s="17">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H83" s="36" t="s">
         <v>38</v>
@@ -26518,7 +26529,7 @@
       <c r="BL83" s="15"/>
       <c r="BM83" s="15"/>
     </row>
-    <row r="84" spans="1:65" ht="47.25" outlineLevel="1">
+    <row r="84" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>119</v>
       </c>
@@ -26614,7 +26625,7 @@
       <c r="BL84" s="15"/>
       <c r="BM84" s="15"/>
     </row>
-    <row r="85" spans="1:65" outlineLevel="1">
+    <row r="85" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>78</v>
       </c>
@@ -26710,7 +26721,7 @@
       <c r="BL85" s="15"/>
       <c r="BM85" s="15"/>
     </row>
-    <row r="86" spans="1:65" outlineLevel="1">
+    <row r="86" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>79</v>
       </c>
@@ -26806,7 +26817,7 @@
       <c r="BL86" s="15"/>
       <c r="BM86" s="15"/>
     </row>
-    <row r="87" spans="1:65" ht="31.5" outlineLevel="1">
+    <row r="87" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>80</v>
       </c>
@@ -26902,7 +26913,7 @@
       <c r="BL87" s="15"/>
       <c r="BM87" s="15"/>
     </row>
-    <row r="88" spans="1:65" ht="31.5" outlineLevel="1">
+    <row r="88" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>81</v>
       </c>
@@ -26998,7 +27009,7 @@
       <c r="BL88" s="15"/>
       <c r="BM88" s="15"/>
     </row>
-    <row r="89" spans="1:65" s="6" customFormat="1" outlineLevel="1">
+    <row r="89" spans="1:65" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
         <v>169</v>
       </c>
@@ -27095,7 +27106,7 @@
       <c r="BL89" s="14"/>
       <c r="BM89" s="14"/>
     </row>
-    <row r="90" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1">
+    <row r="90" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="36">
         <v>156</v>
       </c>
@@ -27192,7 +27203,7 @@
       <c r="BL90" s="14"/>
       <c r="BM90" s="14"/>
     </row>
-    <row r="91" spans="1:65" ht="31.5" outlineLevel="1">
+    <row r="91" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>168</v>
       </c>
@@ -27239,7 +27250,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:65" s="6" customFormat="1" ht="18.75" customHeight="1">
+    <row r="92" spans="1:65" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="82" t="s">
         <v>171</v>
       </c>
@@ -27308,26 +27319,26 @@
       <c r="BL92" s="14"/>
       <c r="BM92" s="14"/>
     </row>
-    <row r="93" spans="1:65" ht="15.75" customHeight="1">
-      <c r="A93" s="85" t="s">
+    <row r="93" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="B93" s="86"/>
-      <c r="C93" s="86"/>
-      <c r="D93" s="86"/>
-      <c r="E93" s="86"/>
-      <c r="F93" s="86"/>
-      <c r="G93" s="86"/>
-      <c r="H93" s="86"/>
-      <c r="I93" s="86"/>
-      <c r="J93" s="86"/>
-      <c r="K93" s="86"/>
-      <c r="L93" s="86"/>
-      <c r="M93" s="86"/>
-      <c r="N93" s="86"/>
-      <c r="O93" s="86"/>
-    </row>
-    <row r="94" spans="1:65">
+      <c r="B93" s="85"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="85"/>
+      <c r="I93" s="85"/>
+      <c r="J93" s="85"/>
+      <c r="K93" s="85"/>
+      <c r="L93" s="85"/>
+      <c r="M93" s="85"/>
+      <c r="N93" s="85"/>
+      <c r="O93" s="85"/>
+    </row>
+    <row r="94" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A94" s="47">
         <v>146</v>
       </c>
@@ -27374,7 +27385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:65" ht="63">
+    <row r="95" spans="1:65" ht="63" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>102</v>
       </c>
@@ -27421,7 +27432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:65" ht="31.5">
+    <row r="96" spans="1:65" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>103</v>
       </c>
@@ -27468,7 +27479,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="47.25">
+    <row r="97" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>105</v>
       </c>
@@ -27515,7 +27526,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="63">
+    <row r="98" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>106</v>
       </c>
@@ -27562,7 +27573,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="47.25">
+    <row r="99" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>121</v>
       </c>
@@ -27609,7 +27620,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>107</v>
       </c>
@@ -27656,7 +27667,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>108</v>
       </c>
@@ -27703,7 +27714,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="31.5">
+    <row r="102" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>109</v>
       </c>
@@ -27750,7 +27761,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="47.25">
+    <row r="103" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>110</v>
       </c>
@@ -27797,7 +27808,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="31.5" collapsed="1">
+    <row r="104" spans="1:15" ht="31.5" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>111</v>
       </c>
@@ -27844,7 +27855,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="31.5" hidden="1" outlineLevel="1">
+    <row r="105" spans="1:15" ht="31.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>17</v>
       </c>
@@ -27891,7 +27902,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="63" hidden="1" outlineLevel="1">
+    <row r="106" spans="1:15" ht="63" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>112</v>
       </c>
@@ -27938,7 +27949,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="47.25" hidden="1" outlineLevel="1">
+    <row r="107" spans="1:15" ht="47.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>113</v>
       </c>
@@ -27985,7 +27996,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="14"/>
       <c r="C108" s="56"/>
@@ -28002,7 +28013,7 @@
       <c r="N108" s="14"/>
       <c r="O108" s="14"/>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
       <c r="B109" s="14"/>
       <c r="C109" s="56"/>
@@ -28019,7 +28030,7 @@
       <c r="N109" s="14"/>
       <c r="O109" s="14"/>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
       <c r="B110" s="14"/>
       <c r="C110" s="56"/>
@@ -28036,7 +28047,7 @@
       <c r="N110" s="14"/>
       <c r="O110" s="14"/>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
       <c r="B111" s="14"/>
       <c r="C111" s="56"/>
@@ -28053,7 +28064,7 @@
       <c r="N111" s="14"/>
       <c r="O111" s="14"/>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="13"/>
       <c r="B112" s="14"/>
       <c r="C112" s="56"/>
@@ -28070,7 +28081,7 @@
       <c r="N112" s="14"/>
       <c r="O112" s="14"/>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="13"/>
       <c r="B113" s="14"/>
       <c r="C113" s="56"/>
@@ -28087,7 +28098,7 @@
       <c r="N113" s="14"/>
       <c r="O113" s="14"/>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
       <c r="B114" s="14"/>
       <c r="C114" s="56"/>
@@ -28104,7 +28115,7 @@
       <c r="N114" s="14"/>
       <c r="O114" s="14"/>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="13"/>
       <c r="B115" s="14"/>
       <c r="C115" s="56"/>
@@ -28121,7 +28132,7 @@
       <c r="N115" s="14"/>
       <c r="O115" s="14"/>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
       <c r="B116" s="14"/>
       <c r="C116" s="56"/>
@@ -28138,7 +28149,7 @@
       <c r="N116" s="14"/>
       <c r="O116" s="14"/>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
       <c r="B117" s="14"/>
       <c r="C117" s="56"/>
@@ -28155,7 +28166,7 @@
       <c r="N117" s="14"/>
       <c r="O117" s="14"/>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
       <c r="B118" s="14"/>
       <c r="C118" s="56"/>
@@ -28172,7 +28183,7 @@
       <c r="N118" s="14"/>
       <c r="O118" s="14"/>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="13"/>
       <c r="B119" s="14"/>
       <c r="C119" s="56"/>
@@ -28189,7 +28200,7 @@
       <c r="N119" s="14"/>
       <c r="O119" s="14"/>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="13"/>
       <c r="B120" s="14"/>
       <c r="C120" s="56"/>
@@ -28206,7 +28217,7 @@
       <c r="N120" s="14"/>
       <c r="O120" s="14"/>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="B121" s="14"/>
       <c r="C121" s="56"/>
@@ -28223,7 +28234,7 @@
       <c r="N121" s="14"/>
       <c r="O121" s="14"/>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="13"/>
       <c r="B122" s="14"/>
       <c r="C122" s="56"/>
@@ -28240,7 +28251,7 @@
       <c r="N122" s="14"/>
       <c r="O122" s="14"/>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="13"/>
       <c r="B123" s="14"/>
       <c r="C123" s="56"/>
@@ -28257,7 +28268,7 @@
       <c r="N123" s="14"/>
       <c r="O123" s="14"/>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="13"/>
       <c r="B124" s="14"/>
       <c r="C124" s="56"/>
@@ -28274,7 +28285,7 @@
       <c r="N124" s="14"/>
       <c r="O124" s="14"/>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="13"/>
       <c r="B125" s="14"/>
       <c r="C125" s="56"/>
@@ -28291,7 +28302,7 @@
       <c r="N125" s="14"/>
       <c r="O125" s="14"/>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
       <c r="B126" s="14"/>
       <c r="C126" s="56"/>
@@ -28308,7 +28319,7 @@
       <c r="N126" s="14"/>
       <c r="O126" s="14"/>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="13"/>
       <c r="B127" s="14"/>
       <c r="C127" s="56"/>
@@ -28325,7 +28336,7 @@
       <c r="N127" s="14"/>
       <c r="O127" s="14"/>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
       <c r="B128" s="14"/>
       <c r="C128" s="56"/>
@@ -28342,7 +28353,7 @@
       <c r="N128" s="14"/>
       <c r="O128" s="14"/>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="13"/>
       <c r="B129" s="14"/>
       <c r="C129" s="56"/>
@@ -28359,7 +28370,7 @@
       <c r="N129" s="14"/>
       <c r="O129" s="14"/>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="13"/>
       <c r="B130" s="14"/>
       <c r="C130" s="56"/>
@@ -28376,7 +28387,7 @@
       <c r="N130" s="14"/>
       <c r="O130" s="14"/>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="13"/>
       <c r="B131" s="14"/>
       <c r="C131" s="56"/>
@@ -28393,7 +28404,7 @@
       <c r="N131" s="14"/>
       <c r="O131" s="14"/>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="13"/>
       <c r="B132" s="14"/>
       <c r="C132" s="56"/>
@@ -28410,7 +28421,7 @@
       <c r="N132" s="14"/>
       <c r="O132" s="14"/>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="13"/>
       <c r="B133" s="14"/>
       <c r="C133" s="56"/>
@@ -28427,7 +28438,7 @@
       <c r="N133" s="14"/>
       <c r="O133" s="14"/>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
       <c r="B134" s="14"/>
       <c r="C134" s="56"/>
@@ -28444,7 +28455,7 @@
       <c r="N134" s="14"/>
       <c r="O134" s="14"/>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="13"/>
       <c r="B135" s="14"/>
       <c r="C135" s="56"/>
@@ -28461,7 +28472,7 @@
       <c r="N135" s="14"/>
       <c r="O135" s="14"/>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="13"/>
       <c r="B136" s="14"/>
       <c r="C136" s="56"/>
@@ -28478,7 +28489,7 @@
       <c r="N136" s="14"/>
       <c r="O136" s="14"/>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="13"/>
       <c r="B137" s="14"/>
       <c r="C137" s="56"/>
@@ -28495,7 +28506,7 @@
       <c r="N137" s="14"/>
       <c r="O137" s="14"/>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
       <c r="B138" s="14"/>
       <c r="C138" s="56"/>
@@ -28512,7 +28523,7 @@
       <c r="N138" s="14"/>
       <c r="O138" s="14"/>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="13"/>
       <c r="B139" s="14"/>
       <c r="C139" s="56"/>
@@ -28529,7 +28540,7 @@
       <c r="N139" s="14"/>
       <c r="O139" s="14"/>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="13"/>
       <c r="B140" s="14"/>
       <c r="C140" s="56"/>
@@ -28546,7 +28557,7 @@
       <c r="N140" s="14"/>
       <c r="O140" s="14"/>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="13"/>
       <c r="B141" s="14"/>
       <c r="C141" s="56"/>
@@ -28563,7 +28574,7 @@
       <c r="N141" s="14"/>
       <c r="O141" s="14"/>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="13"/>
       <c r="B142" s="14"/>
       <c r="C142" s="56"/>
@@ -28580,7 +28591,7 @@
       <c r="N142" s="14"/>
       <c r="O142" s="14"/>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="13"/>
       <c r="B143" s="14"/>
       <c r="C143" s="56"/>
@@ -28597,7 +28608,7 @@
       <c r="N143" s="14"/>
       <c r="O143" s="14"/>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="13"/>
       <c r="B144" s="14"/>
       <c r="C144" s="56"/>
@@ -28614,7 +28625,7 @@
       <c r="N144" s="14"/>
       <c r="O144" s="14"/>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="13"/>
       <c r="B145" s="14"/>
       <c r="C145" s="56"/>
@@ -28631,7 +28642,7 @@
       <c r="N145" s="14"/>
       <c r="O145" s="14"/>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="13"/>
       <c r="B146" s="14"/>
       <c r="C146" s="56"/>
@@ -28648,7 +28659,7 @@
       <c r="N146" s="14"/>
       <c r="O146" s="14"/>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="13"/>
       <c r="B147" s="14"/>
       <c r="C147" s="56"/>
@@ -28665,7 +28676,7 @@
       <c r="N147" s="14"/>
       <c r="O147" s="14"/>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="13"/>
       <c r="B148" s="14"/>
       <c r="C148" s="56"/>
@@ -28682,7 +28693,7 @@
       <c r="N148" s="14"/>
       <c r="O148" s="14"/>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="13"/>
       <c r="B149" s="14"/>
       <c r="C149" s="56"/>
@@ -28699,7 +28710,7 @@
       <c r="N149" s="14"/>
       <c r="O149" s="14"/>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="13"/>
       <c r="B150" s="14"/>
       <c r="C150" s="56"/>
@@ -28716,7 +28727,7 @@
       <c r="N150" s="14"/>
       <c r="O150" s="14"/>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="13"/>
       <c r="B151" s="14"/>
       <c r="C151" s="56"/>
@@ -28733,7 +28744,7 @@
       <c r="N151" s="14"/>
       <c r="O151" s="14"/>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="13"/>
       <c r="B152" s="14"/>
       <c r="C152" s="56"/>
@@ -28750,7 +28761,7 @@
       <c r="N152" s="14"/>
       <c r="O152" s="14"/>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="13"/>
       <c r="B153" s="14"/>
       <c r="C153" s="56"/>
@@ -28767,7 +28778,7 @@
       <c r="N153" s="14"/>
       <c r="O153" s="14"/>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="13"/>
       <c r="B154" s="14"/>
       <c r="C154" s="56"/>
@@ -28784,7 +28795,7 @@
       <c r="N154" s="14"/>
       <c r="O154" s="14"/>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="13"/>
       <c r="B155" s="14"/>
       <c r="C155" s="56"/>
@@ -28801,7 +28812,7 @@
       <c r="N155" s="14"/>
       <c r="O155" s="14"/>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="13"/>
       <c r="B156" s="14"/>
       <c r="C156" s="56"/>
@@ -28818,7 +28829,7 @@
       <c r="N156" s="14"/>
       <c r="O156" s="14"/>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="13"/>
       <c r="B157" s="14"/>
       <c r="C157" s="56"/>
@@ -28835,7 +28846,7 @@
       <c r="N157" s="14"/>
       <c r="O157" s="14"/>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="13"/>
       <c r="B158" s="14"/>
       <c r="C158" s="56"/>
@@ -28852,7 +28863,7 @@
       <c r="N158" s="14"/>
       <c r="O158" s="14"/>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="13"/>
       <c r="B159" s="14"/>
       <c r="C159" s="56"/>
@@ -28869,7 +28880,7 @@
       <c r="N159" s="14"/>
       <c r="O159" s="14"/>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="13"/>
       <c r="B160" s="14"/>
       <c r="C160" s="56"/>
@@ -28886,7 +28897,7 @@
       <c r="N160" s="14"/>
       <c r="O160" s="14"/>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="13"/>
       <c r="B161" s="14"/>
       <c r="C161" s="56"/>
@@ -28903,7 +28914,7 @@
       <c r="N161" s="14"/>
       <c r="O161" s="14"/>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="13"/>
       <c r="B162" s="14"/>
       <c r="C162" s="56"/>
@@ -28920,7 +28931,7 @@
       <c r="N162" s="14"/>
       <c r="O162" s="14"/>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="13"/>
       <c r="B163" s="14"/>
       <c r="C163" s="56"/>
@@ -28937,7 +28948,7 @@
       <c r="N163" s="14"/>
       <c r="O163" s="14"/>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="13"/>
       <c r="B164" s="14"/>
       <c r="C164" s="56"/>
@@ -28954,7 +28965,7 @@
       <c r="N164" s="14"/>
       <c r="O164" s="14"/>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="13"/>
       <c r="B165" s="14"/>
       <c r="C165" s="56"/>
@@ -28971,7 +28982,7 @@
       <c r="N165" s="14"/>
       <c r="O165" s="14"/>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="13"/>
       <c r="B166" s="14"/>
       <c r="C166" s="56"/>
@@ -28988,7 +28999,7 @@
       <c r="N166" s="14"/>
       <c r="O166" s="14"/>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="13"/>
       <c r="B167" s="14"/>
       <c r="C167" s="56"/>
@@ -29005,7 +29016,7 @@
       <c r="N167" s="14"/>
       <c r="O167" s="14"/>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="13"/>
       <c r="B168" s="14"/>
       <c r="C168" s="56"/>
@@ -29022,7 +29033,7 @@
       <c r="N168" s="14"/>
       <c r="O168" s="14"/>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="13"/>
       <c r="B169" s="14"/>
       <c r="C169" s="56"/>
@@ -29039,7 +29050,7 @@
       <c r="N169" s="14"/>
       <c r="O169" s="14"/>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="13"/>
       <c r="B170" s="14"/>
       <c r="C170" s="56"/>
@@ -29056,7 +29067,7 @@
       <c r="N170" s="14"/>
       <c r="O170" s="14"/>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="13"/>
       <c r="B171" s="14"/>
       <c r="C171" s="56"/>
@@ -29073,7 +29084,7 @@
       <c r="N171" s="14"/>
       <c r="O171" s="14"/>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="13"/>
       <c r="B172" s="14"/>
       <c r="C172" s="56"/>
@@ -29090,7 +29101,7 @@
       <c r="N172" s="14"/>
       <c r="O172" s="14"/>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="13"/>
       <c r="B173" s="14"/>
       <c r="C173" s="56"/>
@@ -29107,7 +29118,7 @@
       <c r="N173" s="14"/>
       <c r="O173" s="14"/>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="13"/>
       <c r="B174" s="14"/>
       <c r="C174" s="56"/>
@@ -29124,7 +29135,7 @@
       <c r="N174" s="14"/>
       <c r="O174" s="14"/>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="13"/>
       <c r="B175" s="14"/>
       <c r="C175" s="56"/>
@@ -29141,7 +29152,7 @@
       <c r="N175" s="14"/>
       <c r="O175" s="14"/>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="13"/>
       <c r="B176" s="14"/>
       <c r="C176" s="56"/>
@@ -29158,7 +29169,7 @@
       <c r="N176" s="14"/>
       <c r="O176" s="14"/>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="13"/>
       <c r="B177" s="14"/>
       <c r="C177" s="56"/>
@@ -29175,7 +29186,7 @@
       <c r="N177" s="14"/>
       <c r="O177" s="14"/>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="13"/>
       <c r="B178" s="14"/>
       <c r="C178" s="56"/>
@@ -29192,7 +29203,7 @@
       <c r="N178" s="14"/>
       <c r="O178" s="14"/>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="13"/>
       <c r="B179" s="14"/>
       <c r="C179" s="56"/>
@@ -29209,7 +29220,7 @@
       <c r="N179" s="14"/>
       <c r="O179" s="14"/>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="13"/>
       <c r="B180" s="14"/>
       <c r="C180" s="56"/>
@@ -29226,7 +29237,7 @@
       <c r="N180" s="14"/>
       <c r="O180" s="14"/>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="13"/>
       <c r="B181" s="14"/>
       <c r="C181" s="56"/>
@@ -29243,7 +29254,7 @@
       <c r="N181" s="14"/>
       <c r="O181" s="14"/>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="13"/>
       <c r="B182" s="14"/>
       <c r="C182" s="56"/>
@@ -29260,7 +29271,7 @@
       <c r="N182" s="14"/>
       <c r="O182" s="14"/>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="13"/>
       <c r="B183" s="14"/>
       <c r="C183" s="56"/>
@@ -29277,7 +29288,7 @@
       <c r="N183" s="14"/>
       <c r="O183" s="14"/>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="13"/>
       <c r="B184" s="14"/>
       <c r="C184" s="56"/>
@@ -29294,7 +29305,7 @@
       <c r="N184" s="14"/>
       <c r="O184" s="14"/>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="13"/>
       <c r="B185" s="14"/>
       <c r="C185" s="56"/>
@@ -29311,7 +29322,7 @@
       <c r="N185" s="14"/>
       <c r="O185" s="14"/>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="13"/>
       <c r="B186" s="14"/>
       <c r="C186" s="56"/>
@@ -29328,7 +29339,7 @@
       <c r="N186" s="14"/>
       <c r="O186" s="14"/>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="13"/>
       <c r="B187" s="14"/>
       <c r="C187" s="56"/>
@@ -29345,7 +29356,7 @@
       <c r="N187" s="14"/>
       <c r="O187" s="14"/>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="13"/>
       <c r="B188" s="14"/>
       <c r="C188" s="56"/>
@@ -29362,7 +29373,7 @@
       <c r="N188" s="14"/>
       <c r="O188" s="14"/>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="13"/>
       <c r="B189" s="14"/>
       <c r="C189" s="56"/>
@@ -29379,7 +29390,7 @@
       <c r="N189" s="14"/>
       <c r="O189" s="14"/>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="13"/>
       <c r="B190" s="14"/>
       <c r="C190" s="56"/>
@@ -29396,7 +29407,7 @@
       <c r="N190" s="14"/>
       <c r="O190" s="14"/>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="13"/>
       <c r="B191" s="14"/>
       <c r="C191" s="56"/>
@@ -29413,7 +29424,7 @@
       <c r="N191" s="14"/>
       <c r="O191" s="14"/>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="13"/>
       <c r="B192" s="14"/>
       <c r="C192" s="56"/>
@@ -29430,7 +29441,7 @@
       <c r="N192" s="14"/>
       <c r="O192" s="14"/>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="13"/>
       <c r="B193" s="14"/>
       <c r="C193" s="56"/>
@@ -29447,7 +29458,7 @@
       <c r="N193" s="14"/>
       <c r="O193" s="14"/>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="13"/>
       <c r="B194" s="14"/>
       <c r="C194" s="56"/>
@@ -29464,7 +29475,7 @@
       <c r="N194" s="14"/>
       <c r="O194" s="14"/>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="13"/>
       <c r="B195" s="14"/>
       <c r="C195" s="56"/>
@@ -29481,7 +29492,7 @@
       <c r="N195" s="14"/>
       <c r="O195" s="14"/>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="13"/>
       <c r="B196" s="14"/>
       <c r="C196" s="56"/>
@@ -29498,7 +29509,7 @@
       <c r="N196" s="14"/>
       <c r="O196" s="14"/>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="13"/>
       <c r="B197" s="14"/>
       <c r="C197" s="56"/>
@@ -29515,7 +29526,7 @@
       <c r="N197" s="14"/>
       <c r="O197" s="14"/>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="13"/>
       <c r="B198" s="14"/>
       <c r="C198" s="56"/>
@@ -29532,7 +29543,7 @@
       <c r="N198" s="14"/>
       <c r="O198" s="14"/>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="13"/>
       <c r="B199" s="14"/>
       <c r="C199" s="56"/>
@@ -29549,7 +29560,7 @@
       <c r="N199" s="14"/>
       <c r="O199" s="14"/>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="13"/>
       <c r="B200" s="14"/>
       <c r="C200" s="56"/>
@@ -29566,7 +29577,7 @@
       <c r="N200" s="14"/>
       <c r="O200" s="14"/>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="13"/>
       <c r="B201" s="14"/>
       <c r="C201" s="56"/>
@@ -29583,7 +29594,7 @@
       <c r="N201" s="14"/>
       <c r="O201" s="14"/>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="13"/>
       <c r="B202" s="14"/>
       <c r="C202" s="56"/>
@@ -29600,7 +29611,7 @@
       <c r="N202" s="14"/>
       <c r="O202" s="14"/>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="13"/>
       <c r="B203" s="14"/>
       <c r="C203" s="56"/>
@@ -29617,7 +29628,7 @@
       <c r="N203" s="14"/>
       <c r="O203" s="14"/>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="13"/>
       <c r="B204" s="14"/>
       <c r="C204" s="56"/>
@@ -29634,7 +29645,7 @@
       <c r="N204" s="14"/>
       <c r="O204" s="14"/>
     </row>
-    <row r="205" spans="1:15">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="13"/>
       <c r="B205" s="14"/>
       <c r="C205" s="56"/>
@@ -29651,7 +29662,7 @@
       <c r="N205" s="14"/>
       <c r="O205" s="14"/>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="13"/>
       <c r="B206" s="14"/>
       <c r="C206" s="56"/>
@@ -29668,7 +29679,7 @@
       <c r="N206" s="14"/>
       <c r="O206" s="14"/>
     </row>
-    <row r="207" spans="1:15">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="13"/>
       <c r="B207" s="14"/>
       <c r="C207" s="56"/>
@@ -29685,7 +29696,7 @@
       <c r="N207" s="14"/>
       <c r="O207" s="14"/>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="13"/>
       <c r="B208" s="14"/>
       <c r="C208" s="56"/>
@@ -29702,7 +29713,7 @@
       <c r="N208" s="14"/>
       <c r="O208" s="14"/>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="13"/>
       <c r="B209" s="14"/>
       <c r="C209" s="56"/>
@@ -29719,7 +29730,7 @@
       <c r="N209" s="14"/>
       <c r="O209" s="14"/>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="13"/>
       <c r="B210" s="14"/>
       <c r="C210" s="56"/>
@@ -29736,7 +29747,7 @@
       <c r="N210" s="14"/>
       <c r="O210" s="14"/>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="13"/>
       <c r="B211" s="14"/>
       <c r="C211" s="56"/>
@@ -29753,7 +29764,7 @@
       <c r="N211" s="14"/>
       <c r="O211" s="14"/>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="13"/>
       <c r="B212" s="14"/>
       <c r="C212" s="56"/>
@@ -29770,7 +29781,7 @@
       <c r="N212" s="14"/>
       <c r="O212" s="14"/>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="13"/>
       <c r="B213" s="14"/>
       <c r="C213" s="56"/>
@@ -29787,7 +29798,7 @@
       <c r="N213" s="14"/>
       <c r="O213" s="14"/>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="13"/>
       <c r="B214" s="14"/>
       <c r="C214" s="56"/>
@@ -29804,7 +29815,7 @@
       <c r="N214" s="14"/>
       <c r="O214" s="14"/>
     </row>
-    <row r="215" spans="1:15">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="13"/>
       <c r="B215" s="14"/>
       <c r="C215" s="56"/>
@@ -29821,7 +29832,7 @@
       <c r="N215" s="14"/>
       <c r="O215" s="14"/>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="13"/>
       <c r="B216" s="14"/>
       <c r="C216" s="56"/>
@@ -29838,7 +29849,7 @@
       <c r="N216" s="14"/>
       <c r="O216" s="14"/>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="13"/>
       <c r="B217" s="14"/>
       <c r="C217" s="56"/>
@@ -29855,7 +29866,7 @@
       <c r="N217" s="14"/>
       <c r="O217" s="14"/>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="13"/>
       <c r="B218" s="14"/>
       <c r="C218" s="56"/>
@@ -29872,7 +29883,7 @@
       <c r="N218" s="14"/>
       <c r="O218" s="14"/>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="13"/>
       <c r="B219" s="14"/>
       <c r="C219" s="56"/>
@@ -29889,7 +29900,7 @@
       <c r="N219" s="14"/>
       <c r="O219" s="14"/>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="13"/>
       <c r="B220" s="14"/>
       <c r="C220" s="56"/>
@@ -29906,7 +29917,7 @@
       <c r="N220" s="14"/>
       <c r="O220" s="14"/>
     </row>
-    <row r="221" spans="1:15">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="13"/>
       <c r="B221" s="14"/>
       <c r="C221" s="56"/>
@@ -29923,7 +29934,7 @@
       <c r="N221" s="14"/>
       <c r="O221" s="14"/>
     </row>
-    <row r="222" spans="1:15">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="13"/>
       <c r="B222" s="14"/>
       <c r="C222" s="56"/>
@@ -29940,7 +29951,7 @@
       <c r="N222" s="14"/>
       <c r="O222" s="14"/>
     </row>
-    <row r="223" spans="1:15">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="13"/>
       <c r="B223" s="14"/>
       <c r="C223" s="56"/>
@@ -29957,7 +29968,7 @@
       <c r="N223" s="14"/>
       <c r="O223" s="14"/>
     </row>
-    <row r="224" spans="1:15">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="13"/>
       <c r="B224" s="14"/>
       <c r="C224" s="56"/>
@@ -29974,7 +29985,7 @@
       <c r="N224" s="14"/>
       <c r="O224" s="14"/>
     </row>
-    <row r="225" spans="1:15">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="13"/>
       <c r="B225" s="14"/>
       <c r="C225" s="56"/>
@@ -29991,7 +30002,7 @@
       <c r="N225" s="14"/>
       <c r="O225" s="14"/>
     </row>
-    <row r="226" spans="1:15">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="13"/>
       <c r="B226" s="14"/>
       <c r="C226" s="56"/>
@@ -30008,7 +30019,7 @@
       <c r="N226" s="14"/>
       <c r="O226" s="14"/>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="13"/>
       <c r="B227" s="14"/>
       <c r="C227" s="56"/>
@@ -30025,7 +30036,7 @@
       <c r="N227" s="14"/>
       <c r="O227" s="14"/>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="13"/>
       <c r="B228" s="14"/>
       <c r="C228" s="56"/>
@@ -30042,7 +30053,7 @@
       <c r="N228" s="14"/>
       <c r="O228" s="14"/>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="13"/>
       <c r="B229" s="14"/>
       <c r="C229" s="56"/>
@@ -30059,7 +30070,7 @@
       <c r="N229" s="14"/>
       <c r="O229" s="14"/>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="13"/>
       <c r="B230" s="14"/>
       <c r="C230" s="56"/>
@@ -30076,7 +30087,7 @@
       <c r="N230" s="14"/>
       <c r="O230" s="14"/>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="13"/>
       <c r="B231" s="14"/>
       <c r="C231" s="56"/>
@@ -30093,7 +30104,7 @@
       <c r="N231" s="14"/>
       <c r="O231" s="14"/>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="13"/>
       <c r="B232" s="14"/>
       <c r="C232" s="56"/>
@@ -30110,7 +30121,7 @@
       <c r="N232" s="14"/>
       <c r="O232" s="14"/>
     </row>
-    <row r="233" spans="1:15">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="13"/>
       <c r="B233" s="14"/>
       <c r="C233" s="56"/>
@@ -30127,7 +30138,7 @@
       <c r="N233" s="14"/>
       <c r="O233" s="14"/>
     </row>
-    <row r="234" spans="1:15">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="13"/>
       <c r="B234" s="14"/>
       <c r="C234" s="56"/>
@@ -30144,7 +30155,7 @@
       <c r="N234" s="14"/>
       <c r="O234" s="14"/>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="13"/>
       <c r="B235" s="14"/>
       <c r="C235" s="56"/>
@@ -30161,7 +30172,7 @@
       <c r="N235" s="14"/>
       <c r="O235" s="14"/>
     </row>
-    <row r="236" spans="1:15">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="13"/>
       <c r="B236" s="14"/>
       <c r="C236" s="56"/>
@@ -30178,7 +30189,7 @@
       <c r="N236" s="14"/>
       <c r="O236" s="14"/>
     </row>
-    <row r="237" spans="1:15">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="13"/>
       <c r="B237" s="14"/>
       <c r="C237" s="56"/>
@@ -30195,7 +30206,7 @@
       <c r="N237" s="14"/>
       <c r="O237" s="14"/>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="13"/>
       <c r="B238" s="14"/>
       <c r="C238" s="56"/>
@@ -30212,7 +30223,7 @@
       <c r="N238" s="14"/>
       <c r="O238" s="14"/>
     </row>
-    <row r="239" spans="1:15">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="13"/>
       <c r="B239" s="14"/>
       <c r="C239" s="56"/>
@@ -30229,7 +30240,7 @@
       <c r="N239" s="14"/>
       <c r="O239" s="14"/>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="13"/>
       <c r="B240" s="14"/>
       <c r="C240" s="56"/>
@@ -30246,7 +30257,7 @@
       <c r="N240" s="14"/>
       <c r="O240" s="14"/>
     </row>
-    <row r="241" spans="1:15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="13"/>
       <c r="B241" s="14"/>
       <c r="C241" s="56"/>
@@ -30263,7 +30274,7 @@
       <c r="N241" s="14"/>
       <c r="O241" s="14"/>
     </row>
-    <row r="242" spans="1:15">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="13"/>
       <c r="B242" s="14"/>
       <c r="C242" s="56"/>
@@ -30280,7 +30291,7 @@
       <c r="N242" s="14"/>
       <c r="O242" s="14"/>
     </row>
-    <row r="243" spans="1:15">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="13"/>
       <c r="B243" s="14"/>
       <c r="C243" s="56"/>
@@ -30297,7 +30308,7 @@
       <c r="N243" s="14"/>
       <c r="O243" s="14"/>
     </row>
-    <row r="244" spans="1:15">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="13"/>
       <c r="B244" s="14"/>
       <c r="C244" s="56"/>
@@ -30314,7 +30325,7 @@
       <c r="N244" s="14"/>
       <c r="O244" s="14"/>
     </row>
-    <row r="245" spans="1:15">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="13"/>
       <c r="B245" s="14"/>
       <c r="C245" s="56"/>
@@ -30331,7 +30342,7 @@
       <c r="N245" s="14"/>
       <c r="O245" s="14"/>
     </row>
-    <row r="246" spans="1:15">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="13"/>
       <c r="B246" s="14"/>
       <c r="C246" s="56"/>
@@ -30348,7 +30359,7 @@
       <c r="N246" s="14"/>
       <c r="O246" s="14"/>
     </row>
-    <row r="247" spans="1:15">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="13"/>
       <c r="B247" s="14"/>
       <c r="C247" s="56"/>
@@ -30365,7 +30376,7 @@
       <c r="N247" s="14"/>
       <c r="O247" s="14"/>
     </row>
-    <row r="248" spans="1:15">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="13"/>
       <c r="B248" s="14"/>
       <c r="C248" s="56"/>
@@ -30382,7 +30393,7 @@
       <c r="N248" s="14"/>
       <c r="O248" s="14"/>
     </row>
-    <row r="249" spans="1:15">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="13"/>
       <c r="B249" s="14"/>
       <c r="C249" s="56"/>
@@ -30399,7 +30410,7 @@
       <c r="N249" s="14"/>
       <c r="O249" s="14"/>
     </row>
-    <row r="250" spans="1:15">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="13"/>
       <c r="B250" s="14"/>
       <c r="C250" s="56"/>
@@ -30416,7 +30427,7 @@
       <c r="N250" s="14"/>
       <c r="O250" s="14"/>
     </row>
-    <row r="251" spans="1:15">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="13"/>
       <c r="B251" s="14"/>
       <c r="C251" s="56"/>
@@ -30433,7 +30444,7 @@
       <c r="N251" s="14"/>
       <c r="O251" s="14"/>
     </row>
-    <row r="252" spans="1:15">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="13"/>
       <c r="B252" s="14"/>
       <c r="C252" s="56"/>
@@ -30450,7 +30461,7 @@
       <c r="N252" s="14"/>
       <c r="O252" s="14"/>
     </row>
-    <row r="253" spans="1:15">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="13"/>
       <c r="B253" s="14"/>
       <c r="C253" s="56"/>
@@ -30467,7 +30478,7 @@
       <c r="N253" s="14"/>
       <c r="O253" s="14"/>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="13"/>
       <c r="B254" s="14"/>
       <c r="C254" s="56"/>
@@ -30484,7 +30495,7 @@
       <c r="N254" s="14"/>
       <c r="O254" s="14"/>
     </row>
-    <row r="255" spans="1:15">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="13"/>
       <c r="B255" s="14"/>
       <c r="C255" s="56"/>
@@ -30501,7 +30512,7 @@
       <c r="N255" s="14"/>
       <c r="O255" s="14"/>
     </row>
-    <row r="256" spans="1:15">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="13"/>
       <c r="B256" s="14"/>
       <c r="C256" s="56"/>
@@ -30518,7 +30529,7 @@
       <c r="N256" s="14"/>
       <c r="O256" s="14"/>
     </row>
-    <row r="257" spans="1:15">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="13"/>
       <c r="B257" s="14"/>
       <c r="C257" s="56"/>
@@ -30535,7 +30546,7 @@
       <c r="N257" s="14"/>
       <c r="O257" s="14"/>
     </row>
-    <row r="258" spans="1:15">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="13"/>
       <c r="B258" s="14"/>
       <c r="C258" s="56"/>
@@ -30552,7 +30563,7 @@
       <c r="N258" s="14"/>
       <c r="O258" s="14"/>
     </row>
-    <row r="259" spans="1:15">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="13"/>
       <c r="B259" s="14"/>
       <c r="C259" s="56"/>
@@ -30569,7 +30580,7 @@
       <c r="N259" s="14"/>
       <c r="O259" s="14"/>
     </row>
-    <row r="260" spans="1:15">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="13"/>
       <c r="B260" s="14"/>
       <c r="C260" s="56"/>
@@ -30586,7 +30597,7 @@
       <c r="N260" s="14"/>
       <c r="O260" s="14"/>
     </row>
-    <row r="261" spans="1:15">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="13"/>
       <c r="B261" s="14"/>
       <c r="C261" s="56"/>
@@ -30603,7 +30614,7 @@
       <c r="N261" s="14"/>
       <c r="O261" s="14"/>
     </row>
-    <row r="262" spans="1:15">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="13"/>
       <c r="B262" s="14"/>
       <c r="C262" s="56"/>
@@ -30620,7 +30631,7 @@
       <c r="N262" s="14"/>
       <c r="O262" s="14"/>
     </row>
-    <row r="263" spans="1:15">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="13"/>
       <c r="B263" s="14"/>
       <c r="C263" s="56"/>
@@ -30637,7 +30648,7 @@
       <c r="N263" s="14"/>
       <c r="O263" s="14"/>
     </row>
-    <row r="264" spans="1:15">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="13"/>
       <c r="B264" s="14"/>
       <c r="C264" s="56"/>
@@ -30654,7 +30665,7 @@
       <c r="N264" s="14"/>
       <c r="O264" s="14"/>
     </row>
-    <row r="265" spans="1:15">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="13"/>
       <c r="B265" s="14"/>
       <c r="C265" s="56"/>
@@ -30671,7 +30682,7 @@
       <c r="N265" s="14"/>
       <c r="O265" s="14"/>
     </row>
-    <row r="266" spans="1:15">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="13"/>
       <c r="B266" s="14"/>
       <c r="C266" s="56"/>
@@ -30688,7 +30699,7 @@
       <c r="N266" s="14"/>
       <c r="O266" s="14"/>
     </row>
-    <row r="267" spans="1:15">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="13"/>
       <c r="B267" s="14"/>
       <c r="C267" s="56"/>
@@ -30705,7 +30716,7 @@
       <c r="N267" s="14"/>
       <c r="O267" s="14"/>
     </row>
-    <row r="268" spans="1:15">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="13"/>
       <c r="B268" s="14"/>
       <c r="C268" s="56"/>
@@ -30722,7 +30733,7 @@
       <c r="N268" s="14"/>
       <c r="O268" s="14"/>
     </row>
-    <row r="269" spans="1:15">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="13"/>
       <c r="B269" s="14"/>
       <c r="C269" s="56"/>
@@ -30739,7 +30750,7 @@
       <c r="N269" s="14"/>
       <c r="O269" s="14"/>
     </row>
-    <row r="270" spans="1:15">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="13"/>
       <c r="B270" s="14"/>
       <c r="C270" s="56"/>
@@ -30756,7 +30767,7 @@
       <c r="N270" s="14"/>
       <c r="O270" s="14"/>
     </row>
-    <row r="271" spans="1:15">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="13"/>
       <c r="B271" s="14"/>
       <c r="C271" s="56"/>
@@ -30773,7 +30784,7 @@
       <c r="N271" s="14"/>
       <c r="O271" s="14"/>
     </row>
-    <row r="272" spans="1:15">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="13"/>
       <c r="B272" s="14"/>
       <c r="C272" s="56"/>
@@ -30790,7 +30801,7 @@
       <c r="N272" s="14"/>
       <c r="O272" s="14"/>
     </row>
-    <row r="273" spans="1:15">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="13"/>
       <c r="B273" s="14"/>
       <c r="C273" s="56"/>
@@ -30807,7 +30818,7 @@
       <c r="N273" s="14"/>
       <c r="O273" s="14"/>
     </row>
-    <row r="274" spans="1:15">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="13"/>
       <c r="B274" s="14"/>
       <c r="C274" s="56"/>
@@ -30824,7 +30835,7 @@
       <c r="N274" s="14"/>
       <c r="O274" s="14"/>
     </row>
-    <row r="275" spans="1:15">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="13"/>
       <c r="B275" s="14"/>
       <c r="C275" s="56"/>
@@ -30841,7 +30852,7 @@
       <c r="N275" s="14"/>
       <c r="O275" s="14"/>
     </row>
-    <row r="276" spans="1:15">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="13"/>
       <c r="B276" s="14"/>
       <c r="C276" s="56"/>
@@ -30858,7 +30869,7 @@
       <c r="N276" s="14"/>
       <c r="O276" s="14"/>
     </row>
-    <row r="277" spans="1:15">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="13"/>
       <c r="B277" s="14"/>
       <c r="C277" s="56"/>
@@ -30875,7 +30886,7 @@
       <c r="N277" s="14"/>
       <c r="O277" s="14"/>
     </row>
-    <row r="278" spans="1:15">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="13"/>
       <c r="B278" s="14"/>
       <c r="C278" s="56"/>
@@ -30892,7 +30903,7 @@
       <c r="N278" s="14"/>
       <c r="O278" s="14"/>
     </row>
-    <row r="279" spans="1:15">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="13"/>
       <c r="B279" s="14"/>
       <c r="C279" s="56"/>
@@ -30909,7 +30920,7 @@
       <c r="N279" s="14"/>
       <c r="O279" s="14"/>
     </row>
-    <row r="280" spans="1:15">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="13"/>
       <c r="B280" s="14"/>
       <c r="C280" s="56"/>
@@ -30926,7 +30937,7 @@
       <c r="N280" s="14"/>
       <c r="O280" s="14"/>
     </row>
-    <row r="281" spans="1:15">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="13"/>
       <c r="B281" s="14"/>
       <c r="C281" s="56"/>
@@ -30943,7 +30954,7 @@
       <c r="N281" s="14"/>
       <c r="O281" s="14"/>
     </row>
-    <row r="282" spans="1:15">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="13"/>
       <c r="B282" s="14"/>
       <c r="C282" s="56"/>
@@ -30960,7 +30971,7 @@
       <c r="N282" s="14"/>
       <c r="O282" s="14"/>
     </row>
-    <row r="283" spans="1:15">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="13"/>
       <c r="B283" s="14"/>
       <c r="C283" s="56"/>
@@ -30977,7 +30988,7 @@
       <c r="N283" s="14"/>
       <c r="O283" s="14"/>
     </row>
-    <row r="284" spans="1:15">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="13"/>
       <c r="B284" s="14"/>
       <c r="C284" s="56"/>
@@ -30994,7 +31005,7 @@
       <c r="N284" s="14"/>
       <c r="O284" s="14"/>
     </row>
-    <row r="285" spans="1:15">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="13"/>
       <c r="B285" s="14"/>
       <c r="C285" s="56"/>
@@ -31011,7 +31022,7 @@
       <c r="N285" s="14"/>
       <c r="O285" s="14"/>
     </row>
-    <row r="286" spans="1:15">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="13"/>
       <c r="B286" s="14"/>
       <c r="C286" s="56"/>
@@ -31028,7 +31039,7 @@
       <c r="N286" s="14"/>
       <c r="O286" s="14"/>
     </row>
-    <row r="287" spans="1:15">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="13"/>
       <c r="B287" s="14"/>
       <c r="C287" s="56"/>
@@ -31045,7 +31056,7 @@
       <c r="N287" s="14"/>
       <c r="O287" s="14"/>
     </row>
-    <row r="288" spans="1:15">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="13"/>
       <c r="B288" s="14"/>
       <c r="C288" s="56"/>
@@ -31062,7 +31073,7 @@
       <c r="N288" s="14"/>
       <c r="O288" s="14"/>
     </row>
-    <row r="289" spans="1:15">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="13"/>
       <c r="B289" s="14"/>
       <c r="C289" s="56"/>
@@ -31079,7 +31090,7 @@
       <c r="N289" s="14"/>
       <c r="O289" s="14"/>
     </row>
-    <row r="290" spans="1:15">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="13"/>
       <c r="B290" s="14"/>
       <c r="C290" s="56"/>
@@ -31096,7 +31107,7 @@
       <c r="N290" s="14"/>
       <c r="O290" s="14"/>
     </row>
-    <row r="291" spans="1:15">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="13"/>
       <c r="B291" s="14"/>
       <c r="C291" s="56"/>
@@ -31113,7 +31124,7 @@
       <c r="N291" s="14"/>
       <c r="O291" s="14"/>
     </row>
-    <row r="292" spans="1:15">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="13"/>
       <c r="B292" s="14"/>
       <c r="C292" s="56"/>
@@ -31130,7 +31141,7 @@
       <c r="N292" s="14"/>
       <c r="O292" s="14"/>
     </row>
-    <row r="293" spans="1:15">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="13"/>
       <c r="B293" s="14"/>
       <c r="C293" s="56"/>
@@ -31147,7 +31158,7 @@
       <c r="N293" s="14"/>
       <c r="O293" s="14"/>
     </row>
-    <row r="294" spans="1:15">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="13"/>
       <c r="B294" s="14"/>
       <c r="C294" s="56"/>
@@ -31164,7 +31175,7 @@
       <c r="N294" s="14"/>
       <c r="O294" s="14"/>
     </row>
-    <row r="295" spans="1:15">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="13"/>
       <c r="B295" s="14"/>
       <c r="C295" s="56"/>
@@ -31181,7 +31192,7 @@
       <c r="N295" s="14"/>
       <c r="O295" s="14"/>
     </row>
-    <row r="296" spans="1:15">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="13"/>
       <c r="B296" s="14"/>
       <c r="C296" s="56"/>
@@ -31198,7 +31209,7 @@
       <c r="N296" s="14"/>
       <c r="O296" s="14"/>
     </row>
-    <row r="297" spans="1:15">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="13"/>
       <c r="B297" s="14"/>
       <c r="C297" s="56"/>
@@ -31215,7 +31226,7 @@
       <c r="N297" s="14"/>
       <c r="O297" s="14"/>
     </row>
-    <row r="298" spans="1:15">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="13"/>
       <c r="B298" s="14"/>
       <c r="C298" s="56"/>
@@ -31232,7 +31243,7 @@
       <c r="N298" s="14"/>
       <c r="O298" s="14"/>
     </row>
-    <row r="299" spans="1:15">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="13"/>
       <c r="B299" s="14"/>
       <c r="C299" s="56"/>
@@ -31249,7 +31260,7 @@
       <c r="N299" s="14"/>
       <c r="O299" s="14"/>
     </row>
-    <row r="300" spans="1:15">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="13"/>
       <c r="B300" s="14"/>
       <c r="C300" s="56"/>
@@ -31266,7 +31277,7 @@
       <c r="N300" s="14"/>
       <c r="O300" s="14"/>
     </row>
-    <row r="301" spans="1:15">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="13"/>
       <c r="B301" s="14"/>
       <c r="C301" s="56"/>
@@ -31283,7 +31294,7 @@
       <c r="N301" s="14"/>
       <c r="O301" s="14"/>
     </row>
-    <row r="302" spans="1:15">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="13"/>
       <c r="B302" s="14"/>
       <c r="C302" s="56"/>
@@ -31300,7 +31311,7 @@
       <c r="N302" s="14"/>
       <c r="O302" s="14"/>
     </row>
-    <row r="303" spans="1:15">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="13"/>
       <c r="B303" s="14"/>
       <c r="C303" s="56"/>
@@ -31317,7 +31328,7 @@
       <c r="N303" s="14"/>
       <c r="O303" s="14"/>
     </row>
-    <row r="304" spans="1:15">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="13"/>
       <c r="B304" s="14"/>
       <c r="C304" s="56"/>
@@ -31334,7 +31345,7 @@
       <c r="N304" s="14"/>
       <c r="O304" s="14"/>
     </row>
-    <row r="305" spans="1:15">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="13"/>
       <c r="B305" s="14"/>
       <c r="C305" s="56"/>
@@ -31351,7 +31362,7 @@
       <c r="N305" s="14"/>
       <c r="O305" s="14"/>
     </row>
-    <row r="306" spans="1:15">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="13"/>
       <c r="B306" s="14"/>
       <c r="C306" s="56"/>
@@ -31368,7 +31379,7 @@
       <c r="N306" s="14"/>
       <c r="O306" s="14"/>
     </row>
-    <row r="307" spans="1:15">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="13"/>
       <c r="B307" s="14"/>
       <c r="C307" s="56"/>
@@ -31385,7 +31396,7 @@
       <c r="N307" s="14"/>
       <c r="O307" s="14"/>
     </row>
-    <row r="308" spans="1:15">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="13"/>
       <c r="B308" s="14"/>
       <c r="C308" s="56"/>
@@ -31402,7 +31413,7 @@
       <c r="N308" s="14"/>
       <c r="O308" s="14"/>
     </row>
-    <row r="309" spans="1:15">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="13"/>
       <c r="B309" s="14"/>
       <c r="C309" s="56"/>
@@ -31419,7 +31430,7 @@
       <c r="N309" s="14"/>
       <c r="O309" s="14"/>
     </row>
-    <row r="310" spans="1:15">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="13"/>
       <c r="B310" s="14"/>
       <c r="C310" s="56"/>
@@ -31436,7 +31447,7 @@
       <c r="N310" s="14"/>
       <c r="O310" s="14"/>
     </row>
-    <row r="311" spans="1:15">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="13"/>
       <c r="B311" s="14"/>
       <c r="C311" s="56"/>
@@ -31453,7 +31464,7 @@
       <c r="N311" s="14"/>
       <c r="O311" s="14"/>
     </row>
-    <row r="312" spans="1:15">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="13"/>
       <c r="B312" s="14"/>
       <c r="C312" s="56"/>
@@ -31470,7 +31481,7 @@
       <c r="N312" s="14"/>
       <c r="O312" s="14"/>
     </row>
-    <row r="313" spans="1:15">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="13"/>
       <c r="B313" s="14"/>
       <c r="C313" s="56"/>
@@ -31487,7 +31498,7 @@
       <c r="N313" s="14"/>
       <c r="O313" s="14"/>
     </row>
-    <row r="314" spans="1:15">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="13"/>
       <c r="B314" s="14"/>
       <c r="C314" s="56"/>
@@ -31504,7 +31515,7 @@
       <c r="N314" s="14"/>
       <c r="O314" s="14"/>
     </row>
-    <row r="315" spans="1:15">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="13"/>
       <c r="B315" s="14"/>
       <c r="C315" s="56"/>
@@ -31521,7 +31532,7 @@
       <c r="N315" s="14"/>
       <c r="O315" s="14"/>
     </row>
-    <row r="316" spans="1:15">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="13"/>
       <c r="B316" s="14"/>
       <c r="C316" s="56"/>
@@ -31538,7 +31549,7 @@
       <c r="N316" s="14"/>
       <c r="O316" s="14"/>
     </row>
-    <row r="317" spans="1:15">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="13"/>
       <c r="B317" s="14"/>
       <c r="C317" s="56"/>
@@ -31555,7 +31566,7 @@
       <c r="N317" s="14"/>
       <c r="O317" s="14"/>
     </row>
-    <row r="318" spans="1:15">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="13"/>
       <c r="B318" s="14"/>
       <c r="C318" s="56"/>
@@ -31572,7 +31583,7 @@
       <c r="N318" s="14"/>
       <c r="O318" s="14"/>
     </row>
-    <row r="319" spans="1:15">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="13"/>
       <c r="B319" s="14"/>
       <c r="C319" s="56"/>
@@ -31589,7 +31600,7 @@
       <c r="N319" s="14"/>
       <c r="O319" s="14"/>
     </row>
-    <row r="320" spans="1:15">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="13"/>
       <c r="B320" s="14"/>
       <c r="C320" s="56"/>
@@ -31606,7 +31617,7 @@
       <c r="N320" s="14"/>
       <c r="O320" s="14"/>
     </row>
-    <row r="321" spans="1:15">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="13"/>
       <c r="B321" s="14"/>
       <c r="C321" s="56"/>
@@ -31623,7 +31634,7 @@
       <c r="N321" s="14"/>
       <c r="O321" s="14"/>
     </row>
-    <row r="322" spans="1:15">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="13"/>
       <c r="B322" s="14"/>
       <c r="C322" s="56"/>
@@ -31640,7 +31651,7 @@
       <c r="N322" s="14"/>
       <c r="O322" s="14"/>
     </row>
-    <row r="323" spans="1:15">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="13"/>
       <c r="B323" s="14"/>
       <c r="C323" s="56"/>
@@ -31657,7 +31668,7 @@
       <c r="N323" s="14"/>
       <c r="O323" s="14"/>
     </row>
-    <row r="324" spans="1:15">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="13"/>
       <c r="B324" s="14"/>
       <c r="C324" s="56"/>
@@ -31674,7 +31685,7 @@
       <c r="N324" s="14"/>
       <c r="O324" s="14"/>
     </row>
-    <row r="325" spans="1:15">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="13"/>
       <c r="B325" s="14"/>
       <c r="C325" s="56"/>
@@ -31691,7 +31702,7 @@
       <c r="N325" s="14"/>
       <c r="O325" s="14"/>
     </row>
-    <row r="326" spans="1:15">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="13"/>
       <c r="B326" s="14"/>
       <c r="C326" s="56"/>
@@ -31708,7 +31719,7 @@
       <c r="N326" s="14"/>
       <c r="O326" s="14"/>
     </row>
-    <row r="327" spans="1:15">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="13"/>
       <c r="B327" s="14"/>
       <c r="C327" s="56"/>
@@ -31725,7 +31736,7 @@
       <c r="N327" s="14"/>
       <c r="O327" s="14"/>
     </row>
-    <row r="328" spans="1:15">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="13"/>
       <c r="B328" s="14"/>
       <c r="C328" s="56"/>
@@ -31742,7 +31753,7 @@
       <c r="N328" s="14"/>
       <c r="O328" s="14"/>
     </row>
-    <row r="329" spans="1:15">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="13"/>
       <c r="B329" s="14"/>
       <c r="C329" s="56"/>
@@ -31759,7 +31770,7 @@
       <c r="N329" s="14"/>
       <c r="O329" s="14"/>
     </row>
-    <row r="330" spans="1:15">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="13"/>
       <c r="B330" s="14"/>
       <c r="C330" s="56"/>
@@ -31776,7 +31787,7 @@
       <c r="N330" s="14"/>
       <c r="O330" s="14"/>
     </row>
-    <row r="331" spans="1:15">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="13"/>
       <c r="B331" s="14"/>
       <c r="C331" s="56"/>
@@ -31793,7 +31804,7 @@
       <c r="N331" s="14"/>
       <c r="O331" s="14"/>
     </row>
-    <row r="332" spans="1:15">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="13"/>
       <c r="B332" s="14"/>
       <c r="C332" s="56"/>
@@ -31810,7 +31821,7 @@
       <c r="N332" s="14"/>
       <c r="O332" s="14"/>
     </row>
-    <row r="333" spans="1:15">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="13"/>
       <c r="B333" s="14"/>
       <c r="C333" s="56"/>
@@ -31827,7 +31838,7 @@
       <c r="N333" s="14"/>
       <c r="O333" s="14"/>
     </row>
-    <row r="334" spans="1:15">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="13"/>
       <c r="B334" s="14"/>
       <c r="C334" s="56"/>
@@ -31844,7 +31855,7 @@
       <c r="N334" s="14"/>
       <c r="O334" s="14"/>
     </row>
-    <row r="335" spans="1:15">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="13"/>
       <c r="B335" s="14"/>
       <c r="C335" s="56"/>
@@ -31861,7 +31872,7 @@
       <c r="N335" s="14"/>
       <c r="O335" s="14"/>
     </row>
-    <row r="336" spans="1:15">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="13"/>
       <c r="B336" s="14"/>
       <c r="C336" s="56"/>
@@ -31878,7 +31889,7 @@
       <c r="N336" s="14"/>
       <c r="O336" s="14"/>
     </row>
-    <row r="337" spans="1:15">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="13"/>
       <c r="B337" s="14"/>
       <c r="C337" s="56"/>
@@ -31895,7 +31906,7 @@
       <c r="N337" s="14"/>
       <c r="O337" s="14"/>
     </row>
-    <row r="338" spans="1:15">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="13"/>
       <c r="B338" s="14"/>
       <c r="C338" s="56"/>
@@ -31912,7 +31923,7 @@
       <c r="N338" s="14"/>
       <c r="O338" s="14"/>
     </row>
-    <row r="339" spans="1:15">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="13"/>
       <c r="B339" s="14"/>
       <c r="C339" s="56"/>
@@ -31929,7 +31940,7 @@
       <c r="N339" s="14"/>
       <c r="O339" s="14"/>
     </row>
-    <row r="340" spans="1:15">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="13"/>
       <c r="B340" s="14"/>
       <c r="D340" s="13"/>
@@ -31947,17 +31958,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A92:O92"/>
-    <mergeCell ref="A93:O93"/>
-    <mergeCell ref="A76:O76"/>
-    <mergeCell ref="A62:O62"/>
-    <mergeCell ref="A77:O77"/>
     <mergeCell ref="A61:O61"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A19:O19"/>
     <mergeCell ref="A46:O46"/>
     <mergeCell ref="A47:O47"/>
+    <mergeCell ref="A92:O92"/>
+    <mergeCell ref="A93:O93"/>
+    <mergeCell ref="A76:O76"/>
+    <mergeCell ref="A62:O62"/>
+    <mergeCell ref="A77:O77"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="3">
@@ -31977,12 +31988,55 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <l29cd52af9b640b690e3347aa75f97a9 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l29cd52af9b640b690e3347aa75f97a9>
+    <ade64af1c6a24cfdbe8da7f962b31d74 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ade64af1c6a24cfdbe8da7f962b31d74>
+    <e62af2f156934d1aab35222180c5fbb1 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Project Site</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">7b0ab4a9-6be8-4c6c-983c-945fdef69f95</TermId>
+        </TermInfo>
+      </Terms>
+    </e62af2f156934d1aab35222180c5fbb1>
+    <nb82aa7489a64919aab5fd247ffa0d1e xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Enhanced Reporting Requirements</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b99d9e68-488f-45bf-a303-a86e26269b90</TermId>
+        </TermInfo>
+      </Terms>
+    </nb82aa7489a64919aab5fd247ffa0d1e>
+    <f62107d924a7469492625f91956e46a6 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Development</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bc803685-9f6b-4a9c-85fc-59591d8af7f6</TermId>
+        </TermInfo>
+      </Terms>
+    </f62107d924a7469492625f91956e46a6>
+    <e9be08524f454d8b979862330e952271 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e9be08524f454d8b979862330e952271>
+    <TaxCatchAll xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Value>97</Value>
+      <Value>45</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <SharedWithUsers xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <UserInfo>
+        <DisplayName>Hunt, Martin</DisplayName>
+        <AccountId>118</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32206,65 +32260,46 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <l29cd52af9b640b690e3347aa75f97a9 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l29cd52af9b640b690e3347aa75f97a9>
-    <ade64af1c6a24cfdbe8da7f962b31d74 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ade64af1c6a24cfdbe8da7f962b31d74>
-    <e62af2f156934d1aab35222180c5fbb1 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Project Site</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">7b0ab4a9-6be8-4c6c-983c-945fdef69f95</TermId>
-        </TermInfo>
-      </Terms>
-    </e62af2f156934d1aab35222180c5fbb1>
-    <nb82aa7489a64919aab5fd247ffa0d1e xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Enhanced Reporting Requirements</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b99d9e68-488f-45bf-a303-a86e26269b90</TermId>
-        </TermInfo>
-      </Terms>
-    </nb82aa7489a64919aab5fd247ffa0d1e>
-    <f62107d924a7469492625f91956e46a6 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Development</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bc803685-9f6b-4a9c-85fc-59591d8af7f6</TermId>
-        </TermInfo>
-      </Terms>
-    </f62107d924a7469492625f91956e46a6>
-    <e9be08524f454d8b979862330e952271 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </e9be08524f454d8b979862330e952271>
-    <TaxCatchAll xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Value>97</Value>
-      <Value>45</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <SharedWithUsers xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <UserInfo>
-        <DisplayName>Hunt, Martin</DisplayName>
-        <AccountId>118</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2AB05A4-ABA0-46C7-B81D-486560E213A2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87B9136B-9C67-4E28-A05B-CA9673C4F673}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8031746-25E9-4E51-ABEB-14F1D0CC1382}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8031746-25E9-4E51-ABEB-14F1D0CC1382}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87B9136B-9C67-4E28-A05B-CA9673C4F673}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2AB05A4-ABA0-46C7-B81D-486560E213A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PIT4/validation-rules/Enhanced Reporting Validation Rules.xlsx
+++ b/PIT4/validation-rules/Enhanced Reporting Validation Rules.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91288C5E-7BC8-4763-8F8E-10F76E516E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291695A2-33FA-4A51-A96A-BD9093EF72A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="192">
   <si>
     <t xml:space="preserve">Latest Version History </t>
   </si>
@@ -617,6 +617,15 @@
   </si>
   <si>
     <t xml:space="preserve">Advance Payment reconciliation </t>
+  </si>
+  <si>
+    <t>No record found for Employer Registration Id provided.</t>
+  </si>
+  <si>
+    <t>No record found for Employer Registration Id provided due to RPN service error.</t>
+  </si>
+  <si>
+    <t>EmployerRegistrationId</t>
   </si>
 </sst>
 </file>
@@ -1247,6 +1256,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1254,9 +1266,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -22413,10 +22422,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BM342"/>
+  <dimension ref="A1:BM343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -22501,27 +22510,27 @@
       <c r="L2" s="96"/>
       <c r="M2" s="96"/>
       <c r="N2" s="96"/>
-      <c r="O2" s="100"/>
+      <c r="O2" s="97"/>
       <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="100"/>
       <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -23283,23 +23292,23 @@
       <c r="P18" s="24"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="99"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="100"/>
       <c r="P19" s="13"/>
     </row>
     <row r="20" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -24642,23 +24651,23 @@
       <c r="P48" s="13"/>
     </row>
     <row r="49" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="97" t="s">
+      <c r="A49" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="98"/>
-      <c r="C49" s="98"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="98"/>
-      <c r="H49" s="98"/>
-      <c r="I49" s="98"/>
-      <c r="J49" s="98"/>
-      <c r="K49" s="98"/>
-      <c r="L49" s="98"/>
-      <c r="M49" s="98"/>
-      <c r="N49" s="98"/>
-      <c r="O49" s="99"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="99"/>
+      <c r="K49" s="99"/>
+      <c r="L49" s="99"/>
+      <c r="M49" s="99"/>
+      <c r="N49" s="99"/>
+      <c r="O49" s="100"/>
       <c r="P49" s="13"/>
     </row>
     <row r="50" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -25342,27 +25351,27 @@
       <c r="L63" s="96"/>
       <c r="M63" s="96"/>
       <c r="N63" s="96"/>
-      <c r="O63" s="100"/>
+      <c r="O63" s="97"/>
       <c r="P63" s="13"/>
     </row>
     <row r="64" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="97" t="s">
+      <c r="A64" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B64" s="98"/>
-      <c r="C64" s="98"/>
-      <c r="D64" s="98"/>
-      <c r="E64" s="98"/>
-      <c r="F64" s="98"/>
-      <c r="G64" s="98"/>
-      <c r="H64" s="98"/>
-      <c r="I64" s="98"/>
-      <c r="J64" s="98"/>
-      <c r="K64" s="98"/>
-      <c r="L64" s="98"/>
-      <c r="M64" s="98"/>
-      <c r="N64" s="98"/>
-      <c r="O64" s="99"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="99"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="99"/>
+      <c r="H64" s="99"/>
+      <c r="I64" s="99"/>
+      <c r="J64" s="99"/>
+      <c r="K64" s="99"/>
+      <c r="L64" s="99"/>
+      <c r="M64" s="99"/>
+      <c r="N64" s="99"/>
+      <c r="O64" s="100"/>
       <c r="P64" s="13"/>
     </row>
     <row r="65" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -26099,23 +26108,23 @@
       <c r="BM78" s="13"/>
     </row>
     <row r="79" spans="1:65" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="97" t="s">
+      <c r="A79" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B79" s="98"/>
-      <c r="C79" s="98"/>
-      <c r="D79" s="98"/>
-      <c r="E79" s="98"/>
-      <c r="F79" s="98"/>
-      <c r="G79" s="98"/>
-      <c r="H79" s="98"/>
-      <c r="I79" s="98"/>
-      <c r="J79" s="98"/>
-      <c r="K79" s="98"/>
-      <c r="L79" s="98"/>
-      <c r="M79" s="98"/>
-      <c r="N79" s="98"/>
-      <c r="O79" s="98"/>
+      <c r="B79" s="99"/>
+      <c r="C79" s="99"/>
+      <c r="D79" s="99"/>
+      <c r="E79" s="99"/>
+      <c r="F79" s="99"/>
+      <c r="G79" s="99"/>
+      <c r="H79" s="99"/>
+      <c r="I79" s="99"/>
+      <c r="J79" s="99"/>
+      <c r="K79" s="99"/>
+      <c r="L79" s="99"/>
+      <c r="M79" s="99"/>
+      <c r="N79" s="99"/>
+      <c r="O79" s="99"/>
       <c r="P79" s="13"/>
       <c r="Q79" s="13"/>
       <c r="R79" s="13"/>
@@ -27467,197 +27476,197 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:65" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="95" t="s">
+    <row r="94" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>175</v>
+      </c>
+      <c r="B94" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G94" s="16">
+        <v>200</v>
+      </c>
+      <c r="H94" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I94" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L94" s="4">
+        <v>3015</v>
+      </c>
+      <c r="M94" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="N94" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="O94" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="1:65" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="B94" s="96"/>
-      <c r="C94" s="96"/>
-      <c r="D94" s="96"/>
-      <c r="E94" s="96"/>
-      <c r="F94" s="96"/>
-      <c r="G94" s="96"/>
-      <c r="H94" s="96"/>
-      <c r="I94" s="96"/>
-      <c r="J94" s="96"/>
-      <c r="K94" s="96"/>
-      <c r="L94" s="96"/>
-      <c r="M94" s="96"/>
-      <c r="N94" s="96"/>
-      <c r="O94" s="96"/>
-      <c r="P94" s="13"/>
-      <c r="Q94" s="13"/>
-      <c r="R94" s="13"/>
-      <c r="S94" s="13"/>
-      <c r="T94" s="13"/>
-      <c r="U94" s="13"/>
-      <c r="V94" s="13"/>
-      <c r="W94" s="13"/>
-      <c r="X94" s="13"/>
-      <c r="Y94" s="13"/>
-      <c r="Z94" s="13"/>
-      <c r="AA94" s="13"/>
-      <c r="AB94" s="13"/>
-      <c r="AC94" s="13"/>
-      <c r="AD94" s="13"/>
-      <c r="AE94" s="13"/>
-      <c r="AF94" s="13"/>
-      <c r="AG94" s="13"/>
-      <c r="AH94" s="13"/>
-      <c r="AI94" s="13"/>
-      <c r="AJ94" s="13"/>
-      <c r="AK94" s="13"/>
-      <c r="AL94" s="13"/>
-      <c r="AM94" s="13"/>
-      <c r="AN94" s="13"/>
-      <c r="AO94" s="13"/>
-      <c r="AP94" s="13"/>
-      <c r="AQ94" s="13"/>
-      <c r="AR94" s="13"/>
-      <c r="AS94" s="13"/>
-      <c r="AT94" s="13"/>
-      <c r="AU94" s="13"/>
-      <c r="AV94" s="13"/>
-      <c r="AW94" s="13"/>
-      <c r="AX94" s="13"/>
-      <c r="AY94" s="13"/>
-      <c r="AZ94" s="13"/>
-      <c r="BA94" s="13"/>
-      <c r="BB94" s="13"/>
-      <c r="BC94" s="13"/>
-      <c r="BD94" s="13"/>
-      <c r="BE94" s="13"/>
-      <c r="BF94" s="13"/>
-      <c r="BG94" s="13"/>
-      <c r="BH94" s="13"/>
-      <c r="BI94" s="13"/>
-      <c r="BJ94" s="13"/>
-      <c r="BK94" s="13"/>
-      <c r="BL94" s="13"/>
-      <c r="BM94" s="13"/>
-    </row>
-    <row r="95" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="97" t="s">
+      <c r="B95" s="96"/>
+      <c r="C95" s="96"/>
+      <c r="D95" s="96"/>
+      <c r="E95" s="96"/>
+      <c r="F95" s="96"/>
+      <c r="G95" s="96"/>
+      <c r="H95" s="96"/>
+      <c r="I95" s="96"/>
+      <c r="J95" s="96"/>
+      <c r="K95" s="96"/>
+      <c r="L95" s="96"/>
+      <c r="M95" s="96"/>
+      <c r="N95" s="96"/>
+      <c r="O95" s="96"/>
+      <c r="P95" s="13"/>
+      <c r="Q95" s="13"/>
+      <c r="R95" s="13"/>
+      <c r="S95" s="13"/>
+      <c r="T95" s="13"/>
+      <c r="U95" s="13"/>
+      <c r="V95" s="13"/>
+      <c r="W95" s="13"/>
+      <c r="X95" s="13"/>
+      <c r="Y95" s="13"/>
+      <c r="Z95" s="13"/>
+      <c r="AA95" s="13"/>
+      <c r="AB95" s="13"/>
+      <c r="AC95" s="13"/>
+      <c r="AD95" s="13"/>
+      <c r="AE95" s="13"/>
+      <c r="AF95" s="13"/>
+      <c r="AG95" s="13"/>
+      <c r="AH95" s="13"/>
+      <c r="AI95" s="13"/>
+      <c r="AJ95" s="13"/>
+      <c r="AK95" s="13"/>
+      <c r="AL95" s="13"/>
+      <c r="AM95" s="13"/>
+      <c r="AN95" s="13"/>
+      <c r="AO95" s="13"/>
+      <c r="AP95" s="13"/>
+      <c r="AQ95" s="13"/>
+      <c r="AR95" s="13"/>
+      <c r="AS95" s="13"/>
+      <c r="AT95" s="13"/>
+      <c r="AU95" s="13"/>
+      <c r="AV95" s="13"/>
+      <c r="AW95" s="13"/>
+      <c r="AX95" s="13"/>
+      <c r="AY95" s="13"/>
+      <c r="AZ95" s="13"/>
+      <c r="BA95" s="13"/>
+      <c r="BB95" s="13"/>
+      <c r="BC95" s="13"/>
+      <c r="BD95" s="13"/>
+      <c r="BE95" s="13"/>
+      <c r="BF95" s="13"/>
+      <c r="BG95" s="13"/>
+      <c r="BH95" s="13"/>
+      <c r="BI95" s="13"/>
+      <c r="BJ95" s="13"/>
+      <c r="BK95" s="13"/>
+      <c r="BL95" s="13"/>
+      <c r="BM95" s="13"/>
+    </row>
+    <row r="96" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B95" s="98"/>
-      <c r="C95" s="98"/>
-      <c r="D95" s="98"/>
-      <c r="E95" s="98"/>
-      <c r="F95" s="98"/>
-      <c r="G95" s="98"/>
-      <c r="H95" s="98"/>
-      <c r="I95" s="98"/>
-      <c r="J95" s="98"/>
-      <c r="K95" s="98"/>
-      <c r="L95" s="98"/>
-      <c r="M95" s="98"/>
-      <c r="N95" s="98"/>
-      <c r="O95" s="98"/>
-    </row>
-    <row r="96" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A96" s="44">
+      <c r="B96" s="99"/>
+      <c r="C96" s="99"/>
+      <c r="D96" s="99"/>
+      <c r="E96" s="99"/>
+      <c r="F96" s="99"/>
+      <c r="G96" s="99"/>
+      <c r="H96" s="99"/>
+      <c r="I96" s="99"/>
+      <c r="J96" s="99"/>
+      <c r="K96" s="99"/>
+      <c r="L96" s="99"/>
+      <c r="M96" s="99"/>
+      <c r="N96" s="99"/>
+      <c r="O96" s="99"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" s="44">
         <v>146</v>
-      </c>
-      <c r="B96" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C96" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D96" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="E96" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="F96" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G96" s="44">
-        <v>403</v>
-      </c>
-      <c r="H96" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="I96" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J96" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K96" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="L96" s="4">
-        <v>1016</v>
-      </c>
-      <c r="M96" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="N96" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="O96" s="45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
-        <v>102</v>
       </c>
       <c r="B97" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="C97" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D97" s="4" t="s">
+      <c r="C97" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D97" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G97" s="16">
-        <v>401</v>
-      </c>
-      <c r="H97" s="35" t="s">
+      <c r="G97" s="44">
+        <v>403</v>
+      </c>
+      <c r="H97" s="44" t="s">
         <v>38</v>
       </c>
       <c r="I97" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J97" s="4" t="s">
+      <c r="J97" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K97" s="4" t="s">
+      <c r="K97" s="44" t="s">
         <v>41</v>
       </c>
       <c r="L97" s="4">
-        <v>1012</v>
-      </c>
-      <c r="M97" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N97" s="23" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M97" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="N97" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O97" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="O97" s="30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B98" s="57" t="s">
         <v>172</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>36</v>
@@ -27684,30 +27693,30 @@
         <v>41</v>
       </c>
       <c r="L98" s="4">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M98" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N98" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="O98" s="29" t="s">
+      <c r="O98" s="30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B99" s="57" t="s">
         <v>172</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D99" s="4">
-        <v>301</v>
+        <v>45</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>37</v>
@@ -27716,7 +27725,7 @@
         <v>37</v>
       </c>
       <c r="G99" s="16">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H99" s="35" t="s">
         <v>38</v>
@@ -27728,30 +27737,30 @@
         <v>40</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L99" s="5">
-        <v>1003</v>
-      </c>
-      <c r="M99" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="N99" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="O99" s="22" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="L99" s="4">
+        <v>1013</v>
+      </c>
+      <c r="M99" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N99" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O99" s="29" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>50</v>
+      <c r="C100" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="D100" s="4">
         <v>301</v>
@@ -27763,7 +27772,7 @@
         <v>37</v>
       </c>
       <c r="G100" s="16">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H100" s="35" t="s">
         <v>38</v>
@@ -27775,13 +27784,13 @@
         <v>40</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L100" s="5">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M100" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N100" s="22" t="s">
         <v>42</v>
@@ -27792,16 +27801,16 @@
     </row>
     <row r="101" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B101" s="57" t="s">
         <v>172</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>36</v>
+        <v>50</v>
+      </c>
+      <c r="D101" s="4">
+        <v>301</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>37</v>
@@ -27810,7 +27819,7 @@
         <v>37</v>
       </c>
       <c r="G101" s="16">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H101" s="35" t="s">
         <v>38</v>
@@ -27825,38 +27834,38 @@
         <v>51</v>
       </c>
       <c r="L101" s="5">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="M101" s="22" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="N101" s="22" t="s">
         <v>42</v>
       </c>
       <c r="O101" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B102" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="C102" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D102" s="54">
-        <v>302</v>
-      </c>
-      <c r="E102" s="54" t="s">
+      <c r="C102" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F102" s="54" t="s">
+      <c r="F102" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G102" s="4">
+      <c r="G102" s="16">
         <v>403</v>
       </c>
       <c r="H102" s="35" t="s">
@@ -27865,45 +27874,45 @@
       <c r="I102" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J102" s="54" t="s">
+      <c r="J102" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K102" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L102" s="54">
-        <v>1006</v>
+      <c r="L102" s="5">
+        <v>1015</v>
       </c>
       <c r="M102" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N102" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="O102" s="55" t="s">
-        <v>58</v>
+      <c r="O102" s="22" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B103" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D103" s="4">
+      <c r="C103" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D103" s="54">
         <v>302</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E103" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="F103" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G103" s="16">
+      <c r="G103" s="4">
         <v>403</v>
       </c>
       <c r="H103" s="35" t="s">
@@ -27912,34 +27921,34 @@
       <c r="I103" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J103" s="4" t="s">
+      <c r="J103" s="54" t="s">
         <v>40</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L103" s="5">
-        <v>1007</v>
+        <v>51</v>
+      </c>
+      <c r="L103" s="54">
+        <v>1006</v>
       </c>
       <c r="M103" s="22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N103" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="O103" s="22" t="s">
+      <c r="O103" s="55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B104" s="57" t="s">
         <v>172</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D104" s="4">
         <v>302</v>
@@ -27966,10 +27975,10 @@
         <v>47</v>
       </c>
       <c r="L104" s="5">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M104" s="22" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="N104" s="22" t="s">
         <v>42</v>
@@ -27978,15 +27987,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B105" s="57" t="s">
         <v>172</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>173</v>
+        <v>61</v>
       </c>
       <c r="D105" s="4">
         <v>302</v>
@@ -28013,10 +28022,10 @@
         <v>47</v>
       </c>
       <c r="L105" s="5">
-        <v>5001</v>
+        <v>1008</v>
       </c>
       <c r="M105" s="22" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="N105" s="22" t="s">
         <v>42</v>
@@ -28025,15 +28034,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="31.5" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B106" s="57" t="s">
         <v>172</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D106" s="4">
         <v>302</v>
@@ -28057,77 +28066,77 @@
         <v>40</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L106" s="5">
-        <v>1011</v>
+        <v>5001</v>
       </c>
       <c r="M106" s="22" t="s">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="N106" s="22" t="s">
         <v>42</v>
       </c>
       <c r="O106" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" ht="31.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="31.5" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="B107" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="C107" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D107" s="16">
-        <v>305</v>
-      </c>
-      <c r="E107" s="16" t="s">
+      <c r="C107" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D107" s="4">
+        <v>302</v>
+      </c>
+      <c r="E107" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F107" s="16" t="s">
+      <c r="F107" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G107" s="26">
-        <v>400</v>
-      </c>
-      <c r="H107" s="4" t="s">
+      <c r="G107" s="16">
+        <v>403</v>
+      </c>
+      <c r="H107" s="35" t="s">
         <v>38</v>
       </c>
       <c r="I107" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J107" s="16" t="s">
+      <c r="J107" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K107" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L107" s="17">
-        <v>1009</v>
-      </c>
-      <c r="M107" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="N107" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="O107" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" ht="63" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K107" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L107" s="5">
+        <v>1011</v>
+      </c>
+      <c r="M107" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="N107" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O107" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="31.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="B108" s="57" t="s">
         <v>172</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="D108" s="16">
         <v>305</v>
@@ -28153,31 +28162,31 @@
       <c r="K108" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="L108" s="5">
-        <v>3002</v>
+      <c r="L108" s="17">
+        <v>1009</v>
       </c>
       <c r="M108" s="23" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="N108" s="23" t="s">
         <v>176</v>
       </c>
       <c r="O108" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" ht="47.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="63" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B109" s="57" t="s">
         <v>172</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>36</v>
+        <v>177</v>
+      </c>
+      <c r="D109" s="16">
+        <v>305</v>
       </c>
       <c r="E109" s="16" t="s">
         <v>37</v>
@@ -28200,35 +28209,65 @@
       <c r="K109" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="L109" s="18">
-        <v>3003</v>
+      <c r="L109" s="5">
+        <v>3002</v>
       </c>
       <c r="M109" s="23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N109" s="23" t="s">
         <v>176</v>
       </c>
       <c r="O109" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="47.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>113</v>
+      </c>
+      <c r="B110" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F110" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G110" s="26">
+        <v>400</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I110" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J110" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K110" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L110" s="18">
+        <v>3003</v>
+      </c>
+      <c r="M110" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="N110" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="O110" s="23" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" s="12"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="52"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="12"/>
-      <c r="L110" s="12"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="13"/>
-      <c r="O110" s="13"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
@@ -32160,6 +32199,7 @@
     <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="12"/>
       <c r="B342" s="13"/>
+      <c r="C342" s="52"/>
       <c r="D342" s="12"/>
       <c r="E342" s="12"/>
       <c r="F342" s="12"/>
@@ -32173,29 +32213,45 @@
       <c r="N342" s="13"/>
       <c r="O342" s="13"/>
     </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A343" s="12"/>
+      <c r="B343" s="13"/>
+      <c r="D343" s="12"/>
+      <c r="E343" s="12"/>
+      <c r="F343" s="12"/>
+      <c r="G343" s="27"/>
+      <c r="H343" s="27"/>
+      <c r="I343" s="27"/>
+      <c r="J343" s="12"/>
+      <c r="K343" s="12"/>
+      <c r="L343" s="12"/>
+      <c r="M343" s="13"/>
+      <c r="N343" s="13"/>
+      <c r="O343" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A95:O95"/>
+    <mergeCell ref="A96:O96"/>
+    <mergeCell ref="A78:O78"/>
+    <mergeCell ref="A64:O64"/>
+    <mergeCell ref="A79:O79"/>
     <mergeCell ref="A63:O63"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A19:O19"/>
     <mergeCell ref="A48:O48"/>
     <mergeCell ref="A49:O49"/>
-    <mergeCell ref="A94:O94"/>
-    <mergeCell ref="A95:O95"/>
-    <mergeCell ref="A78:O78"/>
-    <mergeCell ref="A64:O64"/>
-    <mergeCell ref="A79:O79"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L58:L62 L11:L15 L73:L77 L23:L24 L31:L32 L17:L18 L7:L9 L69:L71 L54:L56 L26:L29 L87:L90 L93 L83:L85 L99:L101 L103:L108" xr:uid="{8072A8F1-1A15-4450-88CE-A1709A757457}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L58:L62 L11:L15 L73:L77 L23:L24 L31:L32 L17:L18 L7:L9 L69:L71 L54:L56 L26:L29 L87:L90 L104:L109 L83:L85 L100:L102 L93" xr:uid="{8072A8F1-1A15-4450-88CE-A1709A757457}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K58:K62 K73:K77 K69:K71 K7:K9 K54:K56 K11:K18 K87:K93 K83:K85 K103:K109 K99:K101 K23:K45" xr:uid="{C2076C15-2C9A-460C-AFB6-61CB69F6633F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K58:K62 K73:K77 K69:K71 K7:K9 K54:K56 K11:K18 K23:K45 K83:K85 K104:K110 K100:K102 K87:K94" xr:uid="{C2076C15-2C9A-460C-AFB6-61CB69F6633F}">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J58:J62 J73:J77 J69:J71 J7:J9 J54:J56 J11:J18 J87:J93 J83:J85 J103:J109 J99:J101 J23:J45" xr:uid="{4FC132A4-15BC-427B-842E-52711B772CED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J58:J62 J73:J77 J69:J71 J7:J9 J54:J56 J11:J18 J23:J45 J83:J85 J104:J110 J100:J102 J87:J94" xr:uid="{4FC132A4-15BC-427B-842E-52711B772CED}">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
   </dataValidations>
@@ -32205,6 +32261,67 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <l29cd52af9b640b690e3347aa75f97a9 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l29cd52af9b640b690e3347aa75f97a9>
+    <ade64af1c6a24cfdbe8da7f962b31d74 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ade64af1c6a24cfdbe8da7f962b31d74>
+    <e62af2f156934d1aab35222180c5fbb1 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Project Site</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">7b0ab4a9-6be8-4c6c-983c-945fdef69f95</TermId>
+        </TermInfo>
+      </Terms>
+    </e62af2f156934d1aab35222180c5fbb1>
+    <nb82aa7489a64919aab5fd247ffa0d1e xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Enhanced Reporting Requirements</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b99d9e68-488f-45bf-a303-a86e26269b90</TermId>
+        </TermInfo>
+      </Terms>
+    </nb82aa7489a64919aab5fd247ffa0d1e>
+    <f62107d924a7469492625f91956e46a6 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Development</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bc803685-9f6b-4a9c-85fc-59591d8af7f6</TermId>
+        </TermInfo>
+      </Terms>
+    </f62107d924a7469492625f91956e46a6>
+    <e9be08524f454d8b979862330e952271 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e9be08524f454d8b979862330e952271>
+    <TaxCatchAll xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Value>97</Value>
+      <Value>45</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <SharedWithUsers xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <UserInfo>
+        <DisplayName>Hunt, Martin</DisplayName>
+        <AccountId>118</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Word document" ma:contentTypeID="0x010100852E11B2A94E4937B655CB4FCD918453006DFD5C59A7CB45AAB5046F3899BB7DEC00F397826DF95DEB4B8DB89BEACF2240F1" ma:contentTypeVersion="79" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="2efa76ee5d5cd602cc18ca32df57176e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9394a98c30c487d0596bd1768260a67a" ns2:_="">
     <xsd:import namespace="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8"/>
@@ -32424,68 +32541,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87B9136B-9C67-4E28-A05B-CA9673C4F673}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <l29cd52af9b640b690e3347aa75f97a9 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l29cd52af9b640b690e3347aa75f97a9>
-    <ade64af1c6a24cfdbe8da7f962b31d74 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ade64af1c6a24cfdbe8da7f962b31d74>
-    <e62af2f156934d1aab35222180c5fbb1 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Project Site</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">7b0ab4a9-6be8-4c6c-983c-945fdef69f95</TermId>
-        </TermInfo>
-      </Terms>
-    </e62af2f156934d1aab35222180c5fbb1>
-    <nb82aa7489a64919aab5fd247ffa0d1e xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Enhanced Reporting Requirements</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b99d9e68-488f-45bf-a303-a86e26269b90</TermId>
-        </TermInfo>
-      </Terms>
-    </nb82aa7489a64919aab5fd247ffa0d1e>
-    <f62107d924a7469492625f91956e46a6 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Development</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bc803685-9f6b-4a9c-85fc-59591d8af7f6</TermId>
-        </TermInfo>
-      </Terms>
-    </f62107d924a7469492625f91956e46a6>
-    <e9be08524f454d8b979862330e952271 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </e9be08524f454d8b979862330e952271>
-    <TaxCatchAll xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Value>97</Value>
-      <Value>45</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <SharedWithUsers xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <UserInfo>
-        <DisplayName>Hunt, Martin</DisplayName>
-        <AccountId>118</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2AB05A4-ABA0-46C7-B81D-486560E213A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8031746-25E9-4E51-ABEB-14F1D0CC1382}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32501,22 +32575,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2AB05A4-ABA0-46C7-B81D-486560E213A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87B9136B-9C67-4E28-A05B-CA9673C4F673}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/PIT4/validation-rules/Enhanced Reporting Validation Rules.xlsx
+++ b/PIT4/validation-rules/Enhanced Reporting Validation Rules.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291695A2-33FA-4A51-A96A-BD9093EF72A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFC6B4A-309D-4B0B-A7AF-D6D04101D463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14895" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="193">
   <si>
     <t xml:space="preserve">Latest Version History </t>
   </si>
@@ -604,12 +604,6 @@
     <t>77, 105, 4, 55, 65, 75, 116, 117, 118, 119, 121</t>
   </si>
   <si>
-    <t>Advance payment should not exceed 1000 or -1000 per claim</t>
-  </si>
-  <si>
-    <t>A maximum of 1000 per claim can be paid in respect of Advance Payments</t>
-  </si>
-  <si>
     <t>Advance payment reconciliation reported in error</t>
   </si>
   <si>
@@ -626,6 +620,15 @@
   </si>
   <si>
     <t>EmployerRegistrationId</t>
+  </si>
+  <si>
+    <t>173, 174</t>
+  </si>
+  <si>
+    <t>Added rules</t>
+  </si>
+  <si>
+    <t>Removed 173</t>
   </si>
 </sst>
 </file>
@@ -976,7 +979,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1256,9 +1259,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1266,6 +1266,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1276,6 +1279,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -21977,7 +21983,7 @@
   <dimension ref="B8:E68"/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22112,16 +22118,32 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="59"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="64"/>
+      <c r="B20" s="59">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="104">
+        <v>45371</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="63"/>
+      <c r="B21" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="C21" s="71">
+        <v>173</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="70">
+        <v>45373</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="21"/>
@@ -22422,10 +22444,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BM343"/>
+  <dimension ref="A1:BM342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -22510,27 +22532,27 @@
       <c r="L2" s="96"/>
       <c r="M2" s="96"/>
       <c r="N2" s="96"/>
-      <c r="O2" s="97"/>
+      <c r="O2" s="100"/>
       <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="100"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="99"/>
       <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -23292,23 +23314,23 @@
       <c r="P18" s="24"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="100"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="99"/>
       <c r="P19" s="13"/>
     </row>
     <row r="20" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -24538,7 +24560,7 @@
     </row>
     <row r="46" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="82">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B46" s="83" t="s">
         <v>34</v>
@@ -24546,8 +24568,8 @@
       <c r="C46" s="84" t="s">
         <v>184</v>
       </c>
-      <c r="D46" s="82">
-        <v>19</v>
+      <c r="D46" s="82" t="s">
+        <v>36</v>
       </c>
       <c r="E46" s="85" t="s">
         <v>37</v>
@@ -24565,13 +24587,13 @@
         <v>81</v>
       </c>
       <c r="J46" s="82" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="K46" s="82" t="s">
         <v>47</v>
       </c>
       <c r="L46" s="86">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="M46" s="87" t="s">
         <v>185</v>
@@ -24580,105 +24602,106 @@
         <v>77</v>
       </c>
       <c r="O46" s="83" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="82">
-        <v>174</v>
-      </c>
-      <c r="B47" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="D47" s="82" t="s">
+    </row>
+    <row r="47" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="102"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="102"/>
+      <c r="H47" s="102"/>
+      <c r="I47" s="102"/>
+      <c r="J47" s="102"/>
+      <c r="K47" s="102"/>
+      <c r="L47" s="102"/>
+      <c r="M47" s="102"/>
+      <c r="N47" s="102"/>
+      <c r="O47" s="103"/>
+      <c r="P47" s="13"/>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="98"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="98"/>
+      <c r="K48" s="98"/>
+      <c r="L48" s="98"/>
+      <c r="M48" s="98"/>
+      <c r="N48" s="98"/>
+      <c r="O48" s="99"/>
+      <c r="P48" s="13"/>
+    </row>
+    <row r="49" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="44">
+        <v>148</v>
+      </c>
+      <c r="B49" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="85" t="s">
+      <c r="E49" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F47" s="85" t="s">
+      <c r="F49" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G47" s="85">
-        <v>200</v>
-      </c>
-      <c r="H47" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="I47" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="J47" s="82" t="s">
+      <c r="G49" s="44">
+        <v>403</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J49" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K47" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="L47" s="86">
-        <v>2614</v>
-      </c>
-      <c r="M47" s="87" t="s">
-        <v>187</v>
-      </c>
-      <c r="N47" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="O47" s="83" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="101" t="s">
-        <v>143</v>
-      </c>
-      <c r="B48" s="102"/>
-      <c r="C48" s="102"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="102"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="102"/>
-      <c r="I48" s="102"/>
-      <c r="J48" s="102"/>
-      <c r="K48" s="102"/>
-      <c r="L48" s="102"/>
-      <c r="M48" s="102"/>
-      <c r="N48" s="102"/>
-      <c r="O48" s="103"/>
-      <c r="P48" s="13"/>
-    </row>
-    <row r="49" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="98" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="99"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="99"/>
-      <c r="K49" s="99"/>
-      <c r="L49" s="99"/>
-      <c r="M49" s="99"/>
-      <c r="N49" s="99"/>
-      <c r="O49" s="100"/>
+      <c r="K49" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L49" s="44">
+        <v>1111</v>
+      </c>
+      <c r="M49" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="N49" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O49" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="P49" s="13"/>
     </row>
-    <row r="50" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="44">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B50" s="57" t="s">
         <v>144</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="D50" s="44" t="s">
         <v>36</v>
@@ -24705,76 +24728,76 @@
         <v>41</v>
       </c>
       <c r="L50" s="44">
-        <v>1111</v>
+        <v>1016</v>
       </c>
       <c r="M50" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="N50" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="O50" s="22" t="s">
-        <v>58</v>
+        <v>35</v>
+      </c>
+      <c r="N50" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O50" s="45" t="s">
+        <v>36</v>
       </c>
       <c r="P50" s="13"/>
     </row>
-    <row r="51" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="44">
-        <v>146</v>
+    <row r="51" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>52</v>
       </c>
       <c r="B51" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="C51" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" s="44" t="s">
+      <c r="C51" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="44" t="s">
+      <c r="E51" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F51" s="44" t="s">
+      <c r="F51" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G51" s="44">
-        <v>403</v>
-      </c>
-      <c r="H51" s="44" t="s">
+      <c r="G51" s="16">
+        <v>401</v>
+      </c>
+      <c r="H51" s="35" t="s">
         <v>38</v>
       </c>
       <c r="I51" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J51" s="44" t="s">
+      <c r="J51" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K51" s="44" t="s">
+      <c r="K51" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L51" s="44">
-        <v>1016</v>
-      </c>
-      <c r="M51" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="N51" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="O51" s="45" t="s">
+      <c r="L51" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N51" s="23" t="s">
         <v>36</v>
       </c>
+      <c r="O51" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="P51" s="13"/>
     </row>
-    <row r="52" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="C52" s="23" t="s">
-        <v>43</v>
+      <c r="C52" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>36</v>
@@ -24801,28 +24824,28 @@
         <v>41</v>
       </c>
       <c r="L52" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M52" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N52" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="O52" s="30" t="s">
+      <c r="O52" s="29" t="s">
         <v>36</v>
       </c>
       <c r="P52" s="13"/>
     </row>
-    <row r="53" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B53" s="57" t="s">
         <v>144</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>36</v>
@@ -24834,7 +24857,7 @@
         <v>37</v>
       </c>
       <c r="G53" s="16">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H53" s="35" t="s">
         <v>38</v>
@@ -24842,35 +24865,34 @@
       <c r="I53" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="J53" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K53" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L53" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M53" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N53" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O53" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="P53" s="13"/>
-    </row>
-    <row r="54" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K53" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L53" s="16">
+        <v>1003</v>
+      </c>
+      <c r="M53" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="N53" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O53" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54" s="57" t="s">
         <v>144</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>36</v>
@@ -24882,7 +24904,7 @@
         <v>37</v>
       </c>
       <c r="G54" s="16">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H54" s="35" t="s">
         <v>38</v>
@@ -24894,13 +24916,13 @@
         <v>40</v>
       </c>
       <c r="K54" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L54" s="16">
-        <v>1003</v>
+        <v>51</v>
+      </c>
+      <c r="L54" s="17">
+        <v>1004</v>
       </c>
       <c r="M54" s="23" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N54" s="22" t="s">
         <v>147</v>
@@ -24909,15 +24931,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B55" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>149</v>
+      <c r="C55" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>36</v>
@@ -24929,7 +24951,7 @@
         <v>37</v>
       </c>
       <c r="G55" s="16">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H55" s="35" t="s">
         <v>38</v>
@@ -24937,45 +24959,94 @@
       <c r="I55" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J55" s="16" t="s">
+      <c r="J55" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K55" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L55" s="17">
-        <v>1004</v>
-      </c>
-      <c r="M55" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="N55" s="22" t="s">
-        <v>147</v>
+      <c r="K55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L55" s="5">
+        <v>1005</v>
+      </c>
+      <c r="M55" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="N55" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="O55" s="22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="56" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="14"/>
+      <c r="X55" s="14"/>
+      <c r="Y55" s="14"/>
+      <c r="Z55" s="14"/>
+      <c r="AA55" s="14"/>
+      <c r="AB55" s="14"/>
+      <c r="AC55" s="14"/>
+      <c r="AD55" s="14"/>
+      <c r="AE55" s="14"/>
+      <c r="AF55" s="14"/>
+      <c r="AG55" s="14"/>
+      <c r="AH55" s="14"/>
+      <c r="AI55" s="14"/>
+      <c r="AJ55" s="14"/>
+      <c r="AK55" s="14"/>
+      <c r="AL55" s="14"/>
+      <c r="AM55" s="14"/>
+      <c r="AN55" s="14"/>
+      <c r="AO55" s="14"/>
+      <c r="AP55" s="14"/>
+      <c r="AQ55" s="14"/>
+      <c r="AR55" s="14"/>
+      <c r="AS55" s="14"/>
+      <c r="AT55" s="14"/>
+      <c r="AU55" s="14"/>
+      <c r="AV55" s="14"/>
+      <c r="AW55" s="14"/>
+      <c r="AX55" s="14"/>
+      <c r="AY55" s="14"/>
+      <c r="AZ55" s="14"/>
+      <c r="BA55" s="14"/>
+      <c r="BB55" s="14"/>
+      <c r="BC55" s="14"/>
+      <c r="BD55" s="14"/>
+      <c r="BE55" s="14"/>
+      <c r="BF55" s="14"/>
+      <c r="BG55" s="14"/>
+      <c r="BH55" s="14"/>
+      <c r="BI55" s="14"/>
+      <c r="BJ55" s="14"/>
+      <c r="BK55" s="14"/>
+      <c r="BL55" s="14"/>
+      <c r="BM55" s="14"/>
+    </row>
+    <row r="56" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B56" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="4" t="s">
+      <c r="C56" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G56" s="4">
         <v>403</v>
       </c>
       <c r="H56" s="35" t="s">
@@ -24984,94 +25055,45 @@
       <c r="I56" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J56" s="4" t="s">
+      <c r="J56" s="54" t="s">
         <v>40</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L56" s="5">
-        <v>1005</v>
+        <v>51</v>
+      </c>
+      <c r="L56" s="54">
+        <v>1015</v>
       </c>
       <c r="M56" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="N56" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="N56" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="O56" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
-      <c r="T56" s="14"/>
-      <c r="U56" s="14"/>
-      <c r="V56" s="14"/>
-      <c r="W56" s="14"/>
-      <c r="X56" s="14"/>
-      <c r="Y56" s="14"/>
-      <c r="Z56" s="14"/>
-      <c r="AA56" s="14"/>
-      <c r="AB56" s="14"/>
-      <c r="AC56" s="14"/>
-      <c r="AD56" s="14"/>
-      <c r="AE56" s="14"/>
-      <c r="AF56" s="14"/>
-      <c r="AG56" s="14"/>
-      <c r="AH56" s="14"/>
-      <c r="AI56" s="14"/>
-      <c r="AJ56" s="14"/>
-      <c r="AK56" s="14"/>
-      <c r="AL56" s="14"/>
-      <c r="AM56" s="14"/>
-      <c r="AN56" s="14"/>
-      <c r="AO56" s="14"/>
-      <c r="AP56" s="14"/>
-      <c r="AQ56" s="14"/>
-      <c r="AR56" s="14"/>
-      <c r="AS56" s="14"/>
-      <c r="AT56" s="14"/>
-      <c r="AU56" s="14"/>
-      <c r="AV56" s="14"/>
-      <c r="AW56" s="14"/>
-      <c r="AX56" s="14"/>
-      <c r="AY56" s="14"/>
-      <c r="AZ56" s="14"/>
-      <c r="BA56" s="14"/>
-      <c r="BB56" s="14"/>
-      <c r="BC56" s="14"/>
-      <c r="BD56" s="14"/>
-      <c r="BE56" s="14"/>
-      <c r="BF56" s="14"/>
-      <c r="BG56" s="14"/>
-      <c r="BH56" s="14"/>
-      <c r="BI56" s="14"/>
-      <c r="BJ56" s="14"/>
-      <c r="BK56" s="14"/>
-      <c r="BL56" s="14"/>
-      <c r="BM56" s="14"/>
-    </row>
-    <row r="57" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="O56" s="55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="B57" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D57" s="54" t="s">
+      <c r="C57" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E57" s="54" t="s">
+      <c r="E57" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F57" s="54" t="s">
+      <c r="F57" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="16">
         <v>403</v>
       </c>
       <c r="H57" s="35" t="s">
@@ -25080,34 +25102,34 @@
       <c r="I57" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J57" s="54" t="s">
+      <c r="J57" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K57" s="4" t="s">
+      <c r="K57" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="L57" s="54">
-        <v>1015</v>
-      </c>
-      <c r="M57" s="22" t="s">
-        <v>55</v>
+      <c r="L57" s="17">
+        <v>1006</v>
+      </c>
+      <c r="M57" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="N57" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="O57" s="55" t="s">
-        <v>36</v>
+        <v>147</v>
+      </c>
+      <c r="O57" s="22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="57" t="s">
         <v>144</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>36</v>
@@ -25131,13 +25153,13 @@
         <v>40</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L58" s="17">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="M58" s="23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N58" s="22" t="s">
         <v>147</v>
@@ -25148,13 +25170,13 @@
     </row>
     <row r="59" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="57" t="s">
         <v>144</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>36</v>
@@ -25181,10 +25203,10 @@
         <v>47</v>
       </c>
       <c r="L59" s="17">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M59" s="23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N59" s="22" t="s">
         <v>147</v>
@@ -25195,15 +25217,15 @@
     </row>
     <row r="60" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="57" t="s">
         <v>144</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D60" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E60" s="4" t="s">
@@ -25225,32 +25247,32 @@
         <v>40</v>
       </c>
       <c r="K60" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L60" s="17">
-        <v>1008</v>
+        <v>41</v>
+      </c>
+      <c r="L60" s="16">
+        <v>1011</v>
       </c>
       <c r="M60" s="23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N60" s="22" t="s">
         <v>147</v>
       </c>
       <c r="O60" s="22" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="57" t="s">
         <v>144</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E61" s="4" t="s">
@@ -25260,7 +25282,7 @@
         <v>37</v>
       </c>
       <c r="G61" s="16">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H61" s="35" t="s">
         <v>38</v>
@@ -25268,121 +25290,122 @@
       <c r="I61" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J61" s="16" t="s">
+      <c r="J61" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K61" s="16" t="s">
+      <c r="K61" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L61" s="16">
-        <v>1011</v>
-      </c>
-      <c r="M61" s="23" t="s">
-        <v>64</v>
+      <c r="L61" s="4">
+        <v>2501</v>
+      </c>
+      <c r="M61" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="N61" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="O61" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="95" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="96"/>
+      <c r="J62" s="96"/>
+      <c r="K62" s="96"/>
+      <c r="L62" s="96"/>
+      <c r="M62" s="96"/>
+      <c r="N62" s="96"/>
+      <c r="O62" s="100"/>
+      <c r="P62" s="13"/>
+    </row>
+    <row r="63" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="98"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="98"/>
+      <c r="E63" s="98"/>
+      <c r="F63" s="98"/>
+      <c r="G63" s="98"/>
+      <c r="H63" s="98"/>
+      <c r="I63" s="98"/>
+      <c r="J63" s="98"/>
+      <c r="K63" s="98"/>
+      <c r="L63" s="98"/>
+      <c r="M63" s="98"/>
+      <c r="N63" s="98"/>
+      <c r="O63" s="99"/>
+      <c r="P63" s="13"/>
+    </row>
+    <row r="64" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="44">
+        <v>148</v>
+      </c>
+      <c r="B64" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="G64" s="44">
+        <v>403</v>
+      </c>
+      <c r="H64" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J64" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K64" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L64" s="44">
+        <v>1111</v>
+      </c>
+      <c r="M64" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="N64" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="O61" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>61</v>
-      </c>
-      <c r="B62" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G62" s="16">
-        <v>404</v>
-      </c>
-      <c r="H62" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="I62" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L62" s="4">
-        <v>2501</v>
-      </c>
-      <c r="M62" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="N62" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="O62" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="95" t="s">
-        <v>154</v>
-      </c>
-      <c r="B63" s="96"/>
-      <c r="C63" s="96"/>
-      <c r="D63" s="96"/>
-      <c r="E63" s="96"/>
-      <c r="F63" s="96"/>
-      <c r="G63" s="96"/>
-      <c r="H63" s="96"/>
-      <c r="I63" s="96"/>
-      <c r="J63" s="96"/>
-      <c r="K63" s="96"/>
-      <c r="L63" s="96"/>
-      <c r="M63" s="96"/>
-      <c r="N63" s="96"/>
-      <c r="O63" s="97"/>
-      <c r="P63" s="13"/>
-    </row>
-    <row r="64" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="98" t="s">
-        <v>33</v>
-      </c>
-      <c r="B64" s="99"/>
-      <c r="C64" s="99"/>
-      <c r="D64" s="99"/>
-      <c r="E64" s="99"/>
-      <c r="F64" s="99"/>
-      <c r="G64" s="99"/>
-      <c r="H64" s="99"/>
-      <c r="I64" s="99"/>
-      <c r="J64" s="99"/>
-      <c r="K64" s="99"/>
-      <c r="L64" s="99"/>
-      <c r="M64" s="99"/>
-      <c r="N64" s="99"/>
-      <c r="O64" s="100"/>
+      <c r="O64" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="P64" s="13"/>
     </row>
-    <row r="65" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="44">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B65" s="57" t="s">
         <v>155</v>
       </c>
       <c r="C65" s="45" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="D65" s="44" t="s">
         <v>36</v>
@@ -25409,76 +25432,76 @@
         <v>41</v>
       </c>
       <c r="L65" s="44">
-        <v>1111</v>
+        <v>1016</v>
       </c>
       <c r="M65" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="N65" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="O65" s="22" t="s">
-        <v>58</v>
+        <v>35</v>
+      </c>
+      <c r="N65" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O65" s="45" t="s">
+        <v>36</v>
       </c>
       <c r="P65" s="13"/>
     </row>
-    <row r="66" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="44">
-        <v>146</v>
+    <row r="66" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>62</v>
       </c>
       <c r="B66" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="C66" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D66" s="44" t="s">
+      <c r="C66" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E66" s="44" t="s">
+      <c r="E66" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F66" s="44" t="s">
+      <c r="F66" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G66" s="44">
-        <v>403</v>
-      </c>
-      <c r="H66" s="44" t="s">
+      <c r="G66" s="16">
+        <v>401</v>
+      </c>
+      <c r="H66" s="35" t="s">
         <v>38</v>
       </c>
       <c r="I66" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J66" s="44" t="s">
+      <c r="J66" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K66" s="44" t="s">
+      <c r="K66" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L66" s="44">
-        <v>1016</v>
-      </c>
-      <c r="M66" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="N66" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="O66" s="45" t="s">
+      <c r="L66" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M66" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N66" s="23" t="s">
         <v>36</v>
       </c>
+      <c r="O66" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="P66" s="13"/>
     </row>
-    <row r="67" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B67" s="57" t="s">
         <v>155</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>36</v>
@@ -25505,28 +25528,28 @@
         <v>41</v>
       </c>
       <c r="L67" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M67" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N67" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="O67" s="30" t="s">
+      <c r="O67" s="29" t="s">
         <v>36</v>
       </c>
       <c r="P67" s="13"/>
     </row>
-    <row r="68" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B68" s="57" t="s">
         <v>155</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>36</v>
@@ -25538,7 +25561,7 @@
         <v>37</v>
       </c>
       <c r="G68" s="16">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H68" s="35" t="s">
         <v>38</v>
@@ -25546,35 +25569,34 @@
       <c r="I68" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J68" s="4" t="s">
+      <c r="J68" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K68" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L68" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M68" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N68" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O68" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="P68" s="13"/>
-    </row>
-    <row r="69" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K68" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L68" s="17">
+        <v>1003</v>
+      </c>
+      <c r="M68" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="N68" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B69" s="57" t="s">
         <v>155</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>36</v>
@@ -25586,7 +25608,7 @@
         <v>37</v>
       </c>
       <c r="G69" s="16">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H69" s="35" t="s">
         <v>38</v>
@@ -25594,34 +25616,34 @@
       <c r="I69" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J69" s="17" t="s">
+      <c r="J69" s="16" t="s">
         <v>40</v>
       </c>
       <c r="K69" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L69" s="17">
-        <v>1003</v>
-      </c>
-      <c r="M69" s="29" t="s">
-        <v>48</v>
+        <v>1004</v>
+      </c>
+      <c r="M69" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="N69" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="O69" s="4" t="s">
+      <c r="O69" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:65" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B70" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="C70" s="15" t="s">
-        <v>149</v>
+      <c r="C70" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>36</v>
@@ -25633,7 +25655,7 @@
         <v>37</v>
       </c>
       <c r="G70" s="16">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H70" s="35" t="s">
         <v>38</v>
@@ -25641,45 +25663,94 @@
       <c r="I70" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J70" s="16" t="s">
+      <c r="J70" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K70" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L70" s="17">
-        <v>1004</v>
+      <c r="K70" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L70" s="5">
+        <v>1005</v>
       </c>
       <c r="M70" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="N70" s="22" t="s">
-        <v>147</v>
+        <v>54</v>
+      </c>
+      <c r="N70" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="O70" s="22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="71" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="14"/>
+      <c r="T70" s="14"/>
+      <c r="U70" s="14"/>
+      <c r="V70" s="14"/>
+      <c r="W70" s="14"/>
+      <c r="X70" s="14"/>
+      <c r="Y70" s="14"/>
+      <c r="Z70" s="14"/>
+      <c r="AA70" s="14"/>
+      <c r="AB70" s="14"/>
+      <c r="AC70" s="14"/>
+      <c r="AD70" s="14"/>
+      <c r="AE70" s="14"/>
+      <c r="AF70" s="14"/>
+      <c r="AG70" s="14"/>
+      <c r="AH70" s="14"/>
+      <c r="AI70" s="14"/>
+      <c r="AJ70" s="14"/>
+      <c r="AK70" s="14"/>
+      <c r="AL70" s="14"/>
+      <c r="AM70" s="14"/>
+      <c r="AN70" s="14"/>
+      <c r="AO70" s="14"/>
+      <c r="AP70" s="14"/>
+      <c r="AQ70" s="14"/>
+      <c r="AR70" s="14"/>
+      <c r="AS70" s="14"/>
+      <c r="AT70" s="14"/>
+      <c r="AU70" s="14"/>
+      <c r="AV70" s="14"/>
+      <c r="AW70" s="14"/>
+      <c r="AX70" s="14"/>
+      <c r="AY70" s="14"/>
+      <c r="AZ70" s="14"/>
+      <c r="BA70" s="14"/>
+      <c r="BB70" s="14"/>
+      <c r="BC70" s="14"/>
+      <c r="BD70" s="14"/>
+      <c r="BE70" s="14"/>
+      <c r="BF70" s="14"/>
+      <c r="BG70" s="14"/>
+      <c r="BH70" s="14"/>
+      <c r="BI70" s="14"/>
+      <c r="BJ70" s="14"/>
+      <c r="BK70" s="14"/>
+      <c r="BL70" s="14"/>
+      <c r="BM70" s="14"/>
+    </row>
+    <row r="71" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="B71" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D71" s="4" t="s">
+      <c r="C71" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G71" s="16">
+      <c r="G71" s="4">
         <v>403</v>
       </c>
       <c r="H71" s="35" t="s">
@@ -25688,94 +25759,45 @@
       <c r="I71" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J71" s="4" t="s">
+      <c r="J71" s="54" t="s">
         <v>40</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L71" s="5">
-        <v>1005</v>
+        <v>51</v>
+      </c>
+      <c r="L71" s="54">
+        <v>1015</v>
       </c>
       <c r="M71" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="N71" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="N71" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="O71" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q71" s="14"/>
-      <c r="R71" s="14"/>
-      <c r="S71" s="14"/>
-      <c r="T71" s="14"/>
-      <c r="U71" s="14"/>
-      <c r="V71" s="14"/>
-      <c r="W71" s="14"/>
-      <c r="X71" s="14"/>
-      <c r="Y71" s="14"/>
-      <c r="Z71" s="14"/>
-      <c r="AA71" s="14"/>
-      <c r="AB71" s="14"/>
-      <c r="AC71" s="14"/>
-      <c r="AD71" s="14"/>
-      <c r="AE71" s="14"/>
-      <c r="AF71" s="14"/>
-      <c r="AG71" s="14"/>
-      <c r="AH71" s="14"/>
-      <c r="AI71" s="14"/>
-      <c r="AJ71" s="14"/>
-      <c r="AK71" s="14"/>
-      <c r="AL71" s="14"/>
-      <c r="AM71" s="14"/>
-      <c r="AN71" s="14"/>
-      <c r="AO71" s="14"/>
-      <c r="AP71" s="14"/>
-      <c r="AQ71" s="14"/>
-      <c r="AR71" s="14"/>
-      <c r="AS71" s="14"/>
-      <c r="AT71" s="14"/>
-      <c r="AU71" s="14"/>
-      <c r="AV71" s="14"/>
-      <c r="AW71" s="14"/>
-      <c r="AX71" s="14"/>
-      <c r="AY71" s="14"/>
-      <c r="AZ71" s="14"/>
-      <c r="BA71" s="14"/>
-      <c r="BB71" s="14"/>
-      <c r="BC71" s="14"/>
-      <c r="BD71" s="14"/>
-      <c r="BE71" s="14"/>
-      <c r="BF71" s="14"/>
-      <c r="BG71" s="14"/>
-      <c r="BH71" s="14"/>
-      <c r="BI71" s="14"/>
-      <c r="BJ71" s="14"/>
-      <c r="BK71" s="14"/>
-      <c r="BL71" s="14"/>
-      <c r="BM71" s="14"/>
-    </row>
-    <row r="72" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="O71" s="55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="B72" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="C72" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D72" s="54" t="s">
+      <c r="C72" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E72" s="54" t="s">
+      <c r="E72" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F72" s="54" t="s">
+      <c r="F72" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="16">
         <v>403</v>
       </c>
       <c r="H72" s="35" t="s">
@@ -25784,34 +25806,34 @@
       <c r="I72" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J72" s="54" t="s">
+      <c r="J72" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K72" s="4" t="s">
+      <c r="K72" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="L72" s="54">
-        <v>1015</v>
+      <c r="L72" s="17">
+        <v>1006</v>
       </c>
       <c r="M72" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N72" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="O72" s="55" t="s">
-        <v>36</v>
+        <v>147</v>
+      </c>
+      <c r="O72" s="22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B73" s="57" t="s">
         <v>155</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>36</v>
@@ -25835,13 +25857,13 @@
         <v>40</v>
       </c>
       <c r="K73" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L73" s="17">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="M73" s="22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N73" s="22" t="s">
         <v>147</v>
@@ -25852,13 +25874,13 @@
     </row>
     <row r="74" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B74" s="57" t="s">
         <v>155</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>36</v>
@@ -25885,10 +25907,10 @@
         <v>47</v>
       </c>
       <c r="L74" s="17">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M74" s="22" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="N74" s="22" t="s">
         <v>147</v>
@@ -25899,15 +25921,15 @@
     </row>
     <row r="75" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B75" s="57" t="s">
         <v>155</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D75" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E75" s="4" t="s">
@@ -25929,32 +25951,32 @@
         <v>40</v>
       </c>
       <c r="K75" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L75" s="17">
-        <v>1008</v>
-      </c>
-      <c r="M75" s="22" t="s">
-        <v>156</v>
+        <v>41</v>
+      </c>
+      <c r="L75" s="16">
+        <v>1011</v>
+      </c>
+      <c r="M75" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="N75" s="22" t="s">
         <v>147</v>
       </c>
       <c r="O75" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B76" s="57" t="s">
         <v>155</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D76" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E76" s="4" t="s">
@@ -25964,7 +25986,7 @@
         <v>37</v>
       </c>
       <c r="G76" s="16">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H76" s="35" t="s">
         <v>38</v>
@@ -25972,90 +25994,112 @@
       <c r="I76" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J76" s="16" t="s">
+      <c r="J76" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K76" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L76" s="16">
-        <v>1011</v>
-      </c>
-      <c r="M76" s="23" t="s">
-        <v>64</v>
+      <c r="K76" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L76" s="5">
+        <v>2506</v>
+      </c>
+      <c r="M76" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="N76" s="22" t="s">
         <v>147</v>
       </c>
       <c r="O76" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="77" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
-        <v>71</v>
-      </c>
-      <c r="B77" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G77" s="16">
-        <v>404</v>
-      </c>
-      <c r="H77" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="I77" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L77" s="5">
-        <v>2506</v>
-      </c>
-      <c r="M77" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="N77" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="O77" s="22" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:65" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="95" t="s">
+    <row r="77" spans="1:65" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="B78" s="96"/>
-      <c r="C78" s="96"/>
-      <c r="D78" s="96"/>
-      <c r="E78" s="96"/>
-      <c r="F78" s="96"/>
-      <c r="G78" s="96"/>
-      <c r="H78" s="96"/>
-      <c r="I78" s="96"/>
-      <c r="J78" s="96"/>
-      <c r="K78" s="96"/>
-      <c r="L78" s="96"/>
-      <c r="M78" s="96"/>
-      <c r="N78" s="96"/>
-      <c r="O78" s="96"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="96"/>
+      <c r="D77" s="96"/>
+      <c r="E77" s="96"/>
+      <c r="F77" s="96"/>
+      <c r="G77" s="96"/>
+      <c r="H77" s="96"/>
+      <c r="I77" s="96"/>
+      <c r="J77" s="96"/>
+      <c r="K77" s="96"/>
+      <c r="L77" s="96"/>
+      <c r="M77" s="96"/>
+      <c r="N77" s="96"/>
+      <c r="O77" s="96"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="13"/>
+      <c r="U77" s="13"/>
+      <c r="V77" s="13"/>
+      <c r="W77" s="13"/>
+      <c r="X77" s="13"/>
+      <c r="Y77" s="13"/>
+      <c r="Z77" s="13"/>
+      <c r="AA77" s="13"/>
+      <c r="AB77" s="13"/>
+      <c r="AC77" s="13"/>
+      <c r="AD77" s="13"/>
+      <c r="AE77" s="13"/>
+      <c r="AF77" s="13"/>
+      <c r="AG77" s="13"/>
+      <c r="AH77" s="13"/>
+      <c r="AI77" s="13"/>
+      <c r="AJ77" s="13"/>
+      <c r="AK77" s="13"/>
+      <c r="AL77" s="13"/>
+      <c r="AM77" s="13"/>
+      <c r="AN77" s="13"/>
+      <c r="AO77" s="13"/>
+      <c r="AP77" s="13"/>
+      <c r="AQ77" s="13"/>
+      <c r="AR77" s="13"/>
+      <c r="AS77" s="13"/>
+      <c r="AT77" s="13"/>
+      <c r="AU77" s="13"/>
+      <c r="AV77" s="13"/>
+      <c r="AW77" s="13"/>
+      <c r="AX77" s="13"/>
+      <c r="AY77" s="13"/>
+      <c r="AZ77" s="13"/>
+      <c r="BA77" s="13"/>
+      <c r="BB77" s="13"/>
+      <c r="BC77" s="13"/>
+      <c r="BD77" s="13"/>
+      <c r="BE77" s="13"/>
+      <c r="BF77" s="13"/>
+      <c r="BG77" s="13"/>
+      <c r="BH77" s="13"/>
+      <c r="BI77" s="13"/>
+      <c r="BJ77" s="13"/>
+      <c r="BK77" s="13"/>
+      <c r="BL77" s="13"/>
+      <c r="BM77" s="13"/>
+    </row>
+    <row r="78" spans="1:65" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" s="98"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="98"/>
+      <c r="E78" s="98"/>
+      <c r="F78" s="98"/>
+      <c r="G78" s="98"/>
+      <c r="H78" s="98"/>
+      <c r="I78" s="98"/>
+      <c r="J78" s="98"/>
+      <c r="K78" s="98"/>
+      <c r="L78" s="98"/>
+      <c r="M78" s="98"/>
+      <c r="N78" s="98"/>
+      <c r="O78" s="98"/>
       <c r="P78" s="13"/>
       <c r="Q78" s="13"/>
       <c r="R78" s="13"/>
@@ -26107,24 +26151,52 @@
       <c r="BL78" s="13"/>
       <c r="BM78" s="13"/>
     </row>
-    <row r="79" spans="1:65" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="98" t="s">
-        <v>33</v>
-      </c>
-      <c r="B79" s="99"/>
-      <c r="C79" s="99"/>
-      <c r="D79" s="99"/>
-      <c r="E79" s="99"/>
-      <c r="F79" s="99"/>
-      <c r="G79" s="99"/>
-      <c r="H79" s="99"/>
-      <c r="I79" s="99"/>
-      <c r="J79" s="99"/>
-      <c r="K79" s="99"/>
-      <c r="L79" s="99"/>
-      <c r="M79" s="99"/>
-      <c r="N79" s="99"/>
-      <c r="O79" s="99"/>
+    <row r="79" spans="1:65" s="6" customFormat="1" ht="40.700000000000003" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="44">
+        <v>146</v>
+      </c>
+      <c r="B79" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="G79" s="44">
+        <v>403</v>
+      </c>
+      <c r="H79" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J79" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K79" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L79" s="44">
+        <v>1016</v>
+      </c>
+      <c r="M79" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="N79" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O79" s="45" t="s">
+        <v>36</v>
+      </c>
       <c r="P79" s="13"/>
       <c r="Q79" s="13"/>
       <c r="R79" s="13"/>
@@ -26176,50 +26248,50 @@
       <c r="BL79" s="13"/>
       <c r="BM79" s="13"/>
     </row>
-    <row r="80" spans="1:65" s="6" customFormat="1" ht="40.700000000000003" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="44">
-        <v>146</v>
+    <row r="80" spans="1:65" s="6" customFormat="1" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>72</v>
       </c>
       <c r="B80" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="C80" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D80" s="44" t="s">
+      <c r="C80" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E80" s="44" t="s">
+      <c r="E80" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F80" s="44" t="s">
+      <c r="F80" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G80" s="44">
-        <v>403</v>
-      </c>
-      <c r="H80" s="44" t="s">
+      <c r="G80" s="16">
+        <v>401</v>
+      </c>
+      <c r="H80" s="35" t="s">
         <v>38</v>
       </c>
       <c r="I80" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J80" s="44" t="s">
+      <c r="J80" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K80" s="44" t="s">
+      <c r="K80" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L80" s="44">
-        <v>1016</v>
-      </c>
-      <c r="M80" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="N80" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="O80" s="45" t="s">
+      <c r="L80" s="4">
+        <v>1012</v>
+      </c>
+      <c r="M80" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N80" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O80" s="30" t="s">
         <v>36</v>
       </c>
       <c r="P80" s="13"/>
@@ -26273,15 +26345,15 @@
       <c r="BL80" s="13"/>
       <c r="BM80" s="13"/>
     </row>
-    <row r="81" spans="1:65" s="6" customFormat="1" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B81" s="57" t="s">
         <v>161</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>36</v>
@@ -26308,15 +26380,15 @@
         <v>41</v>
       </c>
       <c r="L81" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M81" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N81" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="O81" s="30" t="s">
+      <c r="O81" s="29" t="s">
         <v>36</v>
       </c>
       <c r="P81" s="13"/>
@@ -26370,15 +26442,15 @@
       <c r="BL81" s="13"/>
       <c r="BM81" s="13"/>
     </row>
-    <row r="82" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B82" s="57" t="s">
         <v>161</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>36</v>
@@ -26390,7 +26462,7 @@
         <v>37</v>
       </c>
       <c r="G82" s="16">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H82" s="35" t="s">
         <v>38</v>
@@ -26402,80 +26474,79 @@
         <v>40</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L82" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M82" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N82" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O82" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="P82" s="13"/>
-      <c r="Q82" s="13"/>
-      <c r="R82" s="13"/>
-      <c r="S82" s="13"/>
-      <c r="T82" s="13"/>
-      <c r="U82" s="13"/>
-      <c r="V82" s="13"/>
-      <c r="W82" s="13"/>
-      <c r="X82" s="13"/>
-      <c r="Y82" s="13"/>
-      <c r="Z82" s="13"/>
-      <c r="AA82" s="13"/>
-      <c r="AB82" s="13"/>
-      <c r="AC82" s="13"/>
-      <c r="AD82" s="13"/>
-      <c r="AE82" s="13"/>
-      <c r="AF82" s="13"/>
-      <c r="AG82" s="13"/>
-      <c r="AH82" s="13"/>
-      <c r="AI82" s="13"/>
-      <c r="AJ82" s="13"/>
-      <c r="AK82" s="13"/>
-      <c r="AL82" s="13"/>
-      <c r="AM82" s="13"/>
-      <c r="AN82" s="13"/>
-      <c r="AO82" s="13"/>
-      <c r="AP82" s="13"/>
-      <c r="AQ82" s="13"/>
-      <c r="AR82" s="13"/>
-      <c r="AS82" s="13"/>
-      <c r="AT82" s="13"/>
-      <c r="AU82" s="13"/>
-      <c r="AV82" s="13"/>
-      <c r="AW82" s="13"/>
-      <c r="AX82" s="13"/>
-      <c r="AY82" s="13"/>
-      <c r="AZ82" s="13"/>
-      <c r="BA82" s="13"/>
-      <c r="BB82" s="13"/>
-      <c r="BC82" s="13"/>
-      <c r="BD82" s="13"/>
-      <c r="BE82" s="13"/>
-      <c r="BF82" s="13"/>
-      <c r="BG82" s="13"/>
-      <c r="BH82" s="13"/>
-      <c r="BI82" s="13"/>
-      <c r="BJ82" s="13"/>
-      <c r="BK82" s="13"/>
-      <c r="BL82" s="13"/>
-      <c r="BM82" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="L82" s="5">
+        <v>1003</v>
+      </c>
+      <c r="M82" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="N82" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="O82" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q82" s="14"/>
+      <c r="R82" s="14"/>
+      <c r="S82" s="14"/>
+      <c r="T82" s="14"/>
+      <c r="U82" s="14"/>
+      <c r="V82" s="14"/>
+      <c r="W82" s="14"/>
+      <c r="X82" s="14"/>
+      <c r="Y82" s="14"/>
+      <c r="Z82" s="14"/>
+      <c r="AA82" s="14"/>
+      <c r="AB82" s="14"/>
+      <c r="AC82" s="14"/>
+      <c r="AD82" s="14"/>
+      <c r="AE82" s="14"/>
+      <c r="AF82" s="14"/>
+      <c r="AG82" s="14"/>
+      <c r="AH82" s="14"/>
+      <c r="AI82" s="14"/>
+      <c r="AJ82" s="14"/>
+      <c r="AK82" s="14"/>
+      <c r="AL82" s="14"/>
+      <c r="AM82" s="14"/>
+      <c r="AN82" s="14"/>
+      <c r="AO82" s="14"/>
+      <c r="AP82" s="14"/>
+      <c r="AQ82" s="14"/>
+      <c r="AR82" s="14"/>
+      <c r="AS82" s="14"/>
+      <c r="AT82" s="14"/>
+      <c r="AU82" s="14"/>
+      <c r="AV82" s="14"/>
+      <c r="AW82" s="14"/>
+      <c r="AX82" s="14"/>
+      <c r="AY82" s="14"/>
+      <c r="AZ82" s="14"/>
+      <c r="BA82" s="14"/>
+      <c r="BB82" s="14"/>
+      <c r="BC82" s="14"/>
+      <c r="BD82" s="14"/>
+      <c r="BE82" s="14"/>
+      <c r="BF82" s="14"/>
+      <c r="BG82" s="14"/>
+      <c r="BH82" s="14"/>
+      <c r="BI82" s="14"/>
+      <c r="BJ82" s="14"/>
+      <c r="BK82" s="14"/>
+      <c r="BL82" s="14"/>
+      <c r="BM82" s="14"/>
     </row>
     <row r="83" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B83" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="C83" s="15" t="s">
-        <v>46</v>
+      <c r="C83" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>36</v>
@@ -26487,7 +26558,7 @@
         <v>37</v>
       </c>
       <c r="G83" s="16">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H83" s="35" t="s">
         <v>38</v>
@@ -26499,13 +26570,13 @@
         <v>40</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L83" s="5">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="M83" s="22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N83" s="22" t="s">
         <v>162</v>
@@ -26563,15 +26634,15 @@
       <c r="BL83" s="14"/>
       <c r="BM83" s="14"/>
     </row>
-    <row r="84" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B84" s="57" t="s">
         <v>161</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>36</v>
@@ -26583,7 +26654,7 @@
         <v>37</v>
       </c>
       <c r="G84" s="16">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H84" s="35" t="s">
         <v>38</v>
@@ -26595,13 +26666,13 @@
         <v>40</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L84" s="5">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="M84" s="22" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="N84" s="22" t="s">
         <v>162</v>
@@ -26659,26 +26730,26 @@
       <c r="BL84" s="14"/>
       <c r="BM84" s="14"/>
     </row>
-    <row r="85" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B85" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D85" s="4" t="s">
+      <c r="C85" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G85" s="16">
+      <c r="G85" s="4">
         <v>403</v>
       </c>
       <c r="H85" s="35" t="s">
@@ -26687,23 +26758,23 @@
       <c r="I85" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J85" s="4" t="s">
+      <c r="J85" s="54" t="s">
         <v>40</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L85" s="5">
-        <v>1005</v>
+        <v>51</v>
+      </c>
+      <c r="L85" s="54">
+        <v>1015</v>
       </c>
       <c r="M85" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N85" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="O85" s="22" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="O85" s="55" t="s">
+        <v>36</v>
       </c>
       <c r="Q85" s="14"/>
       <c r="R85" s="14"/>
@@ -26755,26 +26826,26 @@
       <c r="BL85" s="14"/>
       <c r="BM85" s="14"/>
     </row>
-    <row r="86" spans="1:65" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B86" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D86" s="54" t="s">
+      <c r="C86" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E86" s="54" t="s">
+      <c r="E86" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F86" s="54" t="s">
+      <c r="F86" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="16">
         <v>403</v>
       </c>
       <c r="H86" s="35" t="s">
@@ -26783,23 +26854,23 @@
       <c r="I86" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J86" s="54" t="s">
+      <c r="J86" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K86" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L86" s="54">
-        <v>1015</v>
+      <c r="L86" s="5">
+        <v>1006</v>
       </c>
       <c r="M86" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N86" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="O86" s="55" t="s">
-        <v>36</v>
+        <v>162</v>
+      </c>
+      <c r="O86" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="Q86" s="14"/>
       <c r="R86" s="14"/>
@@ -26853,13 +26924,13 @@
     </row>
     <row r="87" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B87" s="57" t="s">
         <v>161</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>36</v>
@@ -26883,13 +26954,13 @@
         <v>40</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L87" s="5">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="M87" s="22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N87" s="22" t="s">
         <v>162</v>
@@ -26947,15 +27018,15 @@
       <c r="BL87" s="14"/>
       <c r="BM87" s="14"/>
     </row>
-    <row r="88" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B88" s="57" t="s">
         <v>161</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>36</v>
@@ -26982,10 +27053,10 @@
         <v>47</v>
       </c>
       <c r="L88" s="5">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M88" s="22" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="N88" s="22" t="s">
         <v>162</v>
@@ -27045,13 +27116,13 @@
     </row>
     <row r="89" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B89" s="57" t="s">
         <v>161</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>36</v>
@@ -27075,19 +27146,19 @@
         <v>40</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L89" s="5">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="M89" s="22" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="N89" s="22" t="s">
         <v>162</v>
       </c>
       <c r="O89" s="22" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="Q89" s="14"/>
       <c r="R89" s="14"/>
@@ -27139,15 +27210,15 @@
       <c r="BL89" s="14"/>
       <c r="BM89" s="14"/>
     </row>
-    <row r="90" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
-        <v>81</v>
+    <row r="90" spans="1:65" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="18">
+        <v>169</v>
       </c>
       <c r="B90" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>164</v>
+      <c r="C90" s="51" t="s">
+        <v>165</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>36</v>
@@ -27159,7 +27230,7 @@
         <v>37</v>
       </c>
       <c r="G90" s="16">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H90" s="35" t="s">
         <v>38</v>
@@ -27171,90 +27242,91 @@
         <v>40</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L90" s="5">
-        <v>1011</v>
-      </c>
-      <c r="M90" s="22" t="s">
-        <v>64</v>
+        <v>47</v>
+      </c>
+      <c r="L90" s="18">
+        <v>3101</v>
+      </c>
+      <c r="M90" s="40" t="s">
+        <v>166</v>
       </c>
       <c r="N90" s="22" t="s">
         <v>162</v>
       </c>
       <c r="O90" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q90" s="14"/>
-      <c r="R90" s="14"/>
-      <c r="S90" s="14"/>
-      <c r="T90" s="14"/>
-      <c r="U90" s="14"/>
-      <c r="V90" s="14"/>
-      <c r="W90" s="14"/>
-      <c r="X90" s="14"/>
-      <c r="Y90" s="14"/>
-      <c r="Z90" s="14"/>
-      <c r="AA90" s="14"/>
-      <c r="AB90" s="14"/>
-      <c r="AC90" s="14"/>
-      <c r="AD90" s="14"/>
-      <c r="AE90" s="14"/>
-      <c r="AF90" s="14"/>
-      <c r="AG90" s="14"/>
-      <c r="AH90" s="14"/>
-      <c r="AI90" s="14"/>
-      <c r="AJ90" s="14"/>
-      <c r="AK90" s="14"/>
-      <c r="AL90" s="14"/>
-      <c r="AM90" s="14"/>
-      <c r="AN90" s="14"/>
-      <c r="AO90" s="14"/>
-      <c r="AP90" s="14"/>
-      <c r="AQ90" s="14"/>
-      <c r="AR90" s="14"/>
-      <c r="AS90" s="14"/>
-      <c r="AT90" s="14"/>
-      <c r="AU90" s="14"/>
-      <c r="AV90" s="14"/>
-      <c r="AW90" s="14"/>
-      <c r="AX90" s="14"/>
-      <c r="AY90" s="14"/>
-      <c r="AZ90" s="14"/>
-      <c r="BA90" s="14"/>
-      <c r="BB90" s="14"/>
-      <c r="BC90" s="14"/>
-      <c r="BD90" s="14"/>
-      <c r="BE90" s="14"/>
-      <c r="BF90" s="14"/>
-      <c r="BG90" s="14"/>
-      <c r="BH90" s="14"/>
-      <c r="BI90" s="14"/>
-      <c r="BJ90" s="14"/>
-      <c r="BK90" s="14"/>
-      <c r="BL90" s="14"/>
-      <c r="BM90" s="14"/>
-    </row>
-    <row r="91" spans="1:65" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="18">
-        <v>169</v>
+        <v>167</v>
+      </c>
+      <c r="P90" s="13"/>
+      <c r="Q90" s="13"/>
+      <c r="R90" s="13"/>
+      <c r="S90" s="13"/>
+      <c r="T90" s="13"/>
+      <c r="U90" s="13"/>
+      <c r="V90" s="13"/>
+      <c r="W90" s="13"/>
+      <c r="X90" s="13"/>
+      <c r="Y90" s="13"/>
+      <c r="Z90" s="13"/>
+      <c r="AA90" s="13"/>
+      <c r="AB90" s="13"/>
+      <c r="AC90" s="13"/>
+      <c r="AD90" s="13"/>
+      <c r="AE90" s="13"/>
+      <c r="AF90" s="13"/>
+      <c r="AG90" s="13"/>
+      <c r="AH90" s="13"/>
+      <c r="AI90" s="13"/>
+      <c r="AJ90" s="13"/>
+      <c r="AK90" s="13"/>
+      <c r="AL90" s="13"/>
+      <c r="AM90" s="13"/>
+      <c r="AN90" s="13"/>
+      <c r="AO90" s="13"/>
+      <c r="AP90" s="13"/>
+      <c r="AQ90" s="13"/>
+      <c r="AR90" s="13"/>
+      <c r="AS90" s="13"/>
+      <c r="AT90" s="13"/>
+      <c r="AU90" s="13"/>
+      <c r="AV90" s="13"/>
+      <c r="AW90" s="13"/>
+      <c r="AX90" s="13"/>
+      <c r="AY90" s="13"/>
+      <c r="AZ90" s="13"/>
+      <c r="BA90" s="13"/>
+      <c r="BB90" s="13"/>
+      <c r="BC90" s="13"/>
+      <c r="BD90" s="13"/>
+      <c r="BE90" s="13"/>
+      <c r="BF90" s="13"/>
+      <c r="BG90" s="13"/>
+      <c r="BH90" s="13"/>
+      <c r="BI90" s="13"/>
+      <c r="BJ90" s="13"/>
+      <c r="BK90" s="13"/>
+      <c r="BL90" s="13"/>
+      <c r="BM90" s="13"/>
+    </row>
+    <row r="91" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="35">
+        <v>156</v>
       </c>
       <c r="B91" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="C91" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="D91" s="4" t="s">
+      <c r="C91" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D91" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G91" s="16">
+      <c r="G91" s="35">
         <v>400</v>
       </c>
       <c r="H91" s="35" t="s">
@@ -27263,23 +27335,23 @@
       <c r="I91" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J91" s="4" t="s">
+      <c r="J91" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="K91" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L91" s="18">
-        <v>3101</v>
-      </c>
-      <c r="M91" s="40" t="s">
-        <v>166</v>
+      <c r="K91" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="L91" s="35">
+        <v>3014</v>
+      </c>
+      <c r="M91" s="47" t="s">
+        <v>169</v>
       </c>
       <c r="N91" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="O91" s="22" t="s">
-        <v>167</v>
+      <c r="O91" s="58" t="s">
+        <v>170</v>
       </c>
       <c r="P91" s="13"/>
       <c r="Q91" s="13"/>
@@ -27332,115 +27404,65 @@
       <c r="BL91" s="13"/>
       <c r="BM91" s="13"/>
     </row>
-    <row r="92" spans="1:65" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="35">
-        <v>156</v>
+    <row r="92" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>168</v>
       </c>
       <c r="B92" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="C92" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D92" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E92" s="35" t="s">
+      <c r="C92" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" s="4">
+        <v>9</v>
+      </c>
+      <c r="E92" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F92" s="35" t="s">
+      <c r="F92" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G92" s="35">
-        <v>400</v>
-      </c>
-      <c r="H92" s="35" t="s">
-        <v>38</v>
+      <c r="G92" s="16">
+        <v>200</v>
+      </c>
+      <c r="H92" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="I92" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J92" s="35" t="s">
+      <c r="J92" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K92" s="35" t="s">
+      <c r="K92" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L92" s="35">
-        <v>3014</v>
-      </c>
-      <c r="M92" s="47" t="s">
-        <v>169</v>
+      <c r="L92" s="4">
+        <v>1010</v>
+      </c>
+      <c r="M92" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="N92" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="O92" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="P92" s="13"/>
-      <c r="Q92" s="13"/>
-      <c r="R92" s="13"/>
-      <c r="S92" s="13"/>
-      <c r="T92" s="13"/>
-      <c r="U92" s="13"/>
-      <c r="V92" s="13"/>
-      <c r="W92" s="13"/>
-      <c r="X92" s="13"/>
-      <c r="Y92" s="13"/>
-      <c r="Z92" s="13"/>
-      <c r="AA92" s="13"/>
-      <c r="AB92" s="13"/>
-      <c r="AC92" s="13"/>
-      <c r="AD92" s="13"/>
-      <c r="AE92" s="13"/>
-      <c r="AF92" s="13"/>
-      <c r="AG92" s="13"/>
-      <c r="AH92" s="13"/>
-      <c r="AI92" s="13"/>
-      <c r="AJ92" s="13"/>
-      <c r="AK92" s="13"/>
-      <c r="AL92" s="13"/>
-      <c r="AM92" s="13"/>
-      <c r="AN92" s="13"/>
-      <c r="AO92" s="13"/>
-      <c r="AP92" s="13"/>
-      <c r="AQ92" s="13"/>
-      <c r="AR92" s="13"/>
-      <c r="AS92" s="13"/>
-      <c r="AT92" s="13"/>
-      <c r="AU92" s="13"/>
-      <c r="AV92" s="13"/>
-      <c r="AW92" s="13"/>
-      <c r="AX92" s="13"/>
-      <c r="AY92" s="13"/>
-      <c r="AZ92" s="13"/>
-      <c r="BA92" s="13"/>
-      <c r="BB92" s="13"/>
-      <c r="BC92" s="13"/>
-      <c r="BD92" s="13"/>
-      <c r="BE92" s="13"/>
-      <c r="BF92" s="13"/>
-      <c r="BG92" s="13"/>
-      <c r="BH92" s="13"/>
-      <c r="BI92" s="13"/>
-      <c r="BJ92" s="13"/>
-      <c r="BK92" s="13"/>
-      <c r="BL92" s="13"/>
-      <c r="BM92" s="13"/>
+      <c r="O92" s="22" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="93" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B93" s="57" t="s">
         <v>161</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D93" s="4">
-        <v>9</v>
+        <v>188</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>36</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>37</v>
@@ -27464,209 +27486,209 @@
         <v>51</v>
       </c>
       <c r="L93" s="4">
-        <v>1010</v>
+        <v>3015</v>
       </c>
       <c r="M93" s="22" t="s">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="N93" s="22" t="s">
         <v>162</v>
       </c>
       <c r="O93" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:65" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
-        <v>175</v>
-      </c>
-      <c r="B94" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D94" s="35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:65" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="B94" s="96"/>
+      <c r="C94" s="96"/>
+      <c r="D94" s="96"/>
+      <c r="E94" s="96"/>
+      <c r="F94" s="96"/>
+      <c r="G94" s="96"/>
+      <c r="H94" s="96"/>
+      <c r="I94" s="96"/>
+      <c r="J94" s="96"/>
+      <c r="K94" s="96"/>
+      <c r="L94" s="96"/>
+      <c r="M94" s="96"/>
+      <c r="N94" s="96"/>
+      <c r="O94" s="96"/>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="13"/>
+      <c r="U94" s="13"/>
+      <c r="V94" s="13"/>
+      <c r="W94" s="13"/>
+      <c r="X94" s="13"/>
+      <c r="Y94" s="13"/>
+      <c r="Z94" s="13"/>
+      <c r="AA94" s="13"/>
+      <c r="AB94" s="13"/>
+      <c r="AC94" s="13"/>
+      <c r="AD94" s="13"/>
+      <c r="AE94" s="13"/>
+      <c r="AF94" s="13"/>
+      <c r="AG94" s="13"/>
+      <c r="AH94" s="13"/>
+      <c r="AI94" s="13"/>
+      <c r="AJ94" s="13"/>
+      <c r="AK94" s="13"/>
+      <c r="AL94" s="13"/>
+      <c r="AM94" s="13"/>
+      <c r="AN94" s="13"/>
+      <c r="AO94" s="13"/>
+      <c r="AP94" s="13"/>
+      <c r="AQ94" s="13"/>
+      <c r="AR94" s="13"/>
+      <c r="AS94" s="13"/>
+      <c r="AT94" s="13"/>
+      <c r="AU94" s="13"/>
+      <c r="AV94" s="13"/>
+      <c r="AW94" s="13"/>
+      <c r="AX94" s="13"/>
+      <c r="AY94" s="13"/>
+      <c r="AZ94" s="13"/>
+      <c r="BA94" s="13"/>
+      <c r="BB94" s="13"/>
+      <c r="BC94" s="13"/>
+      <c r="BD94" s="13"/>
+      <c r="BE94" s="13"/>
+      <c r="BF94" s="13"/>
+      <c r="BG94" s="13"/>
+      <c r="BH94" s="13"/>
+      <c r="BI94" s="13"/>
+      <c r="BJ94" s="13"/>
+      <c r="BK94" s="13"/>
+      <c r="BL94" s="13"/>
+      <c r="BM94" s="13"/>
+    </row>
+    <row r="95" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="98"/>
+      <c r="C95" s="98"/>
+      <c r="D95" s="98"/>
+      <c r="E95" s="98"/>
+      <c r="F95" s="98"/>
+      <c r="G95" s="98"/>
+      <c r="H95" s="98"/>
+      <c r="I95" s="98"/>
+      <c r="J95" s="98"/>
+      <c r="K95" s="98"/>
+      <c r="L95" s="98"/>
+      <c r="M95" s="98"/>
+      <c r="N95" s="98"/>
+      <c r="O95" s="98"/>
+    </row>
+    <row r="96" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A96" s="44">
+        <v>146</v>
+      </c>
+      <c r="B96" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C96" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D96" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E96" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F94" s="16" t="s">
+      <c r="F96" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G94" s="16">
-        <v>200</v>
-      </c>
-      <c r="H94" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I94" s="16" t="s">
+      <c r="G96" s="44">
+        <v>403</v>
+      </c>
+      <c r="H96" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="I96" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J94" s="4" t="s">
+      <c r="J96" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K94" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L94" s="4">
-        <v>3015</v>
-      </c>
-      <c r="M94" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="N94" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="O94" s="22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="95" spans="1:65" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="95" t="s">
-        <v>171</v>
-      </c>
-      <c r="B95" s="96"/>
-      <c r="C95" s="96"/>
-      <c r="D95" s="96"/>
-      <c r="E95" s="96"/>
-      <c r="F95" s="96"/>
-      <c r="G95" s="96"/>
-      <c r="H95" s="96"/>
-      <c r="I95" s="96"/>
-      <c r="J95" s="96"/>
-      <c r="K95" s="96"/>
-      <c r="L95" s="96"/>
-      <c r="M95" s="96"/>
-      <c r="N95" s="96"/>
-      <c r="O95" s="96"/>
-      <c r="P95" s="13"/>
-      <c r="Q95" s="13"/>
-      <c r="R95" s="13"/>
-      <c r="S95" s="13"/>
-      <c r="T95" s="13"/>
-      <c r="U95" s="13"/>
-      <c r="V95" s="13"/>
-      <c r="W95" s="13"/>
-      <c r="X95" s="13"/>
-      <c r="Y95" s="13"/>
-      <c r="Z95" s="13"/>
-      <c r="AA95" s="13"/>
-      <c r="AB95" s="13"/>
-      <c r="AC95" s="13"/>
-      <c r="AD95" s="13"/>
-      <c r="AE95" s="13"/>
-      <c r="AF95" s="13"/>
-      <c r="AG95" s="13"/>
-      <c r="AH95" s="13"/>
-      <c r="AI95" s="13"/>
-      <c r="AJ95" s="13"/>
-      <c r="AK95" s="13"/>
-      <c r="AL95" s="13"/>
-      <c r="AM95" s="13"/>
-      <c r="AN95" s="13"/>
-      <c r="AO95" s="13"/>
-      <c r="AP95" s="13"/>
-      <c r="AQ95" s="13"/>
-      <c r="AR95" s="13"/>
-      <c r="AS95" s="13"/>
-      <c r="AT95" s="13"/>
-      <c r="AU95" s="13"/>
-      <c r="AV95" s="13"/>
-      <c r="AW95" s="13"/>
-      <c r="AX95" s="13"/>
-      <c r="AY95" s="13"/>
-      <c r="AZ95" s="13"/>
-      <c r="BA95" s="13"/>
-      <c r="BB95" s="13"/>
-      <c r="BC95" s="13"/>
-      <c r="BD95" s="13"/>
-      <c r="BE95" s="13"/>
-      <c r="BF95" s="13"/>
-      <c r="BG95" s="13"/>
-      <c r="BH95" s="13"/>
-      <c r="BI95" s="13"/>
-      <c r="BJ95" s="13"/>
-      <c r="BK95" s="13"/>
-      <c r="BL95" s="13"/>
-      <c r="BM95" s="13"/>
-    </row>
-    <row r="96" spans="1:65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="98" t="s">
-        <v>33</v>
-      </c>
-      <c r="B96" s="99"/>
-      <c r="C96" s="99"/>
-      <c r="D96" s="99"/>
-      <c r="E96" s="99"/>
-      <c r="F96" s="99"/>
-      <c r="G96" s="99"/>
-      <c r="H96" s="99"/>
-      <c r="I96" s="99"/>
-      <c r="J96" s="99"/>
-      <c r="K96" s="99"/>
-      <c r="L96" s="99"/>
-      <c r="M96" s="99"/>
-      <c r="N96" s="99"/>
-      <c r="O96" s="99"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="44">
-        <v>146</v>
+      <c r="K96" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L96" s="4">
+        <v>1016</v>
+      </c>
+      <c r="M96" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="N96" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O96" s="45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>102</v>
       </c>
       <c r="B97" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="C97" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D97" s="44" t="s">
+      <c r="C97" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E97" s="44" t="s">
+      <c r="E97" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F97" s="44" t="s">
+      <c r="F97" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G97" s="44">
-        <v>403</v>
-      </c>
-      <c r="H97" s="44" t="s">
+      <c r="G97" s="16">
+        <v>401</v>
+      </c>
+      <c r="H97" s="35" t="s">
         <v>38</v>
       </c>
       <c r="I97" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J97" s="44" t="s">
+      <c r="J97" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K97" s="44" t="s">
+      <c r="K97" s="4" t="s">
         <v>41</v>
       </c>
       <c r="L97" s="4">
-        <v>1016</v>
-      </c>
-      <c r="M97" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="N97" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="O97" s="45" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M97" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N97" s="23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="O97" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98" s="57" t="s">
         <v>172</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>36</v>
@@ -27693,30 +27715,30 @@
         <v>41</v>
       </c>
       <c r="L98" s="4">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M98" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N98" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="O98" s="30" t="s">
+      <c r="O98" s="29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99" s="57" t="s">
         <v>172</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
+      </c>
+      <c r="D99" s="4">
+        <v>301</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>37</v>
@@ -27725,7 +27747,7 @@
         <v>37</v>
       </c>
       <c r="G99" s="16">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H99" s="35" t="s">
         <v>38</v>
@@ -27737,30 +27759,30 @@
         <v>40</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L99" s="4">
-        <v>1013</v>
-      </c>
-      <c r="M99" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N99" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O99" s="29" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="L99" s="5">
+        <v>1003</v>
+      </c>
+      <c r="M99" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="N99" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O99" s="22" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B100" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="C100" s="15" t="s">
-        <v>46</v>
+      <c r="C100" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D100" s="4">
         <v>301</v>
@@ -27772,7 +27794,7 @@
         <v>37</v>
       </c>
       <c r="G100" s="16">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H100" s="35" t="s">
         <v>38</v>
@@ -27784,13 +27806,13 @@
         <v>40</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L100" s="5">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="M100" s="22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N100" s="22" t="s">
         <v>42</v>
@@ -27801,16 +27823,16 @@
     </row>
     <row r="101" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B101" s="57" t="s">
         <v>172</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D101" s="4">
-        <v>301</v>
+        <v>55</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>37</v>
@@ -27819,7 +27841,7 @@
         <v>37</v>
       </c>
       <c r="G101" s="16">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H101" s="35" t="s">
         <v>38</v>
@@ -27834,38 +27856,38 @@
         <v>51</v>
       </c>
       <c r="L101" s="5">
-        <v>1004</v>
+        <v>1015</v>
       </c>
       <c r="M101" s="22" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="N101" s="22" t="s">
         <v>42</v>
       </c>
       <c r="O101" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B102" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E102" s="4" t="s">
+      <c r="C102" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D102" s="54">
+        <v>302</v>
+      </c>
+      <c r="E102" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F102" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G102" s="16">
+      <c r="G102" s="4">
         <v>403</v>
       </c>
       <c r="H102" s="35" t="s">
@@ -27874,45 +27896,45 @@
       <c r="I102" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J102" s="4" t="s">
+      <c r="J102" s="54" t="s">
         <v>40</v>
       </c>
       <c r="K102" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L102" s="5">
-        <v>1015</v>
+      <c r="L102" s="54">
+        <v>1006</v>
       </c>
       <c r="M102" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N102" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="O102" s="22" t="s">
-        <v>36</v>
+      <c r="O102" s="55" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="C103" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D103" s="54">
+      <c r="C103" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103" s="4">
         <v>302</v>
       </c>
-      <c r="E103" s="54" t="s">
+      <c r="E103" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F103" s="54" t="s">
+      <c r="F103" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G103" s="4">
+      <c r="G103" s="16">
         <v>403</v>
       </c>
       <c r="H103" s="35" t="s">
@@ -27921,34 +27943,34 @@
       <c r="I103" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J103" s="54" t="s">
+      <c r="J103" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L103" s="54">
-        <v>1006</v>
+        <v>47</v>
+      </c>
+      <c r="L103" s="5">
+        <v>1007</v>
       </c>
       <c r="M103" s="22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N103" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="O103" s="55" t="s">
+      <c r="O103" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104" s="57" t="s">
         <v>172</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D104" s="4">
         <v>302</v>
@@ -27975,10 +27997,10 @@
         <v>47</v>
       </c>
       <c r="L104" s="5">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M104" s="22" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="N104" s="22" t="s">
         <v>42</v>
@@ -27987,15 +28009,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B105" s="57" t="s">
         <v>172</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="D105" s="4">
         <v>302</v>
@@ -28022,10 +28044,10 @@
         <v>47</v>
       </c>
       <c r="L105" s="5">
-        <v>1008</v>
+        <v>5001</v>
       </c>
       <c r="M105" s="22" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="N105" s="22" t="s">
         <v>42</v>
@@ -28034,15 +28056,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="31.5" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B106" s="57" t="s">
         <v>172</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D106" s="4">
         <v>302</v>
@@ -28066,77 +28088,77 @@
         <v>40</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L106" s="5">
-        <v>5001</v>
+        <v>1011</v>
       </c>
       <c r="M106" s="22" t="s">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="N106" s="22" t="s">
         <v>42</v>
       </c>
       <c r="O106" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" ht="31.5" collapsed="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="31.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="B107" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D107" s="4">
-        <v>302</v>
-      </c>
-      <c r="E107" s="4" t="s">
+      <c r="C107" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D107" s="16">
+        <v>305</v>
+      </c>
+      <c r="E107" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F107" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G107" s="16">
-        <v>403</v>
-      </c>
-      <c r="H107" s="35" t="s">
+      <c r="G107" s="26">
+        <v>400</v>
+      </c>
+      <c r="H107" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I107" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J107" s="4" t="s">
+      <c r="J107" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K107" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L107" s="5">
-        <v>1011</v>
-      </c>
-      <c r="M107" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="N107" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="O107" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" ht="31.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="K107" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L107" s="17">
+        <v>1009</v>
+      </c>
+      <c r="M107" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="N107" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="O107" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="63" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="B108" s="57" t="s">
         <v>172</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="D108" s="16">
         <v>305</v>
@@ -28162,31 +28184,31 @@
       <c r="K108" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="L108" s="17">
-        <v>1009</v>
+      <c r="L108" s="5">
+        <v>3002</v>
       </c>
       <c r="M108" s="23" t="s">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="N108" s="23" t="s">
         <v>176</v>
       </c>
       <c r="O108" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" ht="63" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="47.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B109" s="57" t="s">
         <v>172</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D109" s="16">
-        <v>305</v>
+        <v>180</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="E109" s="16" t="s">
         <v>37</v>
@@ -28209,65 +28231,35 @@
       <c r="K109" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="L109" s="5">
-        <v>3002</v>
+      <c r="L109" s="18">
+        <v>3003</v>
       </c>
       <c r="M109" s="23" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N109" s="23" t="s">
         <v>176</v>
       </c>
       <c r="O109" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" ht="47.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="4">
-        <v>113</v>
-      </c>
-      <c r="B110" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D110" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F110" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G110" s="26">
-        <v>400</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I110" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J110" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K110" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L110" s="18">
-        <v>3003</v>
-      </c>
-      <c r="M110" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="N110" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="O110" s="23" t="s">
         <v>167</v>
       </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" s="12"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="52"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="13"/>
+      <c r="N110" s="13"/>
+      <c r="O110" s="13"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
@@ -32199,7 +32191,6 @@
     <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="12"/>
       <c r="B342" s="13"/>
-      <c r="C342" s="52"/>
       <c r="D342" s="12"/>
       <c r="E342" s="12"/>
       <c r="F342" s="12"/>
@@ -32213,45 +32204,29 @@
       <c r="N342" s="13"/>
       <c r="O342" s="13"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A343" s="12"/>
-      <c r="B343" s="13"/>
-      <c r="D343" s="12"/>
-      <c r="E343" s="12"/>
-      <c r="F343" s="12"/>
-      <c r="G343" s="27"/>
-      <c r="H343" s="27"/>
-      <c r="I343" s="27"/>
-      <c r="J343" s="12"/>
-      <c r="K343" s="12"/>
-      <c r="L343" s="12"/>
-      <c r="M343" s="13"/>
-      <c r="N343" s="13"/>
-      <c r="O343" s="13"/>
-    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A95:O95"/>
-    <mergeCell ref="A96:O96"/>
-    <mergeCell ref="A78:O78"/>
-    <mergeCell ref="A64:O64"/>
-    <mergeCell ref="A79:O79"/>
-    <mergeCell ref="A63:O63"/>
+    <mergeCell ref="A62:O62"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A19:O19"/>
+    <mergeCell ref="A47:O47"/>
     <mergeCell ref="A48:O48"/>
-    <mergeCell ref="A49:O49"/>
+    <mergeCell ref="A94:O94"/>
+    <mergeCell ref="A95:O95"/>
+    <mergeCell ref="A77:O77"/>
+    <mergeCell ref="A63:O63"/>
+    <mergeCell ref="A78:O78"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L58:L62 L11:L15 L73:L77 L23:L24 L31:L32 L17:L18 L7:L9 L69:L71 L54:L56 L26:L29 L87:L90 L104:L109 L83:L85 L100:L102 L93" xr:uid="{8072A8F1-1A15-4450-88CE-A1709A757457}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L57:L61 L11:L15 L72:L76 L23:L24 L31:L32 L17:L18 L7:L9 L68:L70 L53:L55 L26:L29 L86:L89 L103:L108 L82:L84 L99:L101 L92" xr:uid="{8072A8F1-1A15-4450-88CE-A1709A757457}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K58:K62 K73:K77 K69:K71 K7:K9 K54:K56 K11:K18 K23:K45 K83:K85 K104:K110 K100:K102 K87:K94" xr:uid="{C2076C15-2C9A-460C-AFB6-61CB69F6633F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K57:K61 K72:K76 K68:K70 K7:K9 K53:K55 K11:K18 K23:K45 K82:K84 K103:K109 K99:K101 K86:K93" xr:uid="{C2076C15-2C9A-460C-AFB6-61CB69F6633F}">
       <formula1>"Field,Cross Field,Cross Form"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J58:J62 J73:J77 J69:J71 J7:J9 J54:J56 J11:J18 J23:J45 J83:J85 J104:J110 J100:J102 J87:J94" xr:uid="{4FC132A4-15BC-427B-842E-52711B772CED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J57:J61 J72:J76 J68:J70 J7:J9 J53:J55 J11:J18 J23:J45 J82:J84 J103:J109 J99:J101 J86:J93" xr:uid="{4FC132A4-15BC-427B-842E-52711B772CED}">
       <formula1>"Error,Warning"</formula1>
     </dataValidation>
   </dataValidations>
@@ -32261,67 +32236,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <l29cd52af9b640b690e3347aa75f97a9 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l29cd52af9b640b690e3347aa75f97a9>
-    <ade64af1c6a24cfdbe8da7f962b31d74 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ade64af1c6a24cfdbe8da7f962b31d74>
-    <e62af2f156934d1aab35222180c5fbb1 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Project Site</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">7b0ab4a9-6be8-4c6c-983c-945fdef69f95</TermId>
-        </TermInfo>
-      </Terms>
-    </e62af2f156934d1aab35222180c5fbb1>
-    <nb82aa7489a64919aab5fd247ffa0d1e xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Enhanced Reporting Requirements</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b99d9e68-488f-45bf-a303-a86e26269b90</TermId>
-        </TermInfo>
-      </Terms>
-    </nb82aa7489a64919aab5fd247ffa0d1e>
-    <f62107d924a7469492625f91956e46a6 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Development</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bc803685-9f6b-4a9c-85fc-59591d8af7f6</TermId>
-        </TermInfo>
-      </Terms>
-    </f62107d924a7469492625f91956e46a6>
-    <e9be08524f454d8b979862330e952271 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </e9be08524f454d8b979862330e952271>
-    <TaxCatchAll xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <Value>97</Value>
-      <Value>45</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <SharedWithUsers xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
-      <UserInfo>
-        <DisplayName>Hunt, Martin</DisplayName>
-        <AccountId>118</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Word document" ma:contentTypeID="0x010100852E11B2A94E4937B655CB4FCD918453006DFD5C59A7CB45AAB5046F3899BB7DEC00F397826DF95DEB4B8DB89BEACF2240F1" ma:contentTypeVersion="79" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="2efa76ee5d5cd602cc18ca32df57176e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9394a98c30c487d0596bd1768260a67a" ns2:_="">
     <xsd:import namespace="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8"/>
@@ -32541,25 +32455,68 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87B9136B-9C67-4E28-A05B-CA9673C4F673}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2AB05A4-ABA0-46C7-B81D-486560E213A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <l29cd52af9b640b690e3347aa75f97a9 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l29cd52af9b640b690e3347aa75f97a9>
+    <ade64af1c6a24cfdbe8da7f962b31d74 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ade64af1c6a24cfdbe8da7f962b31d74>
+    <e62af2f156934d1aab35222180c5fbb1 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Project Site</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">7b0ab4a9-6be8-4c6c-983c-945fdef69f95</TermId>
+        </TermInfo>
+      </Terms>
+    </e62af2f156934d1aab35222180c5fbb1>
+    <nb82aa7489a64919aab5fd247ffa0d1e xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Enhanced Reporting Requirements</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b99d9e68-488f-45bf-a303-a86e26269b90</TermId>
+        </TermInfo>
+      </Terms>
+    </nb82aa7489a64919aab5fd247ffa0d1e>
+    <f62107d924a7469492625f91956e46a6 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Development</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bc803685-9f6b-4a9c-85fc-59591d8af7f6</TermId>
+        </TermInfo>
+      </Terms>
+    </f62107d924a7469492625f91956e46a6>
+    <e9be08524f454d8b979862330e952271 xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e9be08524f454d8b979862330e952271>
+    <TaxCatchAll xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <Value>97</Value>
+      <Value>45</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <SharedWithUsers xmlns="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8">
+      <UserInfo>
+        <DisplayName>Hunt, Martin</DisplayName>
+        <AccountId>118</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8031746-25E9-4E51-ABEB-14F1D0CC1382}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32575,4 +32532,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2AB05A4-ABA0-46C7-B81D-486560E213A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87B9136B-9C67-4E28-A05B-CA9673C4F673}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="184185d0-04c6-4ef5-ba23-3d0ec5a17fb8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>